--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="203">
   <si>
     <t>Course</t>
   </si>
@@ -623,9 +623,6 @@
   </si>
   <si>
     <t>'5,264,3,4,7</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -649,7 +646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -708,7 +705,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,7 +1030,7 @@
     <col min="13" max="13" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +1725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>137</v>
       </c>
@@ -1810,7 +1807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>153</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
         <v>161</v>
       </c>
@@ -1933,7 +1930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="1" t="s">
         <v>137</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
@@ -2015,7 +2012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
         <v>185</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
         <v>185</v>
       </c>
@@ -2097,11 +2094,9 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2114,7 +2109,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -2129,7 +2124,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -2144,7 +2139,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -2159,7 +2154,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -2174,7 +2169,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -2189,7 +2184,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -2204,7 +2199,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -2219,7 +2214,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="214">
   <si>
     <t>Course</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Hole 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hole 4</t>
+    <t>Hole 4</t>
   </si>
   <si>
     <t>Hole 5</t>
@@ -52,6 +52,9 @@
     <t>Hole 9</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Turtle Creek</t>
   </si>
   <si>
@@ -253,57 +256,60 @@
     <t>5,220,3,3,6</t>
   </si>
   <si>
+    <t>'3,70,1,1,2</t>
+  </si>
+  <si>
+    <t>5,220,4,3,7</t>
+  </si>
+  <si>
+    <t>5,210,4,2,6</t>
+  </si>
+  <si>
+    <t>4,130,2,4,6</t>
+  </si>
+  <si>
+    <t>3,80,2,1,3</t>
+  </si>
+  <si>
+    <t>5,200,4,3,7</t>
+  </si>
+  <si>
+    <t>4,120,4,5,9</t>
+  </si>
+  <si>
+    <t>4,115,2,3,5</t>
+  </si>
+  <si>
+    <t>3,77,3,3,6</t>
+  </si>
+  <si>
+    <t>5,205,3,3,6</t>
+  </si>
+  <si>
+    <t>5,205,6,2,8</t>
+  </si>
+  <si>
+    <t>4,110,3,2,5</t>
+  </si>
+  <si>
+    <t>3,68,1,2,3</t>
+  </si>
+  <si>
+    <t>5,200,3,2,5</t>
+  </si>
+  <si>
+    <t>5,220,5,4,9</t>
+  </si>
+  <si>
+    <t>4,125,2,4,6</t>
+  </si>
+  <si>
+    <t>5,220,3,2,5</t>
+  </si>
+  <si>
     <t>3,70,1,1,2</t>
   </si>
   <si>
-    <t>5,220,4,3,7</t>
-  </si>
-  <si>
-    <t>5,210,4,2,6</t>
-  </si>
-  <si>
-    <t>4,130,2,4,6</t>
-  </si>
-  <si>
-    <t>3,80,2,1,3</t>
-  </si>
-  <si>
-    <t>5,200,4,3,7</t>
-  </si>
-  <si>
-    <t>4,120,4,5,9</t>
-  </si>
-  <si>
-    <t>4,115,2,3,5</t>
-  </si>
-  <si>
-    <t>3,77,3,3,6</t>
-  </si>
-  <si>
-    <t>5,205,3,3,6</t>
-  </si>
-  <si>
-    <t>5,205,6,2,8</t>
-  </si>
-  <si>
-    <t>4,110,3,2,5</t>
-  </si>
-  <si>
-    <t>3,68,1,2,3</t>
-  </si>
-  <si>
-    <t>5,200,3,2,5</t>
-  </si>
-  <si>
-    <t>5,220,5,4,9</t>
-  </si>
-  <si>
-    <t>4,125,2,4,6</t>
-  </si>
-  <si>
-    <t>5,220,3,2,5</t>
-  </si>
-  <si>
     <t>4,140,3,2,5</t>
   </si>
   <si>
@@ -574,7 +580,7 @@
     <t>Seaview</t>
   </si>
   <si>
-    <t>'5.268,3,2,5</t>
+    <t>'5,268,3,2,5</t>
   </si>
   <si>
     <t>'3,80,1,3,4</t>
@@ -623,6 +629,33 @@
   </si>
   <si>
     <t>'5,264,3,4,7</t>
+  </si>
+  <si>
+    <t>4,180,4,2,6,X</t>
+  </si>
+  <si>
+    <t>5,260,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>4,150,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>3,75,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>4,170,2,3,5,X</t>
+  </si>
+  <si>
+    <t>3,60,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>5,270,6,3,9,X</t>
+  </si>
+  <si>
+    <t>4,160,3,3,6,X</t>
+  </si>
+  <si>
+    <t>4,180,5,2,7,X</t>
   </si>
 </sst>
 </file>
@@ -678,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -694,6 +727,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1015,19 +1051,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1067,44 +1103,46 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
         <v>44661</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="5">
         <v>57</v>
@@ -1112,40 +1150,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>44677</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="5">
         <v>51</v>
@@ -1153,40 +1191,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>44682</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="5">
         <v>50</v>
@@ -1194,40 +1232,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
         <v>44696</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5">
         <v>52</v>
@@ -1235,40 +1273,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
         <v>44709</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="5">
         <v>53</v>
@@ -1276,40 +1314,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>44737</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" s="5">
         <v>52</v>
@@ -1317,40 +1355,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
         <v>44849</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8" s="5">
         <v>45</v>
@@ -1358,40 +1396,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>44863</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M9" s="5">
         <v>54</v>
@@ -1399,40 +1437,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>44870</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="5">
         <v>46</v>
@@ -1440,40 +1478,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3">
         <v>44878</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M11" s="5">
         <v>52</v>
@@ -1481,40 +1519,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>44884</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="M12" s="5">
         <v>45</v>
@@ -1522,40 +1560,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>44898</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M13" s="5">
         <v>45</v>
@@ -1563,40 +1601,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3">
         <v>45017</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M14" s="5">
         <v>52</v>
@@ -1604,40 +1642,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3">
         <v>45031</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M15" s="5">
         <v>49</v>
@@ -1645,40 +1683,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3">
         <v>45052</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M16" s="5">
         <v>38</v>
@@ -1686,40 +1724,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3">
         <v>45053</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M17" s="5">
         <v>54</v>
@@ -1727,40 +1765,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" s="3">
         <v>45073</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M18" s="5">
         <v>46</v>
@@ -1768,40 +1806,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3">
         <v>45081</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="M19" s="5">
         <v>46</v>
@@ -1809,40 +1847,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3">
         <v>45087</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M20" s="5">
         <v>41</v>
@@ -1850,40 +1888,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3">
         <v>45088</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="5">
         <v>47</v>
@@ -1891,40 +1929,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3">
         <v>45116</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="I22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>165</v>
+      <c r="J22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="M22" s="4">
         <v>45</v>
@@ -1932,40 +1970,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3">
         <v>45129</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="J23" s="7" t="s">
         <v>177</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="M23" s="4">
         <v>45</v>
@@ -1973,40 +2011,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3">
         <v>45165</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="H24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="M24" s="4">
         <v>45</v>
@@ -2014,40 +2052,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C25" s="3">
         <v>45171</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="I25" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="J25" s="7" t="s">
         <v>194</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="M25" s="4">
         <v>47</v>
@@ -2055,59 +2093,85 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C26" s="3">
         <v>45172</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="E26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="G26" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="I26" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="J26" s="7" t="s">
         <v>202</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="M26" s="4">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="4"/>
+      <c r="A27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45179</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="4">
+        <v>49</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="223">
   <si>
     <t>Course</t>
   </si>
@@ -656,6 +656,33 @@
   </si>
   <si>
     <t>4,180,5,2,7,X</t>
+  </si>
+  <si>
+    <t>'4,175,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,155,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>'4,150,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>'5,250,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>'3,80,1,3,4,Y</t>
+  </si>
+  <si>
+    <t>'4,180,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,170,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>'3,100,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>5,250,4,3,7,X</t>
   </si>
 </sst>
 </file>
@@ -2174,19 +2201,45 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="4"/>
+      <c r="A28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45186</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" s="4">
+        <v>41</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="289">
   <si>
     <t>Course</t>
   </si>
@@ -776,13 +776,13 @@
     <t>4,189,2,2,4,Y</t>
   </si>
   <si>
-    <t>4,146,2,2,X</t>
+    <t>4,146,2,2,4,X</t>
   </si>
   <si>
     <t>5,245,3,2,5,Y</t>
   </si>
   <si>
-    <t>3,94,3,1,X</t>
+    <t>3,94,3,1,4,X</t>
   </si>
   <si>
     <t>4,142,3,1,4,Y</t>
@@ -825,6 +825,63 @@
   </si>
   <si>
     <t>4,142,8,2,10,X</t>
+  </si>
+  <si>
+    <t>Royal St. Cloud</t>
+  </si>
+  <si>
+    <t>5,255,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,150,3,2,5,X</t>
+  </si>
+  <si>
+    <t>3,75,2,1,3,X</t>
+  </si>
+  <si>
+    <t>4,155,3,0,3,Y</t>
+  </si>
+  <si>
+    <t>4,170,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>3,100,2,2,4,X</t>
+  </si>
+  <si>
+    <t>4,180,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>4,170,3,3,6,X</t>
+  </si>
+  <si>
+    <t>5,255,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>5,225,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>3,75,3,2,5,X</t>
+  </si>
+  <si>
+    <t>4,175,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,190,4,3,7,Y</t>
+  </si>
+  <si>
+    <t>5,250,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,160,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,185,2,1,3,Y</t>
+  </si>
+  <si>
+    <t>3,80,1,3,4,Y</t>
+  </si>
+  <si>
+    <t>4,165,5,1,6,X</t>
   </si>
 </sst>
 </file>
@@ -832,7 +889,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +906,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -897,7 +960,7 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1250,7 +1313,7 @@
     <col min="13" max="13" style="15" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2522,33 +2585,83 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="11"/>
+      <c r="A32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45220</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M32" s="11">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45221</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="M33" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="316">
   <si>
     <t>Course</t>
   </si>
@@ -882,6 +882,87 @@
   </si>
   <si>
     <t>4,165,5,1,6,X</t>
+  </si>
+  <si>
+    <t>4,160,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,150,4,3,7,X</t>
+  </si>
+  <si>
+    <t>3,85,1,1,2,Y</t>
+  </si>
+  <si>
+    <t>4,250,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>3,72,3,2,5,X</t>
+  </si>
+  <si>
+    <t>4,170,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>5,275,3,2,5,X</t>
+  </si>
+  <si>
+    <t>3,85,2,1,3,X</t>
+  </si>
+  <si>
+    <t>4,165,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>5,280,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>3,75,1,5,6,Y</t>
+  </si>
+  <si>
+    <t>5,260,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>4,155,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>3,90,2,3,5,X</t>
+  </si>
+  <si>
+    <t>4,175,2,2,4,X</t>
+  </si>
+  <si>
+    <t>5,270,3,2,5,X</t>
+  </si>
+  <si>
+    <t>3,85,2,3,5,X</t>
+  </si>
+  <si>
+    <t>5,260,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,175,2,3,5,X</t>
+  </si>
+  <si>
+    <t>4,145,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>5,260,3,4,7,Y</t>
+  </si>
+  <si>
+    <t>4,150,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>3,80,1,3,Y</t>
+  </si>
+  <si>
+    <t>4,170,2,0,2,Y</t>
+  </si>
+  <si>
+    <t>3,89,1,3,4,Y</t>
+  </si>
+  <si>
+    <t>4,155,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>5,205,3,3,6,X</t>
   </si>
 </sst>
 </file>
@@ -889,7 +970,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,12 +987,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -943,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -958,9 +1033,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -985,6 +1057,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1298,22 +1379,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1431,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1391,7 +1472,7 @@
       <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <v>57</v>
       </c>
     </row>
@@ -1432,7 +1513,7 @@
       <c r="L3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>51</v>
       </c>
     </row>
@@ -1473,7 +1554,7 @@
       <c r="L4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>50</v>
       </c>
     </row>
@@ -1514,7 +1595,7 @@
       <c r="L5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>52</v>
       </c>
     </row>
@@ -1555,7 +1636,7 @@
       <c r="L6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>53</v>
       </c>
     </row>
@@ -1596,7 +1677,7 @@
       <c r="L7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>52</v>
       </c>
     </row>
@@ -1637,7 +1718,7 @@
       <c r="L8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>45</v>
       </c>
     </row>
@@ -1678,7 +1759,7 @@
       <c r="L9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>54</v>
       </c>
     </row>
@@ -1695,7 +1776,7 @@
       <c r="D10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>104</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1719,7 +1800,7 @@
       <c r="L10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>46</v>
       </c>
     </row>
@@ -1760,7 +1841,7 @@
       <c r="L11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>52</v>
       </c>
     </row>
@@ -1801,7 +1882,7 @@
       <c r="L12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>45</v>
       </c>
     </row>
@@ -1842,7 +1923,7 @@
       <c r="L13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>45</v>
       </c>
     </row>
@@ -1883,7 +1964,7 @@
       <c r="L14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>52</v>
       </c>
     </row>
@@ -1924,7 +2005,7 @@
       <c r="L15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>49</v>
       </c>
     </row>
@@ -1965,7 +2046,7 @@
       <c r="L16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>38</v>
       </c>
     </row>
@@ -2006,7 +2087,7 @@
       <c r="L17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <v>54</v>
       </c>
     </row>
@@ -2047,7 +2128,7 @@
       <c r="L18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>46</v>
       </c>
     </row>
@@ -2088,7 +2169,7 @@
       <c r="L19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <v>46</v>
       </c>
     </row>
@@ -2129,7 +2210,7 @@
       <c r="L20" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <v>41</v>
       </c>
     </row>
@@ -2170,7 +2251,7 @@
       <c r="L21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>47</v>
       </c>
     </row>
@@ -2184,34 +2265,34 @@
       <c r="C22" s="3">
         <v>45116</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2225,34 +2306,34 @@
       <c r="C23" s="3">
         <v>45129</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2266,34 +2347,34 @@
       <c r="C24" s="3">
         <v>45165</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2307,34 +2388,34 @@
       <c r="C25" s="3">
         <v>45171</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>47</v>
       </c>
     </row>
@@ -2348,34 +2429,34 @@
       <c r="C26" s="3">
         <v>45172</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2416,7 +2497,7 @@
       <c r="L27" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="10">
         <v>49</v>
       </c>
     </row>
@@ -2430,34 +2511,34 @@
       <c r="C28" s="3">
         <v>45186</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>238</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>243</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="13" t="s">
         <v>245</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <v>41</v>
       </c>
     </row>
@@ -2498,7 +2579,7 @@
       <c r="L29" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="10">
         <v>42</v>
       </c>
     </row>
@@ -2539,7 +2620,7 @@
       <c r="L30" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="10">
         <v>42</v>
       </c>
     </row>
@@ -2580,7 +2661,7 @@
       <c r="L31" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="10">
         <v>49</v>
       </c>
     </row>
@@ -2621,7 +2702,7 @@
       <c r="L32" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="10">
         <v>39</v>
       </c>
     </row>
@@ -2662,67 +2743,173 @@
       <c r="L33" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="M33" s="11"/>
+      <c r="M33" s="10">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="11"/>
+      <c r="A34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="14">
+        <v>45228</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M34" s="15">
+        <v>45</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="11"/>
+      <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="16">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45253</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" s="10">
+        <v>43</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="11"/>
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="14">
+        <v>45249</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" s="15">
+        <v>41</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="11"/>
+      <c r="A37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45298</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" s="10">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="2"/>
@@ -2737,7 +2924,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="11"/>
+      <c r="M38" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="2"/>
@@ -2752,7 +2939,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="11"/>
+      <c r="M39" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="2"/>
@@ -2767,7 +2954,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="11"/>
+      <c r="M40" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="2"/>
@@ -2782,7 +2969,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="11"/>
+      <c r="M41" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="2"/>
@@ -2797,7 +2984,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="11"/>
+      <c r="M42" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="2"/>
@@ -2812,7 +2999,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="11"/>
+      <c r="M43" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="2"/>
@@ -2827,7 +3014,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="11"/>
+      <c r="M44" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="2"/>
@@ -2842,7 +3029,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="11"/>
+      <c r="M45" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="2"/>
@@ -2857,7 +3044,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="11"/>
+      <c r="M46" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="2"/>
@@ -2872,7 +3059,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="11"/>
+      <c r="M47" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="2"/>
@@ -2887,7 +3074,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="11"/>
+      <c r="M48" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="2"/>
@@ -2902,7 +3089,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="11"/>
+      <c r="M49" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="2"/>
@@ -2917,7 +3104,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="11"/>
+      <c r="M50" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="2"/>
@@ -2932,7 +3119,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="11"/>
+      <c r="M51" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="2"/>
@@ -2947,7 +3134,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="11"/>
+      <c r="M52" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="2"/>
@@ -2962,7 +3149,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="11"/>
+      <c r="M53" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="2"/>
@@ -2977,7 +3164,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="11"/>
+      <c r="M54" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="2"/>
@@ -2992,7 +3179,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="11"/>
+      <c r="M55" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="2"/>
@@ -3007,7 +3194,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="11"/>
+      <c r="M56" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="2"/>
@@ -3022,7 +3209,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="11"/>
+      <c r="M57" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="2"/>
@@ -3037,7 +3224,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="11"/>
+      <c r="M58" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="2"/>
@@ -3052,7 +3239,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="11"/>
+      <c r="M59" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="2"/>
@@ -3067,7 +3254,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="11"/>
+      <c r="M60" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="2"/>
@@ -3082,7 +3269,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="11"/>
+      <c r="M61" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="2"/>
@@ -3097,7 +3284,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="11"/>
+      <c r="M62" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="2"/>
@@ -3112,7 +3299,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="11"/>
+      <c r="M63" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="2"/>
@@ -3127,7 +3314,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="11"/>
+      <c r="M64" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="2"/>
@@ -3142,7 +3329,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="11"/>
+      <c r="M65" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="2"/>
@@ -3157,7 +3344,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="11"/>
+      <c r="M66" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="2"/>
@@ -3172,7 +3359,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="11"/>
+      <c r="M67" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="2"/>
@@ -3187,7 +3374,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="11"/>
+      <c r="M68" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="2"/>
@@ -3202,7 +3389,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="11"/>
+      <c r="M69" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="2"/>
@@ -3217,7 +3404,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="11"/>
+      <c r="M70" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="2"/>
@@ -3232,7 +3419,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="11"/>
+      <c r="M71" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="2"/>
@@ -3247,7 +3434,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="11"/>
+      <c r="M72" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="2"/>
@@ -3262,7 +3449,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="11"/>
+      <c r="M73" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="2"/>
@@ -3277,7 +3464,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="11"/>
+      <c r="M74" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="2"/>
@@ -3292,7 +3479,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="11"/>
+      <c r="M75" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="2"/>
@@ -3307,7 +3494,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="11"/>
+      <c r="M76" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="2"/>
@@ -3322,7 +3509,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="11"/>
+      <c r="M77" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="2"/>
@@ -3337,7 +3524,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="11"/>
+      <c r="M78" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="2"/>
@@ -3352,7 +3539,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="11"/>
+      <c r="M79" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="2"/>
@@ -3367,7 +3554,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="11"/>
+      <c r="M80" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="2"/>
@@ -3382,7 +3569,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="11"/>
+      <c r="M81" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="2"/>
@@ -3397,7 +3584,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="11"/>
+      <c r="M82" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="2"/>
@@ -3412,7 +3599,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="11"/>
+      <c r="M83" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="2"/>
@@ -3427,7 +3614,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="11"/>
+      <c r="M84" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="2"/>
@@ -3442,7 +3629,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="11"/>
+      <c r="M85" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="2"/>
@@ -3457,7 +3644,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="11"/>
+      <c r="M86" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="2"/>
@@ -3472,7 +3659,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="11"/>
+      <c r="M87" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="2"/>
@@ -3487,7 +3674,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="11"/>
+      <c r="M88" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="2"/>
@@ -3502,7 +3689,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="11"/>
+      <c r="M89" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="2"/>
@@ -3517,7 +3704,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="11"/>
+      <c r="M90" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="2"/>
@@ -3532,7 +3719,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="11"/>
+      <c r="M91" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="2"/>
@@ -3547,7 +3734,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="11"/>
+      <c r="M92" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="2"/>
@@ -3562,7 +3749,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="11"/>
+      <c r="M93" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="2"/>
@@ -3577,7 +3764,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="11"/>
+      <c r="M94" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="2"/>
@@ -3592,7 +3779,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="11"/>
+      <c r="M95" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="2"/>
@@ -3607,7 +3794,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="11"/>
+      <c r="M96" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="2"/>
@@ -3622,7 +3809,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="11"/>
+      <c r="M97" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="2"/>
@@ -3637,7 +3824,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="11"/>
+      <c r="M98" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="2"/>
@@ -3652,7 +3839,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="11"/>
+      <c r="M99" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="2"/>
@@ -3667,7 +3854,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="11"/>
+      <c r="M100" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="2"/>
@@ -3682,7 +3869,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="11"/>
+      <c r="M101" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="2"/>
@@ -3697,7 +3884,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="11"/>
+      <c r="M102" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="2"/>
@@ -3712,7 +3899,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="11"/>
+      <c r="M103" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="2"/>
@@ -3727,7 +3914,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="11"/>
+      <c r="M104" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="2"/>
@@ -3742,7 +3929,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="11"/>
+      <c r="M105" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="2"/>
@@ -3757,7 +3944,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="11"/>
+      <c r="M106" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="2"/>
@@ -3772,7 +3959,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="11"/>
+      <c r="M107" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="2"/>
@@ -3787,7 +3974,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="11"/>
+      <c r="M108" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="2"/>
@@ -3802,7 +3989,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-      <c r="M109" s="11"/>
+      <c r="M109" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="2"/>
@@ -3817,7 +4004,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="11"/>
+      <c r="M110" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="2"/>
@@ -3832,7 +4019,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="11"/>
+      <c r="M111" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="2"/>
@@ -3847,7 +4034,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-      <c r="M112" s="11"/>
+      <c r="M112" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="2"/>
@@ -3862,7 +4049,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="11"/>
+      <c r="M113" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="2"/>
@@ -3877,7 +4064,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="11"/>
+      <c r="M114" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="2"/>
@@ -3892,7 +4079,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="11"/>
+      <c r="M115" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="2"/>
@@ -3907,7 +4094,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="11"/>
+      <c r="M116" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="2"/>
@@ -3922,7 +4109,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="M117" s="11"/>
+      <c r="M117" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="2"/>
@@ -3937,7 +4124,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="11"/>
+      <c r="M118" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="2"/>
@@ -3952,7 +4139,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="11"/>
+      <c r="M119" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="2"/>
@@ -3967,7 +4154,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-      <c r="M120" s="11"/>
+      <c r="M120" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="2"/>
@@ -3982,7 +4169,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="11"/>
+      <c r="M121" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="2"/>
@@ -3997,7 +4184,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-      <c r="M122" s="11"/>
+      <c r="M122" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="2"/>
@@ -4012,7 +4199,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-      <c r="M123" s="11"/>
+      <c r="M123" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="2"/>
@@ -4027,7 +4214,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="M124" s="11"/>
+      <c r="M124" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="2"/>
@@ -4042,7 +4229,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-      <c r="M125" s="11"/>
+      <c r="M125" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="2"/>
@@ -4057,7 +4244,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-      <c r="M126" s="11"/>
+      <c r="M126" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="2"/>
@@ -4072,7 +4259,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="11"/>
+      <c r="M127" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="2"/>
@@ -4087,7 +4274,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
-      <c r="M128" s="11"/>
+      <c r="M128" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="2"/>
@@ -4102,7 +4289,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
-      <c r="M129" s="11"/>
+      <c r="M129" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="2"/>
@@ -4117,7 +4304,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
-      <c r="M130" s="11"/>
+      <c r="M130" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="2"/>
@@ -4132,7 +4319,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
-      <c r="M131" s="11"/>
+      <c r="M131" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="2"/>
@@ -4147,7 +4334,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
-      <c r="M132" s="11"/>
+      <c r="M132" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="2"/>
@@ -4162,7 +4349,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-      <c r="M133" s="11"/>
+      <c r="M133" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="2"/>
@@ -4177,7 +4364,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-      <c r="M134" s="11"/>
+      <c r="M134" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="2"/>
@@ -4192,7 +4379,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
-      <c r="M135" s="11"/>
+      <c r="M135" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="2"/>
@@ -4207,7 +4394,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="11"/>
+      <c r="M136" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="2"/>
@@ -4222,7 +4409,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
-      <c r="M137" s="11"/>
+      <c r="M137" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="2"/>
@@ -4237,7 +4424,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-      <c r="M138" s="11"/>
+      <c r="M138" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="2"/>
@@ -4252,7 +4439,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-      <c r="M139" s="11"/>
+      <c r="M139" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="2"/>
@@ -4267,7 +4454,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-      <c r="M140" s="11"/>
+      <c r="M140" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="2"/>
@@ -4282,7 +4469,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
-      <c r="M141" s="11"/>
+      <c r="M141" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="2"/>
@@ -4297,7 +4484,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
-      <c r="M142" s="11"/>
+      <c r="M142" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="2"/>
@@ -4312,7 +4499,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-      <c r="M143" s="11"/>
+      <c r="M143" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="2"/>
@@ -4327,7 +4514,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-      <c r="M144" s="11"/>
+      <c r="M144" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="2"/>
@@ -4342,7 +4529,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-      <c r="M145" s="11"/>
+      <c r="M145" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="2"/>
@@ -4357,7 +4544,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="11"/>
+      <c r="M146" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="2"/>
@@ -4372,7 +4559,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-      <c r="M147" s="11"/>
+      <c r="M147" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="2"/>
@@ -4387,7 +4574,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="11"/>
+      <c r="M148" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="2"/>
@@ -4402,7 +4589,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-      <c r="M149" s="11"/>
+      <c r="M149" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="2"/>
@@ -4417,7 +4604,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-      <c r="M150" s="11"/>
+      <c r="M150" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="2"/>
@@ -4432,7 +4619,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-      <c r="M151" s="11"/>
+      <c r="M151" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="2"/>
@@ -4447,7 +4634,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="11"/>
+      <c r="M152" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="2"/>
@@ -4462,7 +4649,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-      <c r="M153" s="11"/>
+      <c r="M153" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="2"/>
@@ -4477,7 +4664,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-      <c r="M154" s="11"/>
+      <c r="M154" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="2"/>
@@ -4492,7 +4679,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-      <c r="M155" s="11"/>
+      <c r="M155" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="2"/>
@@ -4507,7 +4694,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-      <c r="M156" s="11"/>
+      <c r="M156" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="2"/>
@@ -4522,7 +4709,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-      <c r="M157" s="11"/>
+      <c r="M157" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="2"/>
@@ -4537,7 +4724,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
-      <c r="M158" s="11"/>
+      <c r="M158" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="2"/>
@@ -4552,7 +4739,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
-      <c r="M159" s="11"/>
+      <c r="M159" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="2"/>
@@ -4567,7 +4754,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
-      <c r="M160" s="11"/>
+      <c r="M160" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="2"/>
@@ -4582,7 +4769,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
-      <c r="M161" s="11"/>
+      <c r="M161" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="2"/>
@@ -4597,7 +4784,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
-      <c r="M162" s="11"/>
+      <c r="M162" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="2"/>
@@ -4612,7 +4799,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
-      <c r="M163" s="11"/>
+      <c r="M163" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="2"/>
@@ -4627,7 +4814,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
-      <c r="M164" s="11"/>
+      <c r="M164" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="2"/>
@@ -4642,7 +4829,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
-      <c r="M165" s="11"/>
+      <c r="M165" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="2"/>
@@ -4657,7 +4844,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
-      <c r="M166" s="11"/>
+      <c r="M166" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="2"/>
@@ -4672,7 +4859,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
-      <c r="M167" s="11"/>
+      <c r="M167" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="2"/>
@@ -4687,7 +4874,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
-      <c r="M168" s="11"/>
+      <c r="M168" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="2"/>
@@ -4702,7 +4889,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
-      <c r="M169" s="11"/>
+      <c r="M169" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="2"/>
@@ -4717,7 +4904,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
-      <c r="M170" s="11"/>
+      <c r="M170" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="2"/>
@@ -4732,7 +4919,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
-      <c r="M171" s="11"/>
+      <c r="M171" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="2"/>
@@ -4747,7 +4934,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
-      <c r="M172" s="11"/>
+      <c r="M172" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="2"/>
@@ -4762,7 +4949,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
-      <c r="M173" s="11"/>
+      <c r="M173" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="2"/>
@@ -4777,7 +4964,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
-      <c r="M174" s="11"/>
+      <c r="M174" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="2"/>
@@ -4792,7 +4979,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="11"/>
+      <c r="M175" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="2"/>
@@ -4807,7 +4994,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="11"/>
+      <c r="M176" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="2"/>
@@ -4822,7 +5009,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
-      <c r="M177" s="11"/>
+      <c r="M177" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="2"/>
@@ -4837,7 +5024,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
-      <c r="M178" s="11"/>
+      <c r="M178" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="2"/>
@@ -4852,7 +5039,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
-      <c r="M179" s="11"/>
+      <c r="M179" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="2"/>
@@ -4867,7 +5054,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
-      <c r="M180" s="11"/>
+      <c r="M180" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="2"/>
@@ -4882,7 +5069,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
-      <c r="M181" s="11"/>
+      <c r="M181" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="2"/>
@@ -4897,7 +5084,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
-      <c r="M182" s="11"/>
+      <c r="M182" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="2"/>
@@ -4912,7 +5099,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
-      <c r="M183" s="11"/>
+      <c r="M183" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="2"/>
@@ -4927,7 +5114,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
-      <c r="M184" s="11"/>
+      <c r="M184" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="2"/>
@@ -4942,7 +5129,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
-      <c r="M185" s="11"/>
+      <c r="M185" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="2"/>
@@ -4957,7 +5144,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
-      <c r="M186" s="11"/>
+      <c r="M186" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="2"/>
@@ -4972,7 +5159,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
-      <c r="M187" s="11"/>
+      <c r="M187" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="2"/>
@@ -4987,7 +5174,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
-      <c r="M188" s="11"/>
+      <c r="M188" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="2"/>
@@ -5002,7 +5189,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
-      <c r="M189" s="11"/>
+      <c r="M189" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="2"/>
@@ -5017,7 +5204,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
-      <c r="M190" s="11"/>
+      <c r="M190" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="2"/>
@@ -5032,7 +5219,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
-      <c r="M191" s="11"/>
+      <c r="M191" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="2"/>
@@ -5047,7 +5234,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
-      <c r="M192" s="11"/>
+      <c r="M192" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="2"/>
@@ -5062,7 +5249,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
-      <c r="M193" s="11"/>
+      <c r="M193" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="2"/>
@@ -5077,7 +5264,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
-      <c r="M194" s="11"/>
+      <c r="M194" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="2"/>
@@ -5092,7 +5279,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
-      <c r="M195" s="11"/>
+      <c r="M195" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="2"/>
@@ -5107,7 +5294,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
-      <c r="M196" s="11"/>
+      <c r="M196" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="2"/>
@@ -5122,7 +5309,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
-      <c r="M197" s="11"/>
+      <c r="M197" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="2"/>
@@ -5137,7 +5324,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
-      <c r="M198" s="11"/>
+      <c r="M198" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="2"/>
@@ -5152,7 +5339,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
-      <c r="M199" s="11"/>
+      <c r="M199" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="2"/>
@@ -5167,7 +5354,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
-      <c r="M200" s="11"/>
+      <c r="M200" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="2"/>
@@ -5182,7 +5369,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
-      <c r="M201" s="11"/>
+      <c r="M201" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="2"/>
@@ -5197,7 +5384,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
-      <c r="M202" s="11"/>
+      <c r="M202" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="2"/>
@@ -5212,7 +5399,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
-      <c r="M203" s="11"/>
+      <c r="M203" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="2"/>
@@ -5227,7 +5414,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
-      <c r="M204" s="11"/>
+      <c r="M204" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="2"/>
@@ -5242,7 +5429,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
-      <c r="M205" s="11"/>
+      <c r="M205" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="2"/>
@@ -5257,7 +5444,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
-      <c r="M206" s="11"/>
+      <c r="M206" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="2"/>
@@ -5272,7 +5459,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
-      <c r="M207" s="11"/>
+      <c r="M207" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="2"/>
@@ -5287,7 +5474,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
-      <c r="M208" s="11"/>
+      <c r="M208" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="2"/>
@@ -5302,7 +5489,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
-      <c r="M209" s="11"/>
+      <c r="M209" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="2"/>
@@ -5317,7 +5504,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
-      <c r="M210" s="11"/>
+      <c r="M210" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="2"/>
@@ -5332,7 +5519,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
-      <c r="M211" s="11"/>
+      <c r="M211" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="2"/>
@@ -5347,7 +5534,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
-      <c r="M212" s="11"/>
+      <c r="M212" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="2"/>
@@ -5362,7 +5549,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
-      <c r="M213" s="11"/>
+      <c r="M213" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="2"/>
@@ -5377,7 +5564,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
-      <c r="M214" s="11"/>
+      <c r="M214" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="2"/>
@@ -5392,7 +5579,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
-      <c r="M215" s="11"/>
+      <c r="M215" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="2"/>
@@ -5407,7 +5594,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
-      <c r="M216" s="11"/>
+      <c r="M216" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="2"/>
@@ -5422,7 +5609,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
-      <c r="M217" s="11"/>
+      <c r="M217" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="2"/>
@@ -5437,7 +5624,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
-      <c r="M218" s="11"/>
+      <c r="M218" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="2"/>
@@ -5452,7 +5639,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
-      <c r="M219" s="11"/>
+      <c r="M219" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="2"/>
@@ -5467,7 +5654,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
-      <c r="M220" s="11"/>
+      <c r="M220" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="2"/>
@@ -5482,7 +5669,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
-      <c r="M221" s="11"/>
+      <c r="M221" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="2"/>
@@ -5497,7 +5684,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
-      <c r="M222" s="11"/>
+      <c r="M222" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="2"/>
@@ -5512,7 +5699,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
-      <c r="M223" s="11"/>
+      <c r="M223" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="2"/>
@@ -5527,7 +5714,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
-      <c r="M224" s="11"/>
+      <c r="M224" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="2"/>
@@ -5542,7 +5729,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
-      <c r="M225" s="11"/>
+      <c r="M225" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="2"/>
@@ -5557,7 +5744,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
-      <c r="M226" s="11"/>
+      <c r="M226" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="2"/>
@@ -5572,7 +5759,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
-      <c r="M227" s="11"/>
+      <c r="M227" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="2"/>
@@ -5587,7 +5774,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
-      <c r="M228" s="11"/>
+      <c r="M228" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="2"/>
@@ -5602,7 +5789,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
-      <c r="M229" s="11"/>
+      <c r="M229" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="2"/>
@@ -5617,7 +5804,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
-      <c r="M230" s="11"/>
+      <c r="M230" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="2"/>
@@ -5632,7 +5819,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
-      <c r="M231" s="11"/>
+      <c r="M231" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="2"/>
@@ -5647,7 +5834,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
-      <c r="M232" s="11"/>
+      <c r="M232" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="2"/>
@@ -5662,7 +5849,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
-      <c r="M233" s="11"/>
+      <c r="M233" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="2"/>
@@ -5677,7 +5864,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
-      <c r="M234" s="11"/>
+      <c r="M234" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="2"/>
@@ -5692,7 +5879,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
-      <c r="M235" s="11"/>
+      <c r="M235" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="2"/>
@@ -5707,7 +5894,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
-      <c r="M236" s="11"/>
+      <c r="M236" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="2"/>
@@ -5722,7 +5909,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
-      <c r="M237" s="11"/>
+      <c r="M237" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="2"/>
@@ -5737,7 +5924,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
-      <c r="M238" s="11"/>
+      <c r="M238" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="2"/>
@@ -5752,7 +5939,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
-      <c r="M239" s="11"/>
+      <c r="M239" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="2"/>
@@ -5767,7 +5954,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
-      <c r="M240" s="11"/>
+      <c r="M240" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="2"/>
@@ -5782,7 +5969,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
-      <c r="M241" s="11"/>
+      <c r="M241" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="2"/>
@@ -5797,7 +5984,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
-      <c r="M242" s="11"/>
+      <c r="M242" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="2"/>
@@ -5812,7 +5999,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
-      <c r="M243" s="11"/>
+      <c r="M243" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="2"/>
@@ -5827,7 +6014,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
-      <c r="M244" s="11"/>
+      <c r="M244" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="2"/>
@@ -5842,7 +6029,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
-      <c r="M245" s="11"/>
+      <c r="M245" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="2"/>
@@ -5857,7 +6044,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
-      <c r="M246" s="11"/>
+      <c r="M246" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="2"/>
@@ -5872,7 +6059,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
-      <c r="M247" s="11"/>
+      <c r="M247" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="2"/>
@@ -5887,7 +6074,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
-      <c r="M248" s="11"/>
+      <c r="M248" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="2"/>
@@ -5902,7 +6089,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
-      <c r="M249" s="11"/>
+      <c r="M249" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="2"/>
@@ -5917,7 +6104,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
-      <c r="M250" s="11"/>
+      <c r="M250" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="2"/>
@@ -5932,7 +6119,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
-      <c r="M251" s="11"/>
+      <c r="M251" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="2"/>
@@ -5947,7 +6134,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
-      <c r="M252" s="11"/>
+      <c r="M252" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="2"/>
@@ -5962,7 +6149,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
-      <c r="M253" s="11"/>
+      <c r="M253" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="2"/>
@@ -5977,7 +6164,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
-      <c r="M254" s="11"/>
+      <c r="M254" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="2"/>
@@ -5992,7 +6179,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
-      <c r="M255" s="11"/>
+      <c r="M255" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="2"/>
@@ -6007,7 +6194,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
-      <c r="M256" s="11"/>
+      <c r="M256" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="2"/>
@@ -6022,7 +6209,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
-      <c r="M257" s="11"/>
+      <c r="M257" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="2"/>
@@ -6037,7 +6224,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
-      <c r="M258" s="11"/>
+      <c r="M258" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="2"/>
@@ -6052,7 +6239,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
-      <c r="M259" s="11"/>
+      <c r="M259" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="2"/>
@@ -6067,7 +6254,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
-      <c r="M260" s="11"/>
+      <c r="M260" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="2"/>
@@ -6082,7 +6269,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
-      <c r="M261" s="11"/>
+      <c r="M261" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="2"/>
@@ -6097,7 +6284,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
-      <c r="M262" s="11"/>
+      <c r="M262" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="2"/>
@@ -6112,7 +6299,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
-      <c r="M263" s="11"/>
+      <c r="M263" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="2"/>
@@ -6127,7 +6314,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
-      <c r="M264" s="11"/>
+      <c r="M264" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="2"/>
@@ -6142,7 +6329,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
-      <c r="M265" s="11"/>
+      <c r="M265" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="2"/>
@@ -6157,7 +6344,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
-      <c r="M266" s="11"/>
+      <c r="M266" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="2"/>
@@ -6172,7 +6359,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
-      <c r="M267" s="11"/>
+      <c r="M267" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="2"/>
@@ -6187,7 +6374,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
-      <c r="M268" s="11"/>
+      <c r="M268" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="2"/>
@@ -6202,7 +6389,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
-      <c r="M269" s="11"/>
+      <c r="M269" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="2"/>
@@ -6217,7 +6404,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
-      <c r="M270" s="11"/>
+      <c r="M270" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="2"/>
@@ -6232,7 +6419,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
-      <c r="M271" s="11"/>
+      <c r="M271" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="2"/>
@@ -6247,7 +6434,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
-      <c r="M272" s="11"/>
+      <c r="M272" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="2"/>
@@ -6262,7 +6449,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
-      <c r="M273" s="11"/>
+      <c r="M273" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="2"/>
@@ -6277,7 +6464,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
-      <c r="M274" s="11"/>
+      <c r="M274" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="2"/>
@@ -6292,7 +6479,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
-      <c r="M275" s="11"/>
+      <c r="M275" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="2"/>
@@ -6307,7 +6494,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
-      <c r="M276" s="11"/>
+      <c r="M276" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="2"/>
@@ -6322,7 +6509,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
-      <c r="M277" s="11"/>
+      <c r="M277" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="2"/>
@@ -6337,7 +6524,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
-      <c r="M278" s="11"/>
+      <c r="M278" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="2"/>
@@ -6352,7 +6539,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
-      <c r="M279" s="11"/>
+      <c r="M279" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="2"/>
@@ -6367,7 +6554,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
-      <c r="M280" s="11"/>
+      <c r="M280" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="2"/>
@@ -6382,7 +6569,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
-      <c r="M281" s="11"/>
+      <c r="M281" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="2"/>
@@ -6397,7 +6584,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
-      <c r="M282" s="11"/>
+      <c r="M282" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="2"/>
@@ -6412,7 +6599,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
-      <c r="M283" s="11"/>
+      <c r="M283" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="2"/>
@@ -6427,7 +6614,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
-      <c r="M284" s="11"/>
+      <c r="M284" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="2"/>
@@ -6442,7 +6629,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
-      <c r="M285" s="11"/>
+      <c r="M285" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="2"/>
@@ -6457,7 +6644,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
-      <c r="M286" s="11"/>
+      <c r="M286" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="2"/>
@@ -6472,7 +6659,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
-      <c r="M287" s="11"/>
+      <c r="M287" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="2"/>
@@ -6487,7 +6674,7 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
-      <c r="M288" s="11"/>
+      <c r="M288" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="2"/>
@@ -6502,7 +6689,7 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
-      <c r="M289" s="11"/>
+      <c r="M289" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="2"/>
@@ -6517,7 +6704,7 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
-      <c r="M290" s="11"/>
+      <c r="M290" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="2"/>
@@ -6532,7 +6719,7 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
-      <c r="M291" s="11"/>
+      <c r="M291" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="2"/>
@@ -6547,7 +6734,7 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
-      <c r="M292" s="11"/>
+      <c r="M292" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="2"/>
@@ -6562,7 +6749,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
-      <c r="M293" s="11"/>
+      <c r="M293" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="2"/>
@@ -6577,7 +6764,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
-      <c r="M294" s="11"/>
+      <c r="M294" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="2"/>
@@ -6592,7 +6779,7 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
-      <c r="M295" s="11"/>
+      <c r="M295" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="2"/>
@@ -6607,7 +6794,7 @@
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
-      <c r="M296" s="11"/>
+      <c r="M296" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="2"/>
@@ -6622,7 +6809,7 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
-      <c r="M297" s="11"/>
+      <c r="M297" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="2"/>
@@ -6637,7 +6824,7 @@
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
-      <c r="M298" s="11"/>
+      <c r="M298" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="2"/>
@@ -6652,7 +6839,7 @@
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
-      <c r="M299" s="11"/>
+      <c r="M299" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="2"/>
@@ -6667,7 +6854,7 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
-      <c r="M300" s="11"/>
+      <c r="M300" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="2"/>
@@ -6682,7 +6869,7 @@
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
-      <c r="M301" s="11"/>
+      <c r="M301" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="2"/>
@@ -6697,7 +6884,7 @@
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
-      <c r="M302" s="11"/>
+      <c r="M302" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="2"/>
@@ -6712,7 +6899,7 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
-      <c r="M303" s="11"/>
+      <c r="M303" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="2"/>
@@ -6727,7 +6914,7 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
-      <c r="M304" s="11"/>
+      <c r="M304" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="2"/>
@@ -6742,7 +6929,7 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
-      <c r="M305" s="11"/>
+      <c r="M305" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="2"/>
@@ -6757,7 +6944,7 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
-      <c r="M306" s="11"/>
+      <c r="M306" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="2"/>
@@ -6772,7 +6959,7 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
-      <c r="M307" s="11"/>
+      <c r="M307" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="2"/>
@@ -6787,7 +6974,7 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
-      <c r="M308" s="11"/>
+      <c r="M308" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="2"/>
@@ -6802,7 +6989,7 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
-      <c r="M309" s="11"/>
+      <c r="M309" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="2"/>
@@ -6817,7 +7004,7 @@
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
-      <c r="M310" s="11"/>
+      <c r="M310" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="2"/>
@@ -6832,7 +7019,7 @@
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
-      <c r="M311" s="11"/>
+      <c r="M311" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="2"/>
@@ -6847,7 +7034,7 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
-      <c r="M312" s="11"/>
+      <c r="M312" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="2"/>
@@ -6862,7 +7049,7 @@
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
-      <c r="M313" s="11"/>
+      <c r="M313" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="2"/>
@@ -6877,7 +7064,7 @@
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
-      <c r="M314" s="11"/>
+      <c r="M314" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="2"/>
@@ -6892,7 +7079,7 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
-      <c r="M315" s="11"/>
+      <c r="M315" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="2"/>
@@ -6907,7 +7094,7 @@
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
-      <c r="M316" s="11"/>
+      <c r="M316" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="2"/>
@@ -6922,7 +7109,7 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
-      <c r="M317" s="11"/>
+      <c r="M317" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="2"/>
@@ -6937,7 +7124,7 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
-      <c r="M318" s="11"/>
+      <c r="M318" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="2"/>
@@ -6952,7 +7139,7 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
-      <c r="M319" s="11"/>
+      <c r="M319" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="2"/>
@@ -6967,7 +7154,7 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
-      <c r="M320" s="11"/>
+      <c r="M320" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="2"/>
@@ -6982,7 +7169,7 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
-      <c r="M321" s="11"/>
+      <c r="M321" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="2"/>
@@ -6997,7 +7184,7 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
-      <c r="M322" s="11"/>
+      <c r="M322" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="2"/>
@@ -7012,7 +7199,7 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
-      <c r="M323" s="11"/>
+      <c r="M323" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="2"/>
@@ -7027,7 +7214,7 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
-      <c r="M324" s="11"/>
+      <c r="M324" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="2"/>
@@ -7042,7 +7229,7 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
-      <c r="M325" s="11"/>
+      <c r="M325" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="2"/>
@@ -7057,7 +7244,7 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
-      <c r="M326" s="11"/>
+      <c r="M326" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="2"/>
@@ -7072,7 +7259,7 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
-      <c r="M327" s="11"/>
+      <c r="M327" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="2"/>
@@ -7087,7 +7274,7 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
-      <c r="M328" s="11"/>
+      <c r="M328" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="2"/>
@@ -7102,7 +7289,7 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
-      <c r="M329" s="11"/>
+      <c r="M329" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="2"/>
@@ -7117,7 +7304,7 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
-      <c r="M330" s="11"/>
+      <c r="M330" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="2"/>
@@ -7132,7 +7319,7 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
-      <c r="M331" s="11"/>
+      <c r="M331" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="2"/>
@@ -7147,7 +7334,7 @@
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
-      <c r="M332" s="11"/>
+      <c r="M332" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="2"/>
@@ -7162,7 +7349,7 @@
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
-      <c r="M333" s="11"/>
+      <c r="M333" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="2"/>
@@ -7177,7 +7364,7 @@
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
-      <c r="M334" s="11"/>
+      <c r="M334" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="2"/>
@@ -7192,7 +7379,7 @@
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
-      <c r="M335" s="11"/>
+      <c r="M335" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="2"/>
@@ -7207,7 +7394,7 @@
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
-      <c r="M336" s="11"/>
+      <c r="M336" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="2"/>
@@ -7222,7 +7409,7 @@
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
-      <c r="M337" s="11"/>
+      <c r="M337" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="2"/>
@@ -7237,7 +7424,7 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
-      <c r="M338" s="11"/>
+      <c r="M338" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="2"/>
@@ -7252,7 +7439,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
-      <c r="M339" s="11"/>
+      <c r="M339" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="2"/>
@@ -7267,7 +7454,7 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
-      <c r="M340" s="11"/>
+      <c r="M340" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="2"/>
@@ -7282,7 +7469,7 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
-      <c r="M341" s="11"/>
+      <c r="M341" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="2"/>
@@ -7297,7 +7484,7 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
-      <c r="M342" s="11"/>
+      <c r="M342" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="2"/>
@@ -7312,7 +7499,7 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
       <c r="L343" s="2"/>
-      <c r="M343" s="11"/>
+      <c r="M343" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="2"/>
@@ -7327,7 +7514,7 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
-      <c r="M344" s="11"/>
+      <c r="M344" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="2"/>
@@ -7342,7 +7529,7 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
       <c r="L345" s="2"/>
-      <c r="M345" s="11"/>
+      <c r="M345" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="2"/>
@@ -7357,7 +7544,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
       <c r="L346" s="2"/>
-      <c r="M346" s="11"/>
+      <c r="M346" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="2"/>
@@ -7372,7 +7559,7 @@
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
-      <c r="M347" s="11"/>
+      <c r="M347" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="2"/>
@@ -7387,7 +7574,7 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
-      <c r="M348" s="11"/>
+      <c r="M348" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="2"/>
@@ -7402,7 +7589,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
-      <c r="M349" s="11"/>
+      <c r="M349" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="2"/>
@@ -7417,7 +7604,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
-      <c r="M350" s="11"/>
+      <c r="M350" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="2"/>
@@ -7432,7 +7619,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
-      <c r="M351" s="11"/>
+      <c r="M351" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="2"/>
@@ -7447,7 +7634,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
-      <c r="M352" s="11"/>
+      <c r="M352" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="2"/>
@@ -7462,7 +7649,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
-      <c r="M353" s="11"/>
+      <c r="M353" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="2"/>
@@ -7477,7 +7664,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
-      <c r="M354" s="11"/>
+      <c r="M354" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="2"/>
@@ -7492,7 +7679,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
-      <c r="M355" s="11"/>
+      <c r="M355" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="2"/>
@@ -7507,7 +7694,7 @@
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
-      <c r="M356" s="11"/>
+      <c r="M356" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="2"/>
@@ -7522,7 +7709,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
-      <c r="M357" s="11"/>
+      <c r="M357" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="2"/>
@@ -7537,7 +7724,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
       <c r="L358" s="2"/>
-      <c r="M358" s="11"/>
+      <c r="M358" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="2"/>
@@ -7552,7 +7739,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
       <c r="L359" s="2"/>
-      <c r="M359" s="11"/>
+      <c r="M359" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="2"/>
@@ -7567,7 +7754,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
       <c r="L360" s="2"/>
-      <c r="M360" s="11"/>
+      <c r="M360" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="2"/>
@@ -7582,7 +7769,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
-      <c r="M361" s="11"/>
+      <c r="M361" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="2"/>
@@ -7597,7 +7784,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
-      <c r="M362" s="11"/>
+      <c r="M362" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="2"/>
@@ -7612,7 +7799,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
-      <c r="M363" s="11"/>
+      <c r="M363" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="2"/>
@@ -7627,7 +7814,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
-      <c r="M364" s="11"/>
+      <c r="M364" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="2"/>
@@ -7642,7 +7829,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
-      <c r="M365" s="11"/>
+      <c r="M365" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="2"/>
@@ -7657,7 +7844,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
-      <c r="M366" s="11"/>
+      <c r="M366" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="2"/>
@@ -7672,7 +7859,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
-      <c r="M367" s="11"/>
+      <c r="M367" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="2"/>
@@ -7687,7 +7874,7 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
-      <c r="M368" s="11"/>
+      <c r="M368" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="2"/>
@@ -7702,7 +7889,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
-      <c r="M369" s="11"/>
+      <c r="M369" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="2"/>
@@ -7717,7 +7904,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
-      <c r="M370" s="11"/>
+      <c r="M370" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="2"/>
@@ -7732,7 +7919,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
-      <c r="M371" s="11"/>
+      <c r="M371" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="2"/>
@@ -7747,7 +7934,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
       <c r="L372" s="2"/>
-      <c r="M372" s="11"/>
+      <c r="M372" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="2"/>
@@ -7762,7 +7949,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
       <c r="L373" s="2"/>
-      <c r="M373" s="11"/>
+      <c r="M373" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="2"/>
@@ -7777,7 +7964,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
       <c r="L374" s="2"/>
-      <c r="M374" s="11"/>
+      <c r="M374" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="2"/>
@@ -7792,7 +7979,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
       <c r="L375" s="2"/>
-      <c r="M375" s="11"/>
+      <c r="M375" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="2"/>
@@ -7807,7 +7994,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
       <c r="L376" s="2"/>
-      <c r="M376" s="11"/>
+      <c r="M376" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="2"/>
@@ -7822,7 +8009,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
-      <c r="M377" s="11"/>
+      <c r="M377" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="2"/>
@@ -7837,7 +8024,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
-      <c r="M378" s="11"/>
+      <c r="M378" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="2"/>
@@ -7852,7 +8039,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
-      <c r="M379" s="11"/>
+      <c r="M379" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="2"/>
@@ -7867,7 +8054,7 @@
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
-      <c r="M380" s="11"/>
+      <c r="M380" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="2"/>
@@ -7882,7 +8069,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
-      <c r="M381" s="11"/>
+      <c r="M381" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="2"/>
@@ -7897,7 +8084,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
       <c r="L382" s="2"/>
-      <c r="M382" s="11"/>
+      <c r="M382" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="2"/>
@@ -7912,7 +8099,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
-      <c r="M383" s="11"/>
+      <c r="M383" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="2"/>
@@ -7927,7 +8114,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
-      <c r="M384" s="11"/>
+      <c r="M384" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="2"/>
@@ -7942,7 +8129,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
-      <c r="M385" s="11"/>
+      <c r="M385" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="2"/>
@@ -7957,7 +8144,7 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
-      <c r="M386" s="11"/>
+      <c r="M386" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="2"/>
@@ -7972,7 +8159,7 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
-      <c r="M387" s="11"/>
+      <c r="M387" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="2"/>
@@ -7987,7 +8174,7 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
-      <c r="M388" s="11"/>
+      <c r="M388" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="2"/>
@@ -8002,7 +8189,7 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
       <c r="L389" s="2"/>
-      <c r="M389" s="11"/>
+      <c r="M389" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="2"/>
@@ -8017,7 +8204,7 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
-      <c r="M390" s="11"/>
+      <c r="M390" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="2"/>
@@ -8032,7 +8219,7 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
-      <c r="M391" s="11"/>
+      <c r="M391" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="2"/>
@@ -8047,7 +8234,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
-      <c r="M392" s="11"/>
+      <c r="M392" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="2"/>
@@ -8062,7 +8249,7 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
-      <c r="M393" s="11"/>
+      <c r="M393" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="2"/>
@@ -8077,7 +8264,7 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
-      <c r="M394" s="11"/>
+      <c r="M394" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="2"/>
@@ -8092,7 +8279,7 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
-      <c r="M395" s="11"/>
+      <c r="M395" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="2"/>
@@ -8107,7 +8294,7 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
       <c r="L396" s="2"/>
-      <c r="M396" s="11"/>
+      <c r="M396" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="2"/>
@@ -8122,7 +8309,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
       <c r="L397" s="2"/>
-      <c r="M397" s="11"/>
+      <c r="M397" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="2"/>
@@ -8137,7 +8324,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
       <c r="L398" s="2"/>
-      <c r="M398" s="11"/>
+      <c r="M398" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="2"/>
@@ -8152,7 +8339,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
-      <c r="M399" s="11"/>
+      <c r="M399" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="2"/>
@@ -8167,7 +8354,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
       <c r="L400" s="2"/>
-      <c r="M400" s="11"/>
+      <c r="M400" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="2"/>
@@ -8182,7 +8369,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
       <c r="L401" s="2"/>
-      <c r="M401" s="11"/>
+      <c r="M401" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="2"/>
@@ -8197,7 +8384,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
       <c r="L402" s="2"/>
-      <c r="M402" s="11"/>
+      <c r="M402" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="2"/>
@@ -8212,7 +8399,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
-      <c r="M403" s="11"/>
+      <c r="M403" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="2"/>
@@ -8227,7 +8414,7 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
-      <c r="M404" s="11"/>
+      <c r="M404" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="2"/>
@@ -8242,7 +8429,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
-      <c r="M405" s="11"/>
+      <c r="M405" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="2"/>
@@ -8257,7 +8444,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
-      <c r="M406" s="11"/>
+      <c r="M406" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="2"/>
@@ -8272,7 +8459,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
-      <c r="M407" s="11"/>
+      <c r="M407" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="2"/>
@@ -8287,7 +8474,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
       <c r="L408" s="2"/>
-      <c r="M408" s="11"/>
+      <c r="M408" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="2"/>
@@ -8302,7 +8489,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
       <c r="L409" s="2"/>
-      <c r="M409" s="11"/>
+      <c r="M409" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="2"/>
@@ -8317,7 +8504,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
-      <c r="M410" s="11"/>
+      <c r="M410" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="2"/>
@@ -8332,7 +8519,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
       <c r="L411" s="2"/>
-      <c r="M411" s="11"/>
+      <c r="M411" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="2"/>
@@ -8347,7 +8534,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
       <c r="L412" s="2"/>
-      <c r="M412" s="11"/>
+      <c r="M412" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="2"/>
@@ -8362,7 +8549,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
       <c r="L413" s="2"/>
-      <c r="M413" s="11"/>
+      <c r="M413" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="2"/>
@@ -8377,7 +8564,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
       <c r="L414" s="2"/>
-      <c r="M414" s="11"/>
+      <c r="M414" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="2"/>
@@ -8392,7 +8579,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
-      <c r="M415" s="11"/>
+      <c r="M415" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="2"/>
@@ -8407,7 +8594,7 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
       <c r="L416" s="2"/>
-      <c r="M416" s="11"/>
+      <c r="M416" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="2"/>
@@ -8422,7 +8609,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
-      <c r="M417" s="11"/>
+      <c r="M417" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="2"/>
@@ -8437,7 +8624,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
-      <c r="M418" s="11"/>
+      <c r="M418" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="2"/>
@@ -8452,7 +8639,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
       <c r="L419" s="2"/>
-      <c r="M419" s="11"/>
+      <c r="M419" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="2"/>
@@ -8467,7 +8654,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
       <c r="L420" s="2"/>
-      <c r="M420" s="11"/>
+      <c r="M420" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="2"/>
@@ -8482,7 +8669,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
       <c r="L421" s="2"/>
-      <c r="M421" s="11"/>
+      <c r="M421" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="2"/>
@@ -8497,7 +8684,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
-      <c r="M422" s="11"/>
+      <c r="M422" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="2"/>
@@ -8512,7 +8699,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
-      <c r="M423" s="11"/>
+      <c r="M423" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="2"/>
@@ -8527,7 +8714,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
-      <c r="M424" s="11"/>
+      <c r="M424" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="2"/>
@@ -8542,7 +8729,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
       <c r="L425" s="2"/>
-      <c r="M425" s="11"/>
+      <c r="M425" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="2"/>
@@ -8557,7 +8744,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
-      <c r="M426" s="11"/>
+      <c r="M426" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="2"/>
@@ -8572,7 +8759,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
       <c r="L427" s="2"/>
-      <c r="M427" s="11"/>
+      <c r="M427" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="2"/>
@@ -8587,7 +8774,7 @@
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
       <c r="L428" s="2"/>
-      <c r="M428" s="11"/>
+      <c r="M428" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="2"/>
@@ -8602,7 +8789,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
-      <c r="M429" s="11"/>
+      <c r="M429" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="2"/>
@@ -8617,7 +8804,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
       <c r="L430" s="2"/>
-      <c r="M430" s="11"/>
+      <c r="M430" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="2"/>
@@ -8632,7 +8819,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
       <c r="L431" s="2"/>
-      <c r="M431" s="11"/>
+      <c r="M431" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="2"/>
@@ -8647,7 +8834,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
-      <c r="M432" s="11"/>
+      <c r="M432" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="2"/>
@@ -8662,7 +8849,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
-      <c r="M433" s="11"/>
+      <c r="M433" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
       <c r="A434" s="2"/>
@@ -8677,7 +8864,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
-      <c r="M434" s="11"/>
+      <c r="M434" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
       <c r="A435" s="2"/>
@@ -8692,7 +8879,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
-      <c r="M435" s="11"/>
+      <c r="M435" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
       <c r="A436" s="2"/>
@@ -8707,7 +8894,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
-      <c r="M436" s="11"/>
+      <c r="M436" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
       <c r="A437" s="2"/>
@@ -8722,7 +8909,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
-      <c r="M437" s="11"/>
+      <c r="M437" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
       <c r="A438" s="2"/>
@@ -8737,7 +8924,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
       <c r="L438" s="2"/>
-      <c r="M438" s="11"/>
+      <c r="M438" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
       <c r="A439" s="2"/>
@@ -8752,7 +8939,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
-      <c r="M439" s="11"/>
+      <c r="M439" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
       <c r="A440" s="2"/>
@@ -8767,7 +8954,7 @@
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
-      <c r="M440" s="11"/>
+      <c r="M440" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
       <c r="A441" s="2"/>
@@ -8782,7 +8969,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
-      <c r="M441" s="11"/>
+      <c r="M441" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
       <c r="A442" s="2"/>
@@ -8797,7 +8984,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
-      <c r="M442" s="11"/>
+      <c r="M442" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
       <c r="A443" s="2"/>
@@ -8812,7 +8999,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
-      <c r="M443" s="11"/>
+      <c r="M443" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
       <c r="A444" s="2"/>
@@ -8827,7 +9014,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
-      <c r="M444" s="11"/>
+      <c r="M444" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
       <c r="A445" s="2"/>
@@ -8842,7 +9029,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
-      <c r="M445" s="11"/>
+      <c r="M445" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
       <c r="A446" s="2"/>
@@ -8857,7 +9044,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
-      <c r="M446" s="11"/>
+      <c r="M446" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
       <c r="A447" s="2"/>
@@ -8872,7 +9059,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
-      <c r="M447" s="11"/>
+      <c r="M447" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
       <c r="A448" s="2"/>
@@ -8887,7 +9074,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
       <c r="L448" s="2"/>
-      <c r="M448" s="11"/>
+      <c r="M448" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
       <c r="A449" s="2"/>
@@ -8902,7 +9089,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
-      <c r="M449" s="11"/>
+      <c r="M449" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
       <c r="A450" s="2"/>
@@ -8917,7 +9104,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
-      <c r="M450" s="11"/>
+      <c r="M450" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
       <c r="A451" s="2"/>
@@ -8932,7 +9119,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
-      <c r="M451" s="11"/>
+      <c r="M451" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
       <c r="A452" s="2"/>
@@ -8947,7 +9134,7 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
       <c r="L452" s="2"/>
-      <c r="M452" s="11"/>
+      <c r="M452" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
       <c r="A453" s="2"/>
@@ -8962,7 +9149,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
-      <c r="M453" s="11"/>
+      <c r="M453" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
       <c r="A454" s="2"/>
@@ -8977,7 +9164,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
       <c r="L454" s="2"/>
-      <c r="M454" s="11"/>
+      <c r="M454" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
       <c r="A455" s="2"/>
@@ -8992,7 +9179,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
       <c r="L455" s="2"/>
-      <c r="M455" s="11"/>
+      <c r="M455" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
       <c r="A456" s="2"/>
@@ -9007,7 +9194,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
       <c r="L456" s="2"/>
-      <c r="M456" s="11"/>
+      <c r="M456" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
       <c r="A457" s="2"/>
@@ -9022,7 +9209,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
-      <c r="M457" s="11"/>
+      <c r="M457" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
       <c r="A458" s="2"/>
@@ -9037,7 +9224,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
-      <c r="M458" s="11"/>
+      <c r="M458" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
       <c r="A459" s="2"/>
@@ -9052,7 +9239,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
-      <c r="M459" s="11"/>
+      <c r="M459" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
       <c r="A460" s="2"/>
@@ -9067,7 +9254,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
-      <c r="M460" s="11"/>
+      <c r="M460" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
       <c r="A461" s="2"/>
@@ -9082,7 +9269,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
-      <c r="M461" s="11"/>
+      <c r="M461" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
       <c r="A462" s="2"/>
@@ -9097,7 +9284,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
-      <c r="M462" s="11"/>
+      <c r="M462" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
       <c r="A463" s="2"/>
@@ -9112,7 +9299,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
       <c r="L463" s="2"/>
-      <c r="M463" s="11"/>
+      <c r="M463" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
       <c r="A464" s="2"/>
@@ -9127,7 +9314,7 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
-      <c r="M464" s="11"/>
+      <c r="M464" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
       <c r="A465" s="2"/>
@@ -9142,7 +9329,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
-      <c r="M465" s="11"/>
+      <c r="M465" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
       <c r="A466" s="2"/>
@@ -9157,7 +9344,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
-      <c r="M466" s="11"/>
+      <c r="M466" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
       <c r="A467" s="2"/>
@@ -9172,7 +9359,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
-      <c r="M467" s="11"/>
+      <c r="M467" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
       <c r="A468" s="2"/>
@@ -9187,7 +9374,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
-      <c r="M468" s="11"/>
+      <c r="M468" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
       <c r="A469" s="2"/>
@@ -9202,7 +9389,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
-      <c r="M469" s="11"/>
+      <c r="M469" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
       <c r="A470" s="2"/>
@@ -9217,7 +9404,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
-      <c r="M470" s="11"/>
+      <c r="M470" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
       <c r="A471" s="2"/>
@@ -9232,7 +9419,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
       <c r="L471" s="2"/>
-      <c r="M471" s="11"/>
+      <c r="M471" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
       <c r="A472" s="2"/>
@@ -9247,7 +9434,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
-      <c r="M472" s="11"/>
+      <c r="M472" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
       <c r="A473" s="2"/>
@@ -9262,7 +9449,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
       <c r="L473" s="2"/>
-      <c r="M473" s="11"/>
+      <c r="M473" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
       <c r="A474" s="2"/>
@@ -9277,7 +9464,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
       <c r="L474" s="2"/>
-      <c r="M474" s="11"/>
+      <c r="M474" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
       <c r="A475" s="2"/>
@@ -9292,7 +9479,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
-      <c r="M475" s="11"/>
+      <c r="M475" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
       <c r="A476" s="2"/>
@@ -9307,7 +9494,7 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
-      <c r="M476" s="11"/>
+      <c r="M476" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
       <c r="A477" s="2"/>
@@ -9322,7 +9509,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
-      <c r="M477" s="11"/>
+      <c r="M477" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
       <c r="A478" s="2"/>
@@ -9337,7 +9524,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
-      <c r="M478" s="11"/>
+      <c r="M478" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
       <c r="A479" s="2"/>
@@ -9352,7 +9539,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
       <c r="L479" s="2"/>
-      <c r="M479" s="11"/>
+      <c r="M479" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
       <c r="A480" s="2"/>
@@ -9367,7 +9554,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
       <c r="L480" s="2"/>
-      <c r="M480" s="11"/>
+      <c r="M480" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
       <c r="A481" s="2"/>
@@ -9382,7 +9569,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
-      <c r="M481" s="11"/>
+      <c r="M481" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
       <c r="A482" s="2"/>
@@ -9397,7 +9584,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
-      <c r="M482" s="11"/>
+      <c r="M482" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
       <c r="A483" s="2"/>
@@ -9412,7 +9599,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
-      <c r="M483" s="11"/>
+      <c r="M483" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
       <c r="A484" s="2"/>
@@ -9427,7 +9614,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
-      <c r="M484" s="11"/>
+      <c r="M484" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
       <c r="A485" s="2"/>
@@ -9442,7 +9629,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
-      <c r="M485" s="11"/>
+      <c r="M485" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
       <c r="A486" s="2"/>
@@ -9457,7 +9644,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
-      <c r="M486" s="11"/>
+      <c r="M486" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
       <c r="A487" s="2"/>
@@ -9472,7 +9659,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
-      <c r="M487" s="11"/>
+      <c r="M487" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
       <c r="A488" s="2"/>
@@ -9487,7 +9674,7 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
-      <c r="M488" s="11"/>
+      <c r="M488" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
       <c r="A489" s="2"/>
@@ -9502,7 +9689,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
-      <c r="M489" s="11"/>
+      <c r="M489" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
       <c r="A490" s="2"/>
@@ -9517,7 +9704,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
       <c r="L490" s="2"/>
-      <c r="M490" s="11"/>
+      <c r="M490" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
       <c r="A491" s="2"/>
@@ -9532,7 +9719,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
-      <c r="M491" s="11"/>
+      <c r="M491" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
       <c r="A492" s="2"/>
@@ -9547,7 +9734,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
-      <c r="M492" s="11"/>
+      <c r="M492" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
       <c r="A493" s="2"/>
@@ -9562,7 +9749,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
-      <c r="M493" s="11"/>
+      <c r="M493" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
       <c r="A494" s="2"/>
@@ -9577,7 +9764,7 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
-      <c r="M494" s="11"/>
+      <c r="M494" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
       <c r="A495" s="2"/>
@@ -9592,7 +9779,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
-      <c r="M495" s="11"/>
+      <c r="M495" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
       <c r="A496" s="2"/>
@@ -9607,7 +9794,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
-      <c r="M496" s="11"/>
+      <c r="M496" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
       <c r="A497" s="2"/>
@@ -9622,7 +9809,7 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
-      <c r="M497" s="11"/>
+      <c r="M497" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
       <c r="A498" s="2"/>
@@ -9637,7 +9824,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
-      <c r="M498" s="11"/>
+      <c r="M498" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
       <c r="A499" s="2"/>
@@ -9652,7 +9839,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
-      <c r="M499" s="11"/>
+      <c r="M499" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
       <c r="A500" s="2"/>
@@ -9667,7 +9854,7 @@
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
-      <c r="M500" s="11"/>
+      <c r="M500" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
       <c r="A501" s="2"/>
@@ -9682,7 +9869,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
-      <c r="M501" s="11"/>
+      <c r="M501" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">
       <c r="A502" s="2"/>
@@ -9697,7 +9884,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
-      <c r="M502" s="11"/>
+      <c r="M502" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25">
       <c r="A503" s="2"/>
@@ -9712,7 +9899,7 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
-      <c r="M503" s="11"/>
+      <c r="M503" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25">
       <c r="A504" s="2"/>
@@ -9727,7 +9914,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
-      <c r="M504" s="11"/>
+      <c r="M504" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25">
       <c r="A505" s="2"/>
@@ -9742,7 +9929,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
       <c r="L505" s="2"/>
-      <c r="M505" s="11"/>
+      <c r="M505" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25">
       <c r="A506" s="2"/>
@@ -9757,7 +9944,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
-      <c r="M506" s="11"/>
+      <c r="M506" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25">
       <c r="A507" s="2"/>
@@ -9772,7 +9959,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
-      <c r="M507" s="11"/>
+      <c r="M507" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25">
       <c r="A508" s="2"/>
@@ -9787,7 +9974,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
-      <c r="M508" s="11"/>
+      <c r="M508" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25">
       <c r="A509" s="2"/>
@@ -9802,7 +9989,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
-      <c r="M509" s="11"/>
+      <c r="M509" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25">
       <c r="A510" s="2"/>
@@ -9817,7 +10004,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
-      <c r="M510" s="11"/>
+      <c r="M510" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25">
       <c r="A511" s="2"/>
@@ -9832,7 +10019,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
-      <c r="M511" s="11"/>
+      <c r="M511" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25">
       <c r="A512" s="2"/>
@@ -9847,7 +10034,7 @@
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
       <c r="L512" s="2"/>
-      <c r="M512" s="11"/>
+      <c r="M512" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25">
       <c r="A513" s="2"/>
@@ -9862,7 +10049,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
       <c r="L513" s="2"/>
-      <c r="M513" s="11"/>
+      <c r="M513" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25">
       <c r="A514" s="2"/>
@@ -9877,7 +10064,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
-      <c r="M514" s="11"/>
+      <c r="M514" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25">
       <c r="A515" s="2"/>
@@ -9892,7 +10079,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
-      <c r="M515" s="11"/>
+      <c r="M515" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25">
       <c r="A516" s="2"/>
@@ -9907,7 +10094,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
       <c r="L516" s="2"/>
-      <c r="M516" s="11"/>
+      <c r="M516" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25">
       <c r="A517" s="2"/>
@@ -9922,7 +10109,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
       <c r="L517" s="2"/>
-      <c r="M517" s="11"/>
+      <c r="M517" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25">
       <c r="A518" s="2"/>
@@ -9937,7 +10124,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
-      <c r="M518" s="11"/>
+      <c r="M518" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25">
       <c r="A519" s="2"/>
@@ -9952,7 +10139,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
-      <c r="M519" s="11"/>
+      <c r="M519" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25">
       <c r="A520" s="2"/>
@@ -9967,7 +10154,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
-      <c r="M520" s="11"/>
+      <c r="M520" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25">
       <c r="A521" s="2"/>
@@ -9982,7 +10169,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
-      <c r="M521" s="11"/>
+      <c r="M521" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25">
       <c r="A522" s="2"/>
@@ -9997,7 +10184,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
-      <c r="M522" s="11"/>
+      <c r="M522" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25">
       <c r="A523" s="2"/>
@@ -10012,7 +10199,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
-      <c r="M523" s="11"/>
+      <c r="M523" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25">
       <c r="A524" s="2"/>
@@ -10027,7 +10214,7 @@
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
       <c r="L524" s="2"/>
-      <c r="M524" s="11"/>
+      <c r="M524" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25">
       <c r="A525" s="2"/>
@@ -10042,7 +10229,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
       <c r="L525" s="2"/>
-      <c r="M525" s="11"/>
+      <c r="M525" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25">
       <c r="A526" s="2"/>
@@ -10057,7 +10244,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
-      <c r="M526" s="11"/>
+      <c r="M526" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25">
       <c r="A527" s="2"/>
@@ -10072,7 +10259,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
-      <c r="M527" s="11"/>
+      <c r="M527" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25">
       <c r="A528" s="2"/>
@@ -10087,7 +10274,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
       <c r="L528" s="2"/>
-      <c r="M528" s="11"/>
+      <c r="M528" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25">
       <c r="A529" s="2"/>
@@ -10102,7 +10289,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
       <c r="L529" s="2"/>
-      <c r="M529" s="11"/>
+      <c r="M529" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25">
       <c r="A530" s="2"/>
@@ -10117,7 +10304,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
-      <c r="M530" s="11"/>
+      <c r="M530" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25">
       <c r="A531" s="2"/>
@@ -10132,7 +10319,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
       <c r="L531" s="2"/>
-      <c r="M531" s="11"/>
+      <c r="M531" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25">
       <c r="A532" s="2"/>
@@ -10147,7 +10334,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
-      <c r="M532" s="11"/>
+      <c r="M532" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25">
       <c r="A533" s="2"/>
@@ -10162,7 +10349,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
-      <c r="M533" s="11"/>
+      <c r="M533" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25">
       <c r="A534" s="2"/>
@@ -10177,7 +10364,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
       <c r="L534" s="2"/>
-      <c r="M534" s="11"/>
+      <c r="M534" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25">
       <c r="A535" s="2"/>
@@ -10192,7 +10379,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
       <c r="L535" s="2"/>
-      <c r="M535" s="11"/>
+      <c r="M535" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25">
       <c r="A536" s="2"/>
@@ -10207,7 +10394,7 @@
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
       <c r="L536" s="2"/>
-      <c r="M536" s="11"/>
+      <c r="M536" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25">
       <c r="A537" s="2"/>
@@ -10222,7 +10409,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
-      <c r="M537" s="11"/>
+      <c r="M537" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25">
       <c r="A538" s="2"/>
@@ -10237,7 +10424,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
-      <c r="M538" s="11"/>
+      <c r="M538" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25">
       <c r="A539" s="2"/>
@@ -10252,7 +10439,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
-      <c r="M539" s="11"/>
+      <c r="M539" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25">
       <c r="A540" s="2"/>
@@ -10267,7 +10454,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
       <c r="L540" s="2"/>
-      <c r="M540" s="11"/>
+      <c r="M540" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25">
       <c r="A541" s="2"/>
@@ -10282,7 +10469,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
       <c r="L541" s="2"/>
-      <c r="M541" s="11"/>
+      <c r="M541" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25">
       <c r="A542" s="2"/>
@@ -10297,7 +10484,7 @@
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
-      <c r="M542" s="11"/>
+      <c r="M542" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25">
       <c r="A543" s="2"/>
@@ -10312,7 +10499,7 @@
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
-      <c r="M543" s="11"/>
+      <c r="M543" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25">
       <c r="A544" s="2"/>
@@ -10327,7 +10514,7 @@
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
-      <c r="M544" s="11"/>
+      <c r="M544" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25">
       <c r="A545" s="2"/>
@@ -10342,7 +10529,7 @@
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
-      <c r="M545" s="11"/>
+      <c r="M545" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25">
       <c r="A546" s="2"/>
@@ -10357,7 +10544,7 @@
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
-      <c r="M546" s="11"/>
+      <c r="M546" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25">
       <c r="A547" s="2"/>
@@ -10372,7 +10559,7 @@
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
-      <c r="M547" s="11"/>
+      <c r="M547" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25">
       <c r="A548" s="2"/>
@@ -10387,7 +10574,7 @@
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
       <c r="L548" s="2"/>
-      <c r="M548" s="11"/>
+      <c r="M548" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25">
       <c r="A549" s="2"/>
@@ -10402,7 +10589,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
       <c r="L549" s="2"/>
-      <c r="M549" s="11"/>
+      <c r="M549" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25">
       <c r="A550" s="2"/>
@@ -10417,7 +10604,7 @@
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
-      <c r="M550" s="11"/>
+      <c r="M550" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25">
       <c r="A551" s="2"/>
@@ -10432,7 +10619,7 @@
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
-      <c r="M551" s="11"/>
+      <c r="M551" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25">
       <c r="A552" s="2"/>
@@ -10447,7 +10634,7 @@
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
-      <c r="M552" s="11"/>
+      <c r="M552" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25">
       <c r="A553" s="2"/>
@@ -10462,7 +10649,7 @@
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
-      <c r="M553" s="11"/>
+      <c r="M553" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25">
       <c r="A554" s="2"/>
@@ -10477,7 +10664,7 @@
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
-      <c r="M554" s="11"/>
+      <c r="M554" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25">
       <c r="A555" s="2"/>
@@ -10492,7 +10679,7 @@
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
-      <c r="M555" s="11"/>
+      <c r="M555" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25">
       <c r="A556" s="2"/>
@@ -10507,7 +10694,7 @@
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
       <c r="L556" s="2"/>
-      <c r="M556" s="11"/>
+      <c r="M556" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25">
       <c r="A557" s="2"/>
@@ -10522,7 +10709,7 @@
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
       <c r="L557" s="2"/>
-      <c r="M557" s="11"/>
+      <c r="M557" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25">
       <c r="A558" s="2"/>
@@ -10537,7 +10724,7 @@
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
-      <c r="M558" s="11"/>
+      <c r="M558" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25">
       <c r="A559" s="2"/>
@@ -10552,7 +10739,7 @@
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
-      <c r="M559" s="11"/>
+      <c r="M559" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25">
       <c r="A560" s="2"/>
@@ -10567,7 +10754,7 @@
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
       <c r="L560" s="2"/>
-      <c r="M560" s="11"/>
+      <c r="M560" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25">
       <c r="A561" s="2"/>
@@ -10582,7 +10769,7 @@
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
-      <c r="M561" s="11"/>
+      <c r="M561" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25">
       <c r="A562" s="2"/>
@@ -10597,7 +10784,7 @@
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
-      <c r="M562" s="11"/>
+      <c r="M562" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25">
       <c r="A563" s="2"/>
@@ -10612,7 +10799,7 @@
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
-      <c r="M563" s="11"/>
+      <c r="M563" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25">
       <c r="A564" s="2"/>
@@ -10627,7 +10814,7 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
-      <c r="M564" s="11"/>
+      <c r="M564" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25">
       <c r="A565" s="2"/>
@@ -10642,7 +10829,7 @@
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
-      <c r="M565" s="11"/>
+      <c r="M565" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25">
       <c r="A566" s="2"/>
@@ -10657,7 +10844,7 @@
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
-      <c r="M566" s="11"/>
+      <c r="M566" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25">
       <c r="A567" s="2"/>
@@ -10672,7 +10859,7 @@
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
-      <c r="M567" s="11"/>
+      <c r="M567" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25">
       <c r="A568" s="2"/>
@@ -10687,7 +10874,7 @@
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
-      <c r="M568" s="11"/>
+      <c r="M568" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25">
       <c r="A569" s="2"/>
@@ -10702,7 +10889,7 @@
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
       <c r="L569" s="2"/>
-      <c r="M569" s="11"/>
+      <c r="M569" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25">
       <c r="A570" s="2"/>
@@ -10717,7 +10904,7 @@
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
-      <c r="M570" s="11"/>
+      <c r="M570" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25">
       <c r="A571" s="2"/>
@@ -10732,7 +10919,7 @@
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
-      <c r="M571" s="11"/>
+      <c r="M571" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25">
       <c r="A572" s="2"/>
@@ -10747,7 +10934,7 @@
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
-      <c r="M572" s="11"/>
+      <c r="M572" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25">
       <c r="A573" s="2"/>
@@ -10762,7 +10949,7 @@
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
       <c r="L573" s="2"/>
-      <c r="M573" s="11"/>
+      <c r="M573" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25">
       <c r="A574" s="2"/>
@@ -10777,7 +10964,7 @@
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
       <c r="L574" s="2"/>
-      <c r="M574" s="11"/>
+      <c r="M574" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25">
       <c r="A575" s="2"/>
@@ -10792,7 +10979,7 @@
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
-      <c r="M575" s="11"/>
+      <c r="M575" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25">
       <c r="A576" s="2"/>
@@ -10807,7 +10994,7 @@
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
-      <c r="M576" s="11"/>
+      <c r="M576" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25">
       <c r="A577" s="2"/>
@@ -10822,7 +11009,7 @@
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
       <c r="L577" s="2"/>
-      <c r="M577" s="11"/>
+      <c r="M577" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25">
       <c r="A578" s="2"/>
@@ -10837,7 +11024,7 @@
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
-      <c r="M578" s="11"/>
+      <c r="M578" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25">
       <c r="A579" s="2"/>
@@ -10852,7 +11039,7 @@
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
       <c r="L579" s="2"/>
-      <c r="M579" s="11"/>
+      <c r="M579" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25">
       <c r="A580" s="2"/>
@@ -10867,7 +11054,7 @@
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
-      <c r="M580" s="11"/>
+      <c r="M580" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25">
       <c r="A581" s="2"/>
@@ -10882,7 +11069,7 @@
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
-      <c r="M581" s="11"/>
+      <c r="M581" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25">
       <c r="A582" s="2"/>
@@ -10897,7 +11084,7 @@
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
-      <c r="M582" s="11"/>
+      <c r="M582" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25">
       <c r="A583" s="2"/>
@@ -10912,7 +11099,7 @@
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
-      <c r="M583" s="11"/>
+      <c r="M583" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25">
       <c r="A584" s="2"/>
@@ -10927,7 +11114,7 @@
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
-      <c r="M584" s="11"/>
+      <c r="M584" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25">
       <c r="A585" s="2"/>
@@ -10942,7 +11129,7 @@
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
-      <c r="M585" s="11"/>
+      <c r="M585" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25">
       <c r="A586" s="2"/>
@@ -10957,7 +11144,7 @@
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
-      <c r="M586" s="11"/>
+      <c r="M586" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25">
       <c r="A587" s="2"/>
@@ -10972,7 +11159,7 @@
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
-      <c r="M587" s="11"/>
+      <c r="M587" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25">
       <c r="A588" s="2"/>
@@ -10987,7 +11174,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
       <c r="L588" s="2"/>
-      <c r="M588" s="11"/>
+      <c r="M588" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25">
       <c r="A589" s="2"/>
@@ -11002,7 +11189,7 @@
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
-      <c r="M589" s="11"/>
+      <c r="M589" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25">
       <c r="A590" s="2"/>
@@ -11017,7 +11204,7 @@
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
       <c r="L590" s="2"/>
-      <c r="M590" s="11"/>
+      <c r="M590" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25">
       <c r="A591" s="2"/>
@@ -11032,7 +11219,7 @@
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
       <c r="L591" s="2"/>
-      <c r="M591" s="11"/>
+      <c r="M591" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25">
       <c r="A592" s="2"/>
@@ -11047,7 +11234,7 @@
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
       <c r="L592" s="2"/>
-      <c r="M592" s="11"/>
+      <c r="M592" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25">
       <c r="A593" s="2"/>
@@ -11062,7 +11249,7 @@
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
       <c r="L593" s="2"/>
-      <c r="M593" s="11"/>
+      <c r="M593" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25">
       <c r="A594" s="2"/>
@@ -11077,7 +11264,7 @@
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
       <c r="L594" s="2"/>
-      <c r="M594" s="11"/>
+      <c r="M594" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25">
       <c r="A595" s="2"/>
@@ -11092,7 +11279,7 @@
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
       <c r="L595" s="2"/>
-      <c r="M595" s="11"/>
+      <c r="M595" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25">
       <c r="A596" s="2"/>
@@ -11107,7 +11294,7 @@
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
       <c r="L596" s="2"/>
-      <c r="M596" s="11"/>
+      <c r="M596" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25">
       <c r="A597" s="2"/>
@@ -11122,7 +11309,7 @@
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
       <c r="L597" s="2"/>
-      <c r="M597" s="11"/>
+      <c r="M597" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25">
       <c r="A598" s="2"/>
@@ -11137,7 +11324,7 @@
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
       <c r="L598" s="2"/>
-      <c r="M598" s="11"/>
+      <c r="M598" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25">
       <c r="A599" s="2"/>
@@ -11152,7 +11339,7 @@
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
       <c r="L599" s="2"/>
-      <c r="M599" s="11"/>
+      <c r="M599" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25">
       <c r="A600" s="2"/>
@@ -11167,7 +11354,7 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
-      <c r="M600" s="11"/>
+      <c r="M600" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25">
       <c r="A601" s="2"/>
@@ -11182,7 +11369,7 @@
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
-      <c r="M601" s="11"/>
+      <c r="M601" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25">
       <c r="A602" s="2"/>
@@ -11197,7 +11384,7 @@
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
-      <c r="M602" s="11"/>
+      <c r="M602" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25">
       <c r="A603" s="2"/>
@@ -11212,7 +11399,7 @@
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
-      <c r="M603" s="11"/>
+      <c r="M603" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25">
       <c r="A604" s="2"/>
@@ -11227,7 +11414,7 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
-      <c r="M604" s="11"/>
+      <c r="M604" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="17.25">
       <c r="A605" s="2"/>
@@ -11242,7 +11429,7 @@
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
-      <c r="M605" s="11"/>
+      <c r="M605" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="17.25">
       <c r="A606" s="2"/>
@@ -11257,7 +11444,7 @@
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
       <c r="L606" s="2"/>
-      <c r="M606" s="11"/>
+      <c r="M606" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="17.25">
       <c r="A607" s="2"/>
@@ -11272,7 +11459,7 @@
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
-      <c r="M607" s="11"/>
+      <c r="M607" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="17.25">
       <c r="A608" s="2"/>
@@ -11287,7 +11474,7 @@
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
       <c r="L608" s="2"/>
-      <c r="M608" s="11"/>
+      <c r="M608" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="17.25">
       <c r="A609" s="2"/>
@@ -11302,7 +11489,7 @@
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
       <c r="L609" s="2"/>
-      <c r="M609" s="11"/>
+      <c r="M609" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="17.25">
       <c r="A610" s="2"/>
@@ -11317,7 +11504,7 @@
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
       <c r="L610" s="2"/>
-      <c r="M610" s="11"/>
+      <c r="M610" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="17.25">
       <c r="A611" s="2"/>
@@ -11332,7 +11519,7 @@
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
       <c r="L611" s="2"/>
-      <c r="M611" s="11"/>
+      <c r="M611" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="17.25">
       <c r="A612" s="2"/>
@@ -11347,7 +11534,7 @@
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
       <c r="L612" s="2"/>
-      <c r="M612" s="11"/>
+      <c r="M612" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="17.25">
       <c r="A613" s="2"/>
@@ -11362,7 +11549,7 @@
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
-      <c r="M613" s="11"/>
+      <c r="M613" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="17.25">
       <c r="A614" s="2"/>
@@ -11377,7 +11564,7 @@
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
-      <c r="M614" s="11"/>
+      <c r="M614" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="17.25">
       <c r="A615" s="2"/>
@@ -11392,7 +11579,7 @@
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
-      <c r="M615" s="11"/>
+      <c r="M615" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="17.25">
       <c r="A616" s="2"/>
@@ -11407,7 +11594,7 @@
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
       <c r="L616" s="2"/>
-      <c r="M616" s="11"/>
+      <c r="M616" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="17.25">
       <c r="A617" s="2"/>
@@ -11422,7 +11609,7 @@
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
       <c r="L617" s="2"/>
-      <c r="M617" s="11"/>
+      <c r="M617" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="17.25">
       <c r="A618" s="2"/>
@@ -11437,7 +11624,7 @@
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
-      <c r="M618" s="11"/>
+      <c r="M618" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="17.25">
       <c r="A619" s="2"/>
@@ -11452,7 +11639,7 @@
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
       <c r="L619" s="2"/>
-      <c r="M619" s="11"/>
+      <c r="M619" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="17.25">
       <c r="A620" s="2"/>
@@ -11467,7 +11654,7 @@
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
       <c r="L620" s="2"/>
-      <c r="M620" s="11"/>
+      <c r="M620" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="17.25">
       <c r="A621" s="2"/>
@@ -11482,7 +11669,7 @@
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
       <c r="L621" s="2"/>
-      <c r="M621" s="11"/>
+      <c r="M621" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="17.25">
       <c r="A622" s="2"/>
@@ -11497,7 +11684,7 @@
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
       <c r="L622" s="2"/>
-      <c r="M622" s="11"/>
+      <c r="M622" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="17.25">
       <c r="A623" s="2"/>
@@ -11512,7 +11699,7 @@
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
       <c r="L623" s="2"/>
-      <c r="M623" s="11"/>
+      <c r="M623" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="17.25">
       <c r="A624" s="2"/>
@@ -11527,7 +11714,7 @@
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
-      <c r="M624" s="11"/>
+      <c r="M624" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="17.25">
       <c r="A625" s="2"/>
@@ -11542,7 +11729,7 @@
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
       <c r="L625" s="2"/>
-      <c r="M625" s="11"/>
+      <c r="M625" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="17.25">
       <c r="A626" s="2"/>
@@ -11557,7 +11744,7 @@
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
       <c r="L626" s="2"/>
-      <c r="M626" s="11"/>
+      <c r="M626" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="17.25">
       <c r="A627" s="2"/>
@@ -11572,7 +11759,7 @@
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
       <c r="L627" s="2"/>
-      <c r="M627" s="11"/>
+      <c r="M627" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="17.25">
       <c r="A628" s="2"/>
@@ -11587,7 +11774,7 @@
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
       <c r="L628" s="2"/>
-      <c r="M628" s="11"/>
+      <c r="M628" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="17.25">
       <c r="A629" s="2"/>
@@ -11602,7 +11789,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
-      <c r="M629" s="11"/>
+      <c r="M629" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="17.25">
       <c r="A630" s="2"/>
@@ -11617,7 +11804,7 @@
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
-      <c r="M630" s="11"/>
+      <c r="M630" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="17.25">
       <c r="A631" s="2"/>
@@ -11632,7 +11819,7 @@
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
-      <c r="M631" s="11"/>
+      <c r="M631" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="17.25">
       <c r="A632" s="2"/>
@@ -11647,7 +11834,7 @@
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
       <c r="L632" s="2"/>
-      <c r="M632" s="11"/>
+      <c r="M632" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="17.25">
       <c r="A633" s="2"/>
@@ -11662,7 +11849,7 @@
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
-      <c r="M633" s="11"/>
+      <c r="M633" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="17.25">
       <c r="A634" s="2"/>
@@ -11677,7 +11864,7 @@
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
       <c r="L634" s="2"/>
-      <c r="M634" s="11"/>
+      <c r="M634" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="17.25">
       <c r="A635" s="2"/>
@@ -11692,7 +11879,7 @@
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
       <c r="L635" s="2"/>
-      <c r="M635" s="11"/>
+      <c r="M635" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="17.25">
       <c r="A636" s="2"/>
@@ -11707,7 +11894,7 @@
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
       <c r="L636" s="2"/>
-      <c r="M636" s="11"/>
+      <c r="M636" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="17.25">
       <c r="A637" s="2"/>
@@ -11722,7 +11909,7 @@
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
       <c r="L637" s="2"/>
-      <c r="M637" s="11"/>
+      <c r="M637" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="17.25">
       <c r="A638" s="2"/>
@@ -11737,7 +11924,7 @@
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
       <c r="L638" s="2"/>
-      <c r="M638" s="11"/>
+      <c r="M638" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="17.25">
       <c r="A639" s="2"/>
@@ -11752,7 +11939,7 @@
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
       <c r="L639" s="2"/>
-      <c r="M639" s="11"/>
+      <c r="M639" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="17.25">
       <c r="A640" s="2"/>
@@ -11767,7 +11954,7 @@
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
       <c r="L640" s="2"/>
-      <c r="M640" s="11"/>
+      <c r="M640" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="17.25">
       <c r="A641" s="2"/>
@@ -11782,7 +11969,7 @@
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
       <c r="L641" s="2"/>
-      <c r="M641" s="11"/>
+      <c r="M641" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="17.25">
       <c r="A642" s="2"/>
@@ -11797,7 +11984,7 @@
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
       <c r="L642" s="2"/>
-      <c r="M642" s="11"/>
+      <c r="M642" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="17.25">
       <c r="A643" s="2"/>
@@ -11812,7 +11999,7 @@
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
       <c r="L643" s="2"/>
-      <c r="M643" s="11"/>
+      <c r="M643" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="17.25">
       <c r="A644" s="2"/>
@@ -11827,7 +12014,7 @@
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
       <c r="L644" s="2"/>
-      <c r="M644" s="11"/>
+      <c r="M644" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="17.25">
       <c r="A645" s="2"/>
@@ -11842,7 +12029,7 @@
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
       <c r="L645" s="2"/>
-      <c r="M645" s="11"/>
+      <c r="M645" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="17.25">
       <c r="A646" s="2"/>
@@ -11857,7 +12044,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
       <c r="L646" s="2"/>
-      <c r="M646" s="11"/>
+      <c r="M646" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="17.25">
       <c r="A647" s="2"/>
@@ -11872,7 +12059,7 @@
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
       <c r="L647" s="2"/>
-      <c r="M647" s="11"/>
+      <c r="M647" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="17.25">
       <c r="A648" s="2"/>
@@ -11887,7 +12074,7 @@
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
-      <c r="M648" s="11"/>
+      <c r="M648" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="17.25">
       <c r="A649" s="2"/>
@@ -11902,7 +12089,7 @@
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
-      <c r="M649" s="11"/>
+      <c r="M649" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="17.25">
       <c r="A650" s="2"/>
@@ -11917,7 +12104,7 @@
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
-      <c r="M650" s="11"/>
+      <c r="M650" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="17.25">
       <c r="A651" s="2"/>
@@ -11932,7 +12119,7 @@
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
       <c r="L651" s="2"/>
-      <c r="M651" s="11"/>
+      <c r="M651" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="17.25">
       <c r="A652" s="2"/>
@@ -11947,7 +12134,7 @@
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
       <c r="L652" s="2"/>
-      <c r="M652" s="11"/>
+      <c r="M652" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="17.25">
       <c r="A653" s="2"/>
@@ -11962,7 +12149,7 @@
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
       <c r="L653" s="2"/>
-      <c r="M653" s="11"/>
+      <c r="M653" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="17.25">
       <c r="A654" s="2"/>
@@ -11977,7 +12164,7 @@
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
       <c r="L654" s="2"/>
-      <c r="M654" s="11"/>
+      <c r="M654" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="17.25">
       <c r="A655" s="2"/>
@@ -11992,7 +12179,7 @@
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
       <c r="L655" s="2"/>
-      <c r="M655" s="11"/>
+      <c r="M655" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="17.25">
       <c r="A656" s="2"/>
@@ -12007,7 +12194,7 @@
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
       <c r="L656" s="2"/>
-      <c r="M656" s="11"/>
+      <c r="M656" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="17.25">
       <c r="A657" s="2"/>
@@ -12022,7 +12209,7 @@
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
       <c r="L657" s="2"/>
-      <c r="M657" s="11"/>
+      <c r="M657" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="17.25">
       <c r="A658" s="2"/>
@@ -12037,7 +12224,7 @@
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
       <c r="L658" s="2"/>
-      <c r="M658" s="11"/>
+      <c r="M658" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="17.25">
       <c r="A659" s="2"/>
@@ -12052,7 +12239,7 @@
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
       <c r="L659" s="2"/>
-      <c r="M659" s="11"/>
+      <c r="M659" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="17.25">
       <c r="A660" s="2"/>
@@ -12067,7 +12254,7 @@
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
       <c r="L660" s="2"/>
-      <c r="M660" s="11"/>
+      <c r="M660" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="17.25">
       <c r="A661" s="2"/>
@@ -12082,7 +12269,7 @@
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
       <c r="L661" s="2"/>
-      <c r="M661" s="11"/>
+      <c r="M661" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="17.25">
       <c r="A662" s="2"/>
@@ -12097,7 +12284,7 @@
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
       <c r="L662" s="2"/>
-      <c r="M662" s="11"/>
+      <c r="M662" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="17.25">
       <c r="A663" s="2"/>
@@ -12112,7 +12299,7 @@
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
       <c r="L663" s="2"/>
-      <c r="M663" s="11"/>
+      <c r="M663" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="17.25">
       <c r="A664" s="2"/>
@@ -12127,7 +12314,7 @@
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
       <c r="L664" s="2"/>
-      <c r="M664" s="11"/>
+      <c r="M664" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="17.25">
       <c r="A665" s="2"/>
@@ -12142,7 +12329,7 @@
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
-      <c r="M665" s="11"/>
+      <c r="M665" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="17.25">
       <c r="A666" s="2"/>
@@ -12157,7 +12344,7 @@
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
       <c r="L666" s="2"/>
-      <c r="M666" s="11"/>
+      <c r="M666" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="17.25">
       <c r="A667" s="2"/>
@@ -12172,7 +12359,7 @@
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
       <c r="L667" s="2"/>
-      <c r="M667" s="11"/>
+      <c r="M667" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="17.25">
       <c r="A668" s="2"/>
@@ -12187,7 +12374,7 @@
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
       <c r="L668" s="2"/>
-      <c r="M668" s="11"/>
+      <c r="M668" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="17.25">
       <c r="A669" s="2"/>
@@ -12202,7 +12389,7 @@
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
       <c r="L669" s="2"/>
-      <c r="M669" s="11"/>
+      <c r="M669" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="17.25">
       <c r="A670" s="2"/>
@@ -12217,7 +12404,7 @@
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
       <c r="L670" s="2"/>
-      <c r="M670" s="11"/>
+      <c r="M670" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="17.25">
       <c r="A671" s="2"/>
@@ -12232,7 +12419,7 @@
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
       <c r="L671" s="2"/>
-      <c r="M671" s="11"/>
+      <c r="M671" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="17.25">
       <c r="A672" s="2"/>
@@ -12247,7 +12434,7 @@
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
       <c r="L672" s="2"/>
-      <c r="M672" s="11"/>
+      <c r="M672" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="17.25">
       <c r="A673" s="2"/>
@@ -12262,7 +12449,7 @@
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
       <c r="L673" s="2"/>
-      <c r="M673" s="11"/>
+      <c r="M673" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="17.25">
       <c r="A674" s="2"/>
@@ -12277,7 +12464,7 @@
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
       <c r="L674" s="2"/>
-      <c r="M674" s="11"/>
+      <c r="M674" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="17.25">
       <c r="A675" s="2"/>
@@ -12292,7 +12479,7 @@
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
       <c r="L675" s="2"/>
-      <c r="M675" s="11"/>
+      <c r="M675" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="17.25">
       <c r="A676" s="2"/>
@@ -12307,7 +12494,7 @@
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
       <c r="L676" s="2"/>
-      <c r="M676" s="11"/>
+      <c r="M676" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="17.25">
       <c r="A677" s="2"/>
@@ -12322,7 +12509,7 @@
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
       <c r="L677" s="2"/>
-      <c r="M677" s="11"/>
+      <c r="M677" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="17.25">
       <c r="A678" s="2"/>
@@ -12337,7 +12524,7 @@
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
       <c r="L678" s="2"/>
-      <c r="M678" s="11"/>
+      <c r="M678" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="17.25">
       <c r="A679" s="2"/>
@@ -12352,7 +12539,7 @@
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
       <c r="L679" s="2"/>
-      <c r="M679" s="11"/>
+      <c r="M679" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="17.25">
       <c r="A680" s="2"/>
@@ -12367,7 +12554,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
       <c r="L680" s="2"/>
-      <c r="M680" s="11"/>
+      <c r="M680" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="17.25">
       <c r="A681" s="2"/>
@@ -12382,7 +12569,7 @@
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
       <c r="L681" s="2"/>
-      <c r="M681" s="11"/>
+      <c r="M681" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="17.25">
       <c r="A682" s="2"/>
@@ -12397,7 +12584,7 @@
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
       <c r="L682" s="2"/>
-      <c r="M682" s="11"/>
+      <c r="M682" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="17.25">
       <c r="A683" s="2"/>
@@ -12412,7 +12599,7 @@
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
       <c r="L683" s="2"/>
-      <c r="M683" s="11"/>
+      <c r="M683" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="17.25">
       <c r="A684" s="2"/>
@@ -12427,7 +12614,7 @@
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
       <c r="L684" s="2"/>
-      <c r="M684" s="11"/>
+      <c r="M684" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="17.25">
       <c r="A685" s="2"/>
@@ -12442,7 +12629,7 @@
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
       <c r="L685" s="2"/>
-      <c r="M685" s="11"/>
+      <c r="M685" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="17.25">
       <c r="A686" s="2"/>
@@ -12457,7 +12644,7 @@
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
       <c r="L686" s="2"/>
-      <c r="M686" s="11"/>
+      <c r="M686" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="17.25">
       <c r="A687" s="2"/>
@@ -12472,7 +12659,7 @@
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
       <c r="L687" s="2"/>
-      <c r="M687" s="11"/>
+      <c r="M687" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="17.25">
       <c r="A688" s="2"/>
@@ -12487,7 +12674,7 @@
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
       <c r="L688" s="2"/>
-      <c r="M688" s="11"/>
+      <c r="M688" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="17.25">
       <c r="A689" s="2"/>
@@ -12502,7 +12689,7 @@
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
       <c r="L689" s="2"/>
-      <c r="M689" s="11"/>
+      <c r="M689" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="17.25">
       <c r="A690" s="2"/>
@@ -12517,7 +12704,7 @@
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
       <c r="L690" s="2"/>
-      <c r="M690" s="11"/>
+      <c r="M690" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="17.25">
       <c r="A691" s="2"/>
@@ -12532,7 +12719,7 @@
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
       <c r="L691" s="2"/>
-      <c r="M691" s="11"/>
+      <c r="M691" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="17.25">
       <c r="A692" s="2"/>
@@ -12547,7 +12734,7 @@
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
       <c r="L692" s="2"/>
-      <c r="M692" s="11"/>
+      <c r="M692" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="17.25">
       <c r="A693" s="2"/>
@@ -12562,7 +12749,7 @@
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
       <c r="L693" s="2"/>
-      <c r="M693" s="11"/>
+      <c r="M693" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="17.25">
       <c r="A694" s="2"/>
@@ -12577,7 +12764,7 @@
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
-      <c r="M694" s="11"/>
+      <c r="M694" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="17.25">
       <c r="A695" s="2"/>
@@ -12592,7 +12779,7 @@
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
       <c r="L695" s="2"/>
-      <c r="M695" s="11"/>
+      <c r="M695" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="17.25">
       <c r="A696" s="2"/>
@@ -12607,7 +12794,7 @@
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
       <c r="L696" s="2"/>
-      <c r="M696" s="11"/>
+      <c r="M696" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="17.25">
       <c r="A697" s="2"/>
@@ -12622,7 +12809,7 @@
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
       <c r="L697" s="2"/>
-      <c r="M697" s="11"/>
+      <c r="M697" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="17.25">
       <c r="A698" s="2"/>
@@ -12637,7 +12824,7 @@
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
       <c r="L698" s="2"/>
-      <c r="M698" s="11"/>
+      <c r="M698" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="17.25">
       <c r="A699" s="2"/>
@@ -12652,7 +12839,7 @@
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
       <c r="L699" s="2"/>
-      <c r="M699" s="11"/>
+      <c r="M699" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="17.25">
       <c r="A700" s="2"/>
@@ -12667,7 +12854,7 @@
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
       <c r="L700" s="2"/>
-      <c r="M700" s="11"/>
+      <c r="M700" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="17.25">
       <c r="A701" s="2"/>
@@ -12682,7 +12869,7 @@
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
       <c r="L701" s="2"/>
-      <c r="M701" s="11"/>
+      <c r="M701" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="17.25">
       <c r="A702" s="2"/>
@@ -12697,7 +12884,7 @@
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
       <c r="L702" s="2"/>
-      <c r="M702" s="11"/>
+      <c r="M702" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="17.25">
       <c r="A703" s="2"/>
@@ -12712,7 +12899,7 @@
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
       <c r="L703" s="2"/>
-      <c r="M703" s="11"/>
+      <c r="M703" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="17.25">
       <c r="A704" s="2"/>
@@ -12727,7 +12914,7 @@
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
       <c r="L704" s="2"/>
-      <c r="M704" s="11"/>
+      <c r="M704" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="17.25">
       <c r="A705" s="2"/>
@@ -12742,7 +12929,7 @@
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
       <c r="L705" s="2"/>
-      <c r="M705" s="11"/>
+      <c r="M705" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="17.25">
       <c r="A706" s="2"/>
@@ -12757,7 +12944,7 @@
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
       <c r="L706" s="2"/>
-      <c r="M706" s="11"/>
+      <c r="M706" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="17.25">
       <c r="A707" s="2"/>
@@ -12772,7 +12959,7 @@
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
       <c r="L707" s="2"/>
-      <c r="M707" s="11"/>
+      <c r="M707" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="17.25">
       <c r="A708" s="2"/>
@@ -12787,7 +12974,7 @@
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
       <c r="L708" s="2"/>
-      <c r="M708" s="11"/>
+      <c r="M708" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="17.25">
       <c r="A709" s="2"/>
@@ -12802,7 +12989,7 @@
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
       <c r="L709" s="2"/>
-      <c r="M709" s="11"/>
+      <c r="M709" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="17.25">
       <c r="A710" s="2"/>
@@ -12817,7 +13004,7 @@
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
       <c r="L710" s="2"/>
-      <c r="M710" s="11"/>
+      <c r="M710" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="17.25">
       <c r="A711" s="2"/>
@@ -12832,7 +13019,7 @@
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
       <c r="L711" s="2"/>
-      <c r="M711" s="11"/>
+      <c r="M711" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="17.25">
       <c r="A712" s="2"/>
@@ -12847,7 +13034,7 @@
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
       <c r="L712" s="2"/>
-      <c r="M712" s="11"/>
+      <c r="M712" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="17.25">
       <c r="A713" s="2"/>
@@ -12862,7 +13049,7 @@
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
       <c r="L713" s="2"/>
-      <c r="M713" s="11"/>
+      <c r="M713" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="17.25">
       <c r="A714" s="2"/>
@@ -12877,7 +13064,7 @@
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
       <c r="L714" s="2"/>
-      <c r="M714" s="11"/>
+      <c r="M714" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="17.25">
       <c r="A715" s="2"/>
@@ -12892,7 +13079,7 @@
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
       <c r="L715" s="2"/>
-      <c r="M715" s="11"/>
+      <c r="M715" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="17.25">
       <c r="A716" s="2"/>
@@ -12907,7 +13094,7 @@
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
       <c r="L716" s="2"/>
-      <c r="M716" s="11"/>
+      <c r="M716" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="17.25">
       <c r="A717" s="2"/>
@@ -12922,7 +13109,7 @@
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
       <c r="L717" s="2"/>
-      <c r="M717" s="11"/>
+      <c r="M717" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="17.25">
       <c r="A718" s="2"/>
@@ -12937,7 +13124,7 @@
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
       <c r="L718" s="2"/>
-      <c r="M718" s="11"/>
+      <c r="M718" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="17.25">
       <c r="A719" s="2"/>
@@ -12952,7 +13139,7 @@
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
       <c r="L719" s="2"/>
-      <c r="M719" s="11"/>
+      <c r="M719" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="17.25">
       <c r="A720" s="2"/>
@@ -12967,7 +13154,7 @@
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
       <c r="L720" s="2"/>
-      <c r="M720" s="11"/>
+      <c r="M720" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="17.25">
       <c r="A721" s="2"/>
@@ -12982,7 +13169,7 @@
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
       <c r="L721" s="2"/>
-      <c r="M721" s="11"/>
+      <c r="M721" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="17.25">
       <c r="A722" s="2"/>
@@ -12997,7 +13184,7 @@
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
       <c r="L722" s="2"/>
-      <c r="M722" s="11"/>
+      <c r="M722" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="17.25">
       <c r="A723" s="2"/>
@@ -13012,7 +13199,7 @@
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
       <c r="L723" s="2"/>
-      <c r="M723" s="11"/>
+      <c r="M723" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="17.25">
       <c r="A724" s="2"/>
@@ -13027,7 +13214,7 @@
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
       <c r="L724" s="2"/>
-      <c r="M724" s="11"/>
+      <c r="M724" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="17.25">
       <c r="A725" s="2"/>
@@ -13042,7 +13229,7 @@
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
       <c r="L725" s="2"/>
-      <c r="M725" s="11"/>
+      <c r="M725" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="17.25">
       <c r="A726" s="2"/>
@@ -13057,7 +13244,7 @@
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
       <c r="L726" s="2"/>
-      <c r="M726" s="11"/>
+      <c r="M726" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="17.25">
       <c r="A727" s="2"/>
@@ -13072,7 +13259,7 @@
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
       <c r="L727" s="2"/>
-      <c r="M727" s="11"/>
+      <c r="M727" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="17.25">
       <c r="A728" s="2"/>
@@ -13087,7 +13274,7 @@
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
       <c r="L728" s="2"/>
-      <c r="M728" s="11"/>
+      <c r="M728" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="17.25">
       <c r="A729" s="2"/>
@@ -13102,7 +13289,7 @@
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
       <c r="L729" s="2"/>
-      <c r="M729" s="11"/>
+      <c r="M729" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="17.25">
       <c r="A730" s="2"/>
@@ -13117,7 +13304,7 @@
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
       <c r="L730" s="2"/>
-      <c r="M730" s="11"/>
+      <c r="M730" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="17.25">
       <c r="A731" s="2"/>
@@ -13132,7 +13319,7 @@
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
       <c r="L731" s="2"/>
-      <c r="M731" s="11"/>
+      <c r="M731" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="17.25">
       <c r="A732" s="2"/>
@@ -13147,7 +13334,7 @@
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
       <c r="L732" s="2"/>
-      <c r="M732" s="11"/>
+      <c r="M732" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="17.25">
       <c r="A733" s="2"/>
@@ -13162,7 +13349,7 @@
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
       <c r="L733" s="2"/>
-      <c r="M733" s="11"/>
+      <c r="M733" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="17.25">
       <c r="A734" s="2"/>
@@ -13177,7 +13364,7 @@
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
       <c r="L734" s="2"/>
-      <c r="M734" s="11"/>
+      <c r="M734" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="17.25">
       <c r="A735" s="2"/>
@@ -13192,7 +13379,7 @@
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
       <c r="L735" s="2"/>
-      <c r="M735" s="11"/>
+      <c r="M735" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="17.25">
       <c r="A736" s="2"/>
@@ -13207,7 +13394,7 @@
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
       <c r="L736" s="2"/>
-      <c r="M736" s="11"/>
+      <c r="M736" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="17.25">
       <c r="A737" s="2"/>
@@ -13222,7 +13409,7 @@
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
       <c r="L737" s="2"/>
-      <c r="M737" s="11"/>
+      <c r="M737" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="17.25">
       <c r="A738" s="2"/>
@@ -13237,7 +13424,7 @@
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
       <c r="L738" s="2"/>
-      <c r="M738" s="11"/>
+      <c r="M738" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="17.25">
       <c r="A739" s="2"/>
@@ -13252,7 +13439,7 @@
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
       <c r="L739" s="2"/>
-      <c r="M739" s="11"/>
+      <c r="M739" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="17.25">
       <c r="A740" s="2"/>
@@ -13267,7 +13454,7 @@
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
       <c r="L740" s="2"/>
-      <c r="M740" s="11"/>
+      <c r="M740" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="17.25">
       <c r="A741" s="2"/>
@@ -13282,7 +13469,7 @@
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
       <c r="L741" s="2"/>
-      <c r="M741" s="11"/>
+      <c r="M741" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="17.25">
       <c r="A742" s="2"/>
@@ -13297,7 +13484,7 @@
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
       <c r="L742" s="2"/>
-      <c r="M742" s="11"/>
+      <c r="M742" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="17.25">
       <c r="A743" s="2"/>
@@ -13312,7 +13499,7 @@
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
       <c r="L743" s="2"/>
-      <c r="M743" s="11"/>
+      <c r="M743" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="17.25">
       <c r="A744" s="2"/>
@@ -13327,7 +13514,7 @@
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
       <c r="L744" s="2"/>
-      <c r="M744" s="11"/>
+      <c r="M744" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="17.25">
       <c r="A745" s="2"/>
@@ -13342,7 +13529,7 @@
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
       <c r="L745" s="2"/>
-      <c r="M745" s="11"/>
+      <c r="M745" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="17.25">
       <c r="A746" s="2"/>
@@ -13357,7 +13544,7 @@
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
       <c r="L746" s="2"/>
-      <c r="M746" s="11"/>
+      <c r="M746" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="17.25">
       <c r="A747" s="2"/>
@@ -13372,7 +13559,7 @@
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
       <c r="L747" s="2"/>
-      <c r="M747" s="11"/>
+      <c r="M747" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="17.25">
       <c r="A748" s="2"/>
@@ -13387,7 +13574,7 @@
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
       <c r="L748" s="2"/>
-      <c r="M748" s="11"/>
+      <c r="M748" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="17.25">
       <c r="A749" s="2"/>
@@ -13402,7 +13589,7 @@
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
       <c r="L749" s="2"/>
-      <c r="M749" s="11"/>
+      <c r="M749" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="17.25">
       <c r="A750" s="2"/>
@@ -13417,7 +13604,7 @@
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
       <c r="L750" s="2"/>
-      <c r="M750" s="11"/>
+      <c r="M750" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="17.25">
       <c r="A751" s="2"/>
@@ -13432,7 +13619,7 @@
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
       <c r="L751" s="2"/>
-      <c r="M751" s="11"/>
+      <c r="M751" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="17.25">
       <c r="A752" s="2"/>
@@ -13447,7 +13634,7 @@
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
       <c r="L752" s="2"/>
-      <c r="M752" s="11"/>
+      <c r="M752" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="17.25">
       <c r="A753" s="2"/>
@@ -13462,7 +13649,7 @@
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
       <c r="L753" s="2"/>
-      <c r="M753" s="11"/>
+      <c r="M753" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="17.25">
       <c r="A754" s="2"/>
@@ -13477,7 +13664,7 @@
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
       <c r="L754" s="2"/>
-      <c r="M754" s="11"/>
+      <c r="M754" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="17.25">
       <c r="A755" s="2"/>
@@ -13492,7 +13679,7 @@
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
       <c r="L755" s="2"/>
-      <c r="M755" s="11"/>
+      <c r="M755" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="17.25">
       <c r="A756" s="2"/>
@@ -13507,7 +13694,7 @@
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
       <c r="L756" s="2"/>
-      <c r="M756" s="11"/>
+      <c r="M756" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="17.25">
       <c r="A757" s="2"/>
@@ -13522,7 +13709,7 @@
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
       <c r="L757" s="2"/>
-      <c r="M757" s="11"/>
+      <c r="M757" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="17.25">
       <c r="A758" s="2"/>
@@ -13537,7 +13724,7 @@
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
       <c r="L758" s="2"/>
-      <c r="M758" s="11"/>
+      <c r="M758" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="17.25">
       <c r="A759" s="2"/>
@@ -13552,7 +13739,7 @@
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
       <c r="L759" s="2"/>
-      <c r="M759" s="11"/>
+      <c r="M759" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="17.25">
       <c r="A760" s="2"/>
@@ -13567,7 +13754,7 @@
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
       <c r="L760" s="2"/>
-      <c r="M760" s="11"/>
+      <c r="M760" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="17.25">
       <c r="A761" s="2"/>
@@ -13582,7 +13769,7 @@
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
       <c r="L761" s="2"/>
-      <c r="M761" s="11"/>
+      <c r="M761" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="17.25">
       <c r="A762" s="2"/>
@@ -13597,7 +13784,7 @@
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
       <c r="L762" s="2"/>
-      <c r="M762" s="11"/>
+      <c r="M762" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="17.25">
       <c r="A763" s="2"/>
@@ -13612,7 +13799,7 @@
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
       <c r="L763" s="2"/>
-      <c r="M763" s="11"/>
+      <c r="M763" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="17.25">
       <c r="A764" s="2"/>
@@ -13627,7 +13814,7 @@
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
       <c r="L764" s="2"/>
-      <c r="M764" s="11"/>
+      <c r="M764" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="17.25">
       <c r="A765" s="2"/>
@@ -13642,7 +13829,7 @@
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
       <c r="L765" s="2"/>
-      <c r="M765" s="11"/>
+      <c r="M765" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="17.25">
       <c r="A766" s="2"/>
@@ -13657,7 +13844,7 @@
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
       <c r="L766" s="2"/>
-      <c r="M766" s="11"/>
+      <c r="M766" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="17.25">
       <c r="A767" s="2"/>
@@ -13672,7 +13859,7 @@
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
       <c r="L767" s="2"/>
-      <c r="M767" s="11"/>
+      <c r="M767" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="17.25">
       <c r="A768" s="2"/>
@@ -13687,7 +13874,7 @@
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
       <c r="L768" s="2"/>
-      <c r="M768" s="11"/>
+      <c r="M768" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="17.25">
       <c r="A769" s="2"/>
@@ -13702,7 +13889,7 @@
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
       <c r="L769" s="2"/>
-      <c r="M769" s="11"/>
+      <c r="M769" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="17.25">
       <c r="A770" s="2"/>
@@ -13717,7 +13904,7 @@
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
       <c r="L770" s="2"/>
-      <c r="M770" s="11"/>
+      <c r="M770" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="17.25">
       <c r="A771" s="2"/>
@@ -13732,7 +13919,7 @@
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
       <c r="L771" s="2"/>
-      <c r="M771" s="11"/>
+      <c r="M771" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="17.25">
       <c r="A772" s="2"/>
@@ -13747,7 +13934,7 @@
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
       <c r="L772" s="2"/>
-      <c r="M772" s="11"/>
+      <c r="M772" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="17.25">
       <c r="A773" s="2"/>
@@ -13762,7 +13949,7 @@
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
       <c r="L773" s="2"/>
-      <c r="M773" s="11"/>
+      <c r="M773" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="17.25">
       <c r="A774" s="2"/>
@@ -13777,7 +13964,7 @@
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
       <c r="L774" s="2"/>
-      <c r="M774" s="11"/>
+      <c r="M774" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="17.25">
       <c r="A775" s="2"/>
@@ -13792,7 +13979,7 @@
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
       <c r="L775" s="2"/>
-      <c r="M775" s="11"/>
+      <c r="M775" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="17.25">
       <c r="A776" s="2"/>
@@ -13807,7 +13994,7 @@
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
       <c r="L776" s="2"/>
-      <c r="M776" s="11"/>
+      <c r="M776" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="17.25">
       <c r="A777" s="2"/>
@@ -13822,7 +14009,7 @@
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
       <c r="L777" s="2"/>
-      <c r="M777" s="11"/>
+      <c r="M777" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="17.25">
       <c r="A778" s="2"/>
@@ -13837,7 +14024,7 @@
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
       <c r="L778" s="2"/>
-      <c r="M778" s="11"/>
+      <c r="M778" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="17.25">
       <c r="A779" s="2"/>
@@ -13852,7 +14039,7 @@
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
       <c r="L779" s="2"/>
-      <c r="M779" s="11"/>
+      <c r="M779" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="17.25">
       <c r="A780" s="2"/>
@@ -13867,7 +14054,7 @@
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
       <c r="L780" s="2"/>
-      <c r="M780" s="11"/>
+      <c r="M780" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="17.25">
       <c r="A781" s="2"/>
@@ -13882,7 +14069,7 @@
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
       <c r="L781" s="2"/>
-      <c r="M781" s="11"/>
+      <c r="M781" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="17.25">
       <c r="A782" s="2"/>
@@ -13897,7 +14084,7 @@
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
       <c r="L782" s="2"/>
-      <c r="M782" s="11"/>
+      <c r="M782" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="17.25">
       <c r="A783" s="2"/>
@@ -13912,7 +14099,7 @@
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
       <c r="L783" s="2"/>
-      <c r="M783" s="11"/>
+      <c r="M783" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="17.25">
       <c r="A784" s="2"/>
@@ -13927,7 +14114,7 @@
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
       <c r="L784" s="2"/>
-      <c r="M784" s="11"/>
+      <c r="M784" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="17.25">
       <c r="A785" s="2"/>
@@ -13942,7 +14129,7 @@
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
       <c r="L785" s="2"/>
-      <c r="M785" s="11"/>
+      <c r="M785" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="17.25">
       <c r="A786" s="2"/>
@@ -13957,7 +14144,7 @@
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
       <c r="L786" s="2"/>
-      <c r="M786" s="11"/>
+      <c r="M786" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="17.25">
       <c r="A787" s="2"/>
@@ -13972,7 +14159,7 @@
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
       <c r="L787" s="2"/>
-      <c r="M787" s="11"/>
+      <c r="M787" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="17.25">
       <c r="A788" s="2"/>
@@ -13987,7 +14174,7 @@
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
       <c r="L788" s="2"/>
-      <c r="M788" s="11"/>
+      <c r="M788" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="17.25">
       <c r="A789" s="2"/>
@@ -14002,7 +14189,7 @@
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
       <c r="L789" s="2"/>
-      <c r="M789" s="11"/>
+      <c r="M789" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="17.25">
       <c r="A790" s="2"/>
@@ -14017,7 +14204,7 @@
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
       <c r="L790" s="2"/>
-      <c r="M790" s="11"/>
+      <c r="M790" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="17.25">
       <c r="A791" s="2"/>
@@ -14032,7 +14219,7 @@
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
       <c r="L791" s="2"/>
-      <c r="M791" s="11"/>
+      <c r="M791" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="17.25">
       <c r="A792" s="2"/>
@@ -14047,7 +14234,7 @@
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
       <c r="L792" s="2"/>
-      <c r="M792" s="11"/>
+      <c r="M792" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="17.25">
       <c r="A793" s="2"/>
@@ -14062,7 +14249,7 @@
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
       <c r="L793" s="2"/>
-      <c r="M793" s="11"/>
+      <c r="M793" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="17.25">
       <c r="A794" s="2"/>
@@ -14077,7 +14264,7 @@
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
       <c r="L794" s="2"/>
-      <c r="M794" s="11"/>
+      <c r="M794" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="17.25">
       <c r="A795" s="2"/>
@@ -14092,7 +14279,7 @@
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
       <c r="L795" s="2"/>
-      <c r="M795" s="11"/>
+      <c r="M795" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="17.25">
       <c r="A796" s="2"/>
@@ -14107,7 +14294,7 @@
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
       <c r="L796" s="2"/>
-      <c r="M796" s="11"/>
+      <c r="M796" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="17.25">
       <c r="A797" s="2"/>
@@ -14122,7 +14309,7 @@
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
       <c r="L797" s="2"/>
-      <c r="M797" s="11"/>
+      <c r="M797" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="17.25">
       <c r="A798" s="2"/>
@@ -14137,7 +14324,7 @@
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
       <c r="L798" s="2"/>
-      <c r="M798" s="11"/>
+      <c r="M798" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="17.25">
       <c r="A799" s="2"/>
@@ -14152,7 +14339,7 @@
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
       <c r="L799" s="2"/>
-      <c r="M799" s="11"/>
+      <c r="M799" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="17.25">
       <c r="A800" s="2"/>
@@ -14167,7 +14354,7 @@
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
       <c r="L800" s="2"/>
-      <c r="M800" s="11"/>
+      <c r="M800" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="17.25">
       <c r="A801" s="2"/>
@@ -14182,7 +14369,7 @@
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
       <c r="L801" s="2"/>
-      <c r="M801" s="11"/>
+      <c r="M801" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="17.25">
       <c r="A802" s="2"/>
@@ -14197,7 +14384,7 @@
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
       <c r="L802" s="2"/>
-      <c r="M802" s="11"/>
+      <c r="M802" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="17.25">
       <c r="A803" s="2"/>
@@ -14212,7 +14399,7 @@
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
       <c r="L803" s="2"/>
-      <c r="M803" s="11"/>
+      <c r="M803" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="17.25">
       <c r="A804" s="2"/>
@@ -14227,7 +14414,7 @@
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
       <c r="L804" s="2"/>
-      <c r="M804" s="11"/>
+      <c r="M804" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="17.25">
       <c r="A805" s="2"/>
@@ -14242,7 +14429,7 @@
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
       <c r="L805" s="2"/>
-      <c r="M805" s="11"/>
+      <c r="M805" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="17.25">
       <c r="A806" s="2"/>
@@ -14257,7 +14444,7 @@
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
       <c r="L806" s="2"/>
-      <c r="M806" s="11"/>
+      <c r="M806" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="17.25">
       <c r="A807" s="2"/>
@@ -14272,7 +14459,7 @@
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
       <c r="L807" s="2"/>
-      <c r="M807" s="11"/>
+      <c r="M807" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="17.25">
       <c r="A808" s="2"/>
@@ -14287,7 +14474,7 @@
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
       <c r="L808" s="2"/>
-      <c r="M808" s="11"/>
+      <c r="M808" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="17.25">
       <c r="A809" s="2"/>
@@ -14302,7 +14489,7 @@
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
       <c r="L809" s="2"/>
-      <c r="M809" s="11"/>
+      <c r="M809" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="17.25">
       <c r="A810" s="2"/>
@@ -14317,7 +14504,7 @@
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
       <c r="L810" s="2"/>
-      <c r="M810" s="11"/>
+      <c r="M810" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="17.25">
       <c r="A811" s="2"/>
@@ -14332,7 +14519,7 @@
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
       <c r="L811" s="2"/>
-      <c r="M811" s="11"/>
+      <c r="M811" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="17.25">
       <c r="A812" s="2"/>
@@ -14347,7 +14534,7 @@
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
       <c r="L812" s="2"/>
-      <c r="M812" s="11"/>
+      <c r="M812" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="17.25">
       <c r="A813" s="2"/>
@@ -14362,7 +14549,7 @@
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
       <c r="L813" s="2"/>
-      <c r="M813" s="11"/>
+      <c r="M813" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="17.25">
       <c r="A814" s="2"/>
@@ -14377,7 +14564,7 @@
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
       <c r="L814" s="2"/>
-      <c r="M814" s="11"/>
+      <c r="M814" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="17.25">
       <c r="A815" s="2"/>
@@ -14392,7 +14579,7 @@
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
       <c r="L815" s="2"/>
-      <c r="M815" s="11"/>
+      <c r="M815" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="17.25">
       <c r="A816" s="2"/>
@@ -14407,7 +14594,7 @@
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
       <c r="L816" s="2"/>
-      <c r="M816" s="11"/>
+      <c r="M816" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="17.25">
       <c r="A817" s="2"/>
@@ -14422,7 +14609,7 @@
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
       <c r="L817" s="2"/>
-      <c r="M817" s="11"/>
+      <c r="M817" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="17.25">
       <c r="A818" s="2"/>
@@ -14437,7 +14624,7 @@
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
       <c r="L818" s="2"/>
-      <c r="M818" s="11"/>
+      <c r="M818" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="17.25">
       <c r="A819" s="2"/>
@@ -14452,7 +14639,7 @@
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
       <c r="L819" s="2"/>
-      <c r="M819" s="11"/>
+      <c r="M819" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="17.25">
       <c r="A820" s="2"/>
@@ -14467,7 +14654,7 @@
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
       <c r="L820" s="2"/>
-      <c r="M820" s="11"/>
+      <c r="M820" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="17.25">
       <c r="A821" s="2"/>
@@ -14482,7 +14669,7 @@
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
       <c r="L821" s="2"/>
-      <c r="M821" s="11"/>
+      <c r="M821" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="17.25">
       <c r="A822" s="2"/>
@@ -14497,7 +14684,7 @@
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
       <c r="L822" s="2"/>
-      <c r="M822" s="11"/>
+      <c r="M822" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="17.25">
       <c r="A823" s="2"/>
@@ -14512,7 +14699,7 @@
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
       <c r="L823" s="2"/>
-      <c r="M823" s="11"/>
+      <c r="M823" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="17.25">
       <c r="A824" s="2"/>
@@ -14527,7 +14714,7 @@
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
       <c r="L824" s="2"/>
-      <c r="M824" s="11"/>
+      <c r="M824" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="17.25">
       <c r="A825" s="2"/>
@@ -14542,7 +14729,7 @@
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
       <c r="L825" s="2"/>
-      <c r="M825" s="11"/>
+      <c r="M825" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="17.25">
       <c r="A826" s="2"/>
@@ -14557,7 +14744,7 @@
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
       <c r="L826" s="2"/>
-      <c r="M826" s="11"/>
+      <c r="M826" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="17.25">
       <c r="A827" s="2"/>
@@ -14572,7 +14759,7 @@
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
       <c r="L827" s="2"/>
-      <c r="M827" s="11"/>
+      <c r="M827" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="17.25">
       <c r="A828" s="2"/>
@@ -14587,7 +14774,7 @@
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
       <c r="L828" s="2"/>
-      <c r="M828" s="11"/>
+      <c r="M828" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="17.25">
       <c r="A829" s="2"/>
@@ -14602,7 +14789,7 @@
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
       <c r="L829" s="2"/>
-      <c r="M829" s="11"/>
+      <c r="M829" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="17.25">
       <c r="A830" s="2"/>
@@ -14617,7 +14804,7 @@
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
       <c r="L830" s="2"/>
-      <c r="M830" s="11"/>
+      <c r="M830" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="17.25">
       <c r="A831" s="2"/>
@@ -14632,7 +14819,7 @@
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
       <c r="L831" s="2"/>
-      <c r="M831" s="11"/>
+      <c r="M831" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="17.25">
       <c r="A832" s="2"/>
@@ -14647,7 +14834,7 @@
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
       <c r="L832" s="2"/>
-      <c r="M832" s="11"/>
+      <c r="M832" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="17.25">
       <c r="A833" s="2"/>
@@ -14662,7 +14849,7 @@
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
       <c r="L833" s="2"/>
-      <c r="M833" s="11"/>
+      <c r="M833" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="17.25">
       <c r="A834" s="2"/>
@@ -14677,7 +14864,7 @@
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
       <c r="L834" s="2"/>
-      <c r="M834" s="11"/>
+      <c r="M834" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="17.25">
       <c r="A835" s="2"/>
@@ -14692,7 +14879,7 @@
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
       <c r="L835" s="2"/>
-      <c r="M835" s="11"/>
+      <c r="M835" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="17.25">
       <c r="A836" s="2"/>
@@ -14707,7 +14894,7 @@
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
       <c r="L836" s="2"/>
-      <c r="M836" s="11"/>
+      <c r="M836" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="17.25">
       <c r="A837" s="2"/>
@@ -14722,7 +14909,7 @@
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
       <c r="L837" s="2"/>
-      <c r="M837" s="11"/>
+      <c r="M837" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="17.25">
       <c r="A838" s="2"/>
@@ -14737,7 +14924,7 @@
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
       <c r="L838" s="2"/>
-      <c r="M838" s="11"/>
+      <c r="M838" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="17.25">
       <c r="A839" s="2"/>
@@ -14752,7 +14939,7 @@
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
       <c r="L839" s="2"/>
-      <c r="M839" s="11"/>
+      <c r="M839" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="17.25">
       <c r="A840" s="2"/>
@@ -14767,7 +14954,7 @@
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
       <c r="L840" s="2"/>
-      <c r="M840" s="11"/>
+      <c r="M840" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="17.25">
       <c r="A841" s="2"/>
@@ -14782,7 +14969,7 @@
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
       <c r="L841" s="2"/>
-      <c r="M841" s="11"/>
+      <c r="M841" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="17.25">
       <c r="A842" s="2"/>
@@ -14797,7 +14984,7 @@
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
       <c r="L842" s="2"/>
-      <c r="M842" s="11"/>
+      <c r="M842" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="17.25">
       <c r="A843" s="2"/>
@@ -14812,7 +14999,7 @@
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
       <c r="L843" s="2"/>
-      <c r="M843" s="11"/>
+      <c r="M843" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="17.25">
       <c r="A844" s="2"/>
@@ -14827,7 +15014,7 @@
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
       <c r="L844" s="2"/>
-      <c r="M844" s="11"/>
+      <c r="M844" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="17.25">
       <c r="A845" s="2"/>
@@ -14842,7 +15029,7 @@
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
       <c r="L845" s="2"/>
-      <c r="M845" s="11"/>
+      <c r="M845" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="17.25">
       <c r="A846" s="2"/>
@@ -14857,7 +15044,7 @@
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
       <c r="L846" s="2"/>
-      <c r="M846" s="11"/>
+      <c r="M846" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="17.25">
       <c r="A847" s="2"/>
@@ -14872,7 +15059,7 @@
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
       <c r="L847" s="2"/>
-      <c r="M847" s="11"/>
+      <c r="M847" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="17.25">
       <c r="A848" s="2"/>
@@ -14887,7 +15074,7 @@
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
       <c r="L848" s="2"/>
-      <c r="M848" s="11"/>
+      <c r="M848" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="17.25">
       <c r="A849" s="2"/>
@@ -14902,7 +15089,7 @@
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
       <c r="L849" s="2"/>
-      <c r="M849" s="11"/>
+      <c r="M849" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="17.25">
       <c r="A850" s="2"/>
@@ -14917,7 +15104,7 @@
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
       <c r="L850" s="2"/>
-      <c r="M850" s="11"/>
+      <c r="M850" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="17.25">
       <c r="A851" s="2"/>
@@ -14932,7 +15119,7 @@
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
       <c r="L851" s="2"/>
-      <c r="M851" s="11"/>
+      <c r="M851" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="17.25">
       <c r="A852" s="2"/>
@@ -14947,7 +15134,7 @@
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
       <c r="L852" s="2"/>
-      <c r="M852" s="11"/>
+      <c r="M852" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="17.25">
       <c r="A853" s="2"/>
@@ -14962,7 +15149,7 @@
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
       <c r="L853" s="2"/>
-      <c r="M853" s="11"/>
+      <c r="M853" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="17.25">
       <c r="A854" s="2"/>
@@ -14977,7 +15164,7 @@
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
       <c r="L854" s="2"/>
-      <c r="M854" s="11"/>
+      <c r="M854" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="17.25">
       <c r="A855" s="2"/>
@@ -14992,7 +15179,7 @@
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
       <c r="L855" s="2"/>
-      <c r="M855" s="11"/>
+      <c r="M855" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="17.25">
       <c r="A856" s="2"/>
@@ -15007,7 +15194,7 @@
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
       <c r="L856" s="2"/>
-      <c r="M856" s="11"/>
+      <c r="M856" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="17.25">
       <c r="A857" s="2"/>
@@ -15022,7 +15209,7 @@
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
       <c r="L857" s="2"/>
-      <c r="M857" s="11"/>
+      <c r="M857" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="17.25">
       <c r="A858" s="2"/>
@@ -15037,7 +15224,7 @@
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
       <c r="L858" s="2"/>
-      <c r="M858" s="11"/>
+      <c r="M858" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="17.25">
       <c r="A859" s="2"/>
@@ -15052,7 +15239,7 @@
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
       <c r="L859" s="2"/>
-      <c r="M859" s="11"/>
+      <c r="M859" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="17.25">
       <c r="A860" s="2"/>
@@ -15067,7 +15254,7 @@
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
       <c r="L860" s="2"/>
-      <c r="M860" s="11"/>
+      <c r="M860" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="17.25">
       <c r="A861" s="2"/>
@@ -15082,7 +15269,7 @@
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
       <c r="L861" s="2"/>
-      <c r="M861" s="11"/>
+      <c r="M861" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="17.25">
       <c r="A862" s="2"/>
@@ -15097,7 +15284,7 @@
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
       <c r="L862" s="2"/>
-      <c r="M862" s="11"/>
+      <c r="M862" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="17.25">
       <c r="A863" s="2"/>
@@ -15112,7 +15299,7 @@
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
       <c r="L863" s="2"/>
-      <c r="M863" s="11"/>
+      <c r="M863" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="17.25">
       <c r="A864" s="2"/>
@@ -15127,7 +15314,7 @@
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
       <c r="L864" s="2"/>
-      <c r="M864" s="11"/>
+      <c r="M864" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="17.25">
       <c r="A865" s="2"/>
@@ -15142,7 +15329,7 @@
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
       <c r="L865" s="2"/>
-      <c r="M865" s="11"/>
+      <c r="M865" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="17.25">
       <c r="A866" s="2"/>
@@ -15157,7 +15344,7 @@
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
       <c r="L866" s="2"/>
-      <c r="M866" s="11"/>
+      <c r="M866" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="17.25">
       <c r="A867" s="2"/>
@@ -15172,7 +15359,7 @@
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
       <c r="L867" s="2"/>
-      <c r="M867" s="11"/>
+      <c r="M867" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="17.25">
       <c r="A868" s="2"/>
@@ -15187,7 +15374,7 @@
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
       <c r="L868" s="2"/>
-      <c r="M868" s="11"/>
+      <c r="M868" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="17.25">
       <c r="A869" s="2"/>
@@ -15202,7 +15389,7 @@
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
       <c r="L869" s="2"/>
-      <c r="M869" s="11"/>
+      <c r="M869" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="17.25">
       <c r="A870" s="2"/>
@@ -15217,7 +15404,7 @@
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
       <c r="L870" s="2"/>
-      <c r="M870" s="11"/>
+      <c r="M870" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="17.25">
       <c r="A871" s="2"/>
@@ -15232,7 +15419,7 @@
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
       <c r="L871" s="2"/>
-      <c r="M871" s="11"/>
+      <c r="M871" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="17.25">
       <c r="A872" s="2"/>
@@ -15247,7 +15434,7 @@
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
       <c r="L872" s="2"/>
-      <c r="M872" s="11"/>
+      <c r="M872" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="17.25">
       <c r="A873" s="2"/>
@@ -15262,7 +15449,7 @@
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
       <c r="L873" s="2"/>
-      <c r="M873" s="11"/>
+      <c r="M873" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="17.25">
       <c r="A874" s="2"/>
@@ -15277,7 +15464,7 @@
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
       <c r="L874" s="2"/>
-      <c r="M874" s="11"/>
+      <c r="M874" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="17.25">
       <c r="A875" s="2"/>
@@ -15292,7 +15479,7 @@
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
       <c r="L875" s="2"/>
-      <c r="M875" s="11"/>
+      <c r="M875" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="17.25">
       <c r="A876" s="2"/>
@@ -15307,7 +15494,7 @@
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
       <c r="L876" s="2"/>
-      <c r="M876" s="11"/>
+      <c r="M876" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="17.25">
       <c r="A877" s="2"/>
@@ -15322,7 +15509,7 @@
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
       <c r="L877" s="2"/>
-      <c r="M877" s="11"/>
+      <c r="M877" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="17.25">
       <c r="A878" s="2"/>
@@ -15337,7 +15524,7 @@
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
       <c r="L878" s="2"/>
-      <c r="M878" s="11"/>
+      <c r="M878" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="17.25">
       <c r="A879" s="2"/>
@@ -15352,7 +15539,7 @@
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
       <c r="L879" s="2"/>
-      <c r="M879" s="11"/>
+      <c r="M879" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="17.25">
       <c r="A880" s="2"/>
@@ -15367,7 +15554,7 @@
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
       <c r="L880" s="2"/>
-      <c r="M880" s="11"/>
+      <c r="M880" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="17.25">
       <c r="A881" s="2"/>
@@ -15382,7 +15569,7 @@
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
       <c r="L881" s="2"/>
-      <c r="M881" s="11"/>
+      <c r="M881" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="17.25">
       <c r="A882" s="2"/>
@@ -15397,7 +15584,7 @@
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
       <c r="L882" s="2"/>
-      <c r="M882" s="11"/>
+      <c r="M882" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="17.25">
       <c r="A883" s="2"/>
@@ -15412,7 +15599,7 @@
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
       <c r="L883" s="2"/>
-      <c r="M883" s="11"/>
+      <c r="M883" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="17.25">
       <c r="A884" s="2"/>
@@ -15427,7 +15614,7 @@
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
       <c r="L884" s="2"/>
-      <c r="M884" s="11"/>
+      <c r="M884" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="17.25">
       <c r="A885" s="2"/>
@@ -15442,7 +15629,7 @@
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
       <c r="L885" s="2"/>
-      <c r="M885" s="11"/>
+      <c r="M885" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="17.25">
       <c r="A886" s="2"/>
@@ -15457,7 +15644,7 @@
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
       <c r="L886" s="2"/>
-      <c r="M886" s="11"/>
+      <c r="M886" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="17.25">
       <c r="A887" s="2"/>
@@ -15472,7 +15659,7 @@
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
       <c r="L887" s="2"/>
-      <c r="M887" s="11"/>
+      <c r="M887" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="17.25">
       <c r="A888" s="2"/>
@@ -15487,7 +15674,7 @@
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
       <c r="L888" s="2"/>
-      <c r="M888" s="11"/>
+      <c r="M888" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="17.25">
       <c r="A889" s="2"/>
@@ -15502,7 +15689,7 @@
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
       <c r="L889" s="2"/>
-      <c r="M889" s="11"/>
+      <c r="M889" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="17.25">
       <c r="A890" s="2"/>
@@ -15517,7 +15704,7 @@
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
       <c r="L890" s="2"/>
-      <c r="M890" s="11"/>
+      <c r="M890" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="17.25">
       <c r="A891" s="2"/>
@@ -15532,7 +15719,7 @@
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
       <c r="L891" s="2"/>
-      <c r="M891" s="11"/>
+      <c r="M891" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="17.25">
       <c r="A892" s="2"/>
@@ -15547,7 +15734,7 @@
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
       <c r="L892" s="2"/>
-      <c r="M892" s="11"/>
+      <c r="M892" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="17.25">
       <c r="A893" s="2"/>
@@ -15562,7 +15749,7 @@
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
       <c r="L893" s="2"/>
-      <c r="M893" s="11"/>
+      <c r="M893" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="17.25">
       <c r="A894" s="2"/>
@@ -15577,7 +15764,7 @@
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
-      <c r="M894" s="11"/>
+      <c r="M894" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="17.25">
       <c r="A895" s="2"/>
@@ -15592,7 +15779,7 @@
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
       <c r="L895" s="2"/>
-      <c r="M895" s="11"/>
+      <c r="M895" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="17.25">
       <c r="A896" s="2"/>
@@ -15607,7 +15794,7 @@
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
       <c r="L896" s="2"/>
-      <c r="M896" s="11"/>
+      <c r="M896" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="17.25">
       <c r="A897" s="2"/>
@@ -15622,7 +15809,7 @@
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
       <c r="L897" s="2"/>
-      <c r="M897" s="11"/>
+      <c r="M897" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="17.25">
       <c r="A898" s="2"/>
@@ -15637,7 +15824,7 @@
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
       <c r="L898" s="2"/>
-      <c r="M898" s="11"/>
+      <c r="M898" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="17.25">
       <c r="A899" s="2"/>
@@ -15652,7 +15839,7 @@
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
       <c r="L899" s="2"/>
-      <c r="M899" s="11"/>
+      <c r="M899" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="17.25">
       <c r="A900" s="2"/>
@@ -15667,7 +15854,7 @@
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
       <c r="L900" s="2"/>
-      <c r="M900" s="11"/>
+      <c r="M900" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="17.25">
       <c r="A901" s="2"/>
@@ -15682,7 +15869,7 @@
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
       <c r="L901" s="2"/>
-      <c r="M901" s="11"/>
+      <c r="M901" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="17.25">
       <c r="A902" s="2"/>
@@ -15697,7 +15884,7 @@
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
       <c r="L902" s="2"/>
-      <c r="M902" s="11"/>
+      <c r="M902" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="17.25">
       <c r="A903" s="2"/>
@@ -15712,7 +15899,7 @@
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
       <c r="L903" s="2"/>
-      <c r="M903" s="11"/>
+      <c r="M903" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="17.25">
       <c r="A904" s="2"/>
@@ -15727,7 +15914,7 @@
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
       <c r="L904" s="2"/>
-      <c r="M904" s="11"/>
+      <c r="M904" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="17.25">
       <c r="A905" s="2"/>
@@ -15742,7 +15929,7 @@
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
       <c r="L905" s="2"/>
-      <c r="M905" s="11"/>
+      <c r="M905" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="17.25">
       <c r="A906" s="2"/>
@@ -15757,7 +15944,7 @@
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
       <c r="L906" s="2"/>
-      <c r="M906" s="11"/>
+      <c r="M906" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="17.25">
       <c r="A907" s="2"/>
@@ -15772,7 +15959,7 @@
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
       <c r="L907" s="2"/>
-      <c r="M907" s="11"/>
+      <c r="M907" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="17.25">
       <c r="A908" s="2"/>
@@ -15787,7 +15974,7 @@
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
       <c r="L908" s="2"/>
-      <c r="M908" s="11"/>
+      <c r="M908" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="17.25">
       <c r="A909" s="2"/>
@@ -15802,7 +15989,7 @@
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
       <c r="L909" s="2"/>
-      <c r="M909" s="11"/>
+      <c r="M909" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="17.25">
       <c r="A910" s="2"/>
@@ -15817,7 +16004,7 @@
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
       <c r="L910" s="2"/>
-      <c r="M910" s="11"/>
+      <c r="M910" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="17.25">
       <c r="A911" s="2"/>
@@ -15832,7 +16019,7 @@
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
       <c r="L911" s="2"/>
-      <c r="M911" s="11"/>
+      <c r="M911" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="17.25">
       <c r="A912" s="2"/>
@@ -15847,7 +16034,7 @@
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
       <c r="L912" s="2"/>
-      <c r="M912" s="11"/>
+      <c r="M912" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="17.25">
       <c r="A913" s="2"/>
@@ -15862,7 +16049,7 @@
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
       <c r="L913" s="2"/>
-      <c r="M913" s="11"/>
+      <c r="M913" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="17.25">
       <c r="A914" s="2"/>
@@ -15877,7 +16064,7 @@
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
       <c r="L914" s="2"/>
-      <c r="M914" s="11"/>
+      <c r="M914" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="17.25">
       <c r="A915" s="2"/>
@@ -15892,7 +16079,7 @@
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
       <c r="L915" s="2"/>
-      <c r="M915" s="11"/>
+      <c r="M915" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="17.25">
       <c r="A916" s="2"/>
@@ -15907,7 +16094,7 @@
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
       <c r="L916" s="2"/>
-      <c r="M916" s="11"/>
+      <c r="M916" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="17.25">
       <c r="A917" s="2"/>
@@ -15922,7 +16109,7 @@
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
       <c r="L917" s="2"/>
-      <c r="M917" s="11"/>
+      <c r="M917" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="17.25">
       <c r="A918" s="2"/>
@@ -15937,7 +16124,7 @@
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
       <c r="L918" s="2"/>
-      <c r="M918" s="11"/>
+      <c r="M918" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="17.25">
       <c r="A919" s="2"/>
@@ -15952,7 +16139,7 @@
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
       <c r="L919" s="2"/>
-      <c r="M919" s="11"/>
+      <c r="M919" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="17.25">
       <c r="A920" s="2"/>
@@ -15967,7 +16154,7 @@
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
       <c r="L920" s="2"/>
-      <c r="M920" s="11"/>
+      <c r="M920" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="17.25">
       <c r="A921" s="2"/>
@@ -15982,7 +16169,7 @@
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
       <c r="L921" s="2"/>
-      <c r="M921" s="11"/>
+      <c r="M921" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="17.25">
       <c r="A922" s="2"/>
@@ -15997,7 +16184,7 @@
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
       <c r="L922" s="2"/>
-      <c r="M922" s="11"/>
+      <c r="M922" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="17.25">
       <c r="A923" s="2"/>
@@ -16012,7 +16199,7 @@
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
       <c r="L923" s="2"/>
-      <c r="M923" s="11"/>
+      <c r="M923" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="17.25">
       <c r="A924" s="2"/>
@@ -16027,7 +16214,7 @@
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
       <c r="L924" s="2"/>
-      <c r="M924" s="11"/>
+      <c r="M924" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="17.25">
       <c r="A925" s="2"/>
@@ -16042,7 +16229,7 @@
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
       <c r="L925" s="2"/>
-      <c r="M925" s="11"/>
+      <c r="M925" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="17.25">
       <c r="A926" s="2"/>
@@ -16057,7 +16244,7 @@
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
       <c r="L926" s="2"/>
-      <c r="M926" s="11"/>
+      <c r="M926" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="17.25">
       <c r="A927" s="2"/>
@@ -16072,7 +16259,7 @@
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
       <c r="L927" s="2"/>
-      <c r="M927" s="11"/>
+      <c r="M927" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="17.25">
       <c r="A928" s="2"/>
@@ -16087,7 +16274,7 @@
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
       <c r="L928" s="2"/>
-      <c r="M928" s="11"/>
+      <c r="M928" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="17.25">
       <c r="A929" s="2"/>
@@ -16102,7 +16289,7 @@
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
       <c r="L929" s="2"/>
-      <c r="M929" s="11"/>
+      <c r="M929" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="17.25">
       <c r="A930" s="2"/>
@@ -16117,7 +16304,7 @@
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
       <c r="L930" s="2"/>
-      <c r="M930" s="11"/>
+      <c r="M930" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="17.25">
       <c r="A931" s="2"/>
@@ -16132,7 +16319,7 @@
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
       <c r="L931" s="2"/>
-      <c r="M931" s="11"/>
+      <c r="M931" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="17.25">
       <c r="A932" s="2"/>
@@ -16147,7 +16334,7 @@
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
       <c r="L932" s="2"/>
-      <c r="M932" s="11"/>
+      <c r="M932" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="17.25">
       <c r="A933" s="2"/>
@@ -16162,7 +16349,7 @@
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
       <c r="L933" s="2"/>
-      <c r="M933" s="11"/>
+      <c r="M933" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="17.25">
       <c r="A934" s="2"/>
@@ -16177,7 +16364,7 @@
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
       <c r="L934" s="2"/>
-      <c r="M934" s="11"/>
+      <c r="M934" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="17.25">
       <c r="A935" s="2"/>
@@ -16192,7 +16379,7 @@
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
       <c r="L935" s="2"/>
-      <c r="M935" s="11"/>
+      <c r="M935" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="17.25">
       <c r="A936" s="2"/>
@@ -16207,7 +16394,7 @@
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
       <c r="L936" s="2"/>
-      <c r="M936" s="11"/>
+      <c r="M936" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="17.25">
       <c r="A937" s="2"/>
@@ -16222,7 +16409,7 @@
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
       <c r="L937" s="2"/>
-      <c r="M937" s="11"/>
+      <c r="M937" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="17.25">
       <c r="A938" s="2"/>
@@ -16237,7 +16424,7 @@
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
       <c r="L938" s="2"/>
-      <c r="M938" s="11"/>
+      <c r="M938" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="17.25">
       <c r="A939" s="2"/>
@@ -16252,7 +16439,7 @@
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
       <c r="L939" s="2"/>
-      <c r="M939" s="11"/>
+      <c r="M939" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="17.25">
       <c r="A940" s="2"/>
@@ -16267,7 +16454,7 @@
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
       <c r="L940" s="2"/>
-      <c r="M940" s="11"/>
+      <c r="M940" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="17.25">
       <c r="A941" s="2"/>
@@ -16282,7 +16469,7 @@
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
       <c r="L941" s="2"/>
-      <c r="M941" s="11"/>
+      <c r="M941" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="17.25">
       <c r="A942" s="2"/>
@@ -16297,7 +16484,7 @@
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
       <c r="L942" s="2"/>
-      <c r="M942" s="11"/>
+      <c r="M942" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="17.25">
       <c r="A943" s="2"/>
@@ -16312,7 +16499,7 @@
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
       <c r="L943" s="2"/>
-      <c r="M943" s="11"/>
+      <c r="M943" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="17.25">
       <c r="A944" s="2"/>
@@ -16327,7 +16514,7 @@
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
       <c r="L944" s="2"/>
-      <c r="M944" s="11"/>
+      <c r="M944" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="17.25">
       <c r="A945" s="2"/>
@@ -16342,7 +16529,7 @@
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
       <c r="L945" s="2"/>
-      <c r="M945" s="11"/>
+      <c r="M945" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="17.25">
       <c r="A946" s="2"/>
@@ -16357,7 +16544,7 @@
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
       <c r="L946" s="2"/>
-      <c r="M946" s="11"/>
+      <c r="M946" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="17.25">
       <c r="A947" s="2"/>
@@ -16372,7 +16559,7 @@
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
       <c r="L947" s="2"/>
-      <c r="M947" s="11"/>
+      <c r="M947" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="17.25">
       <c r="A948" s="2"/>
@@ -16387,7 +16574,7 @@
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
       <c r="L948" s="2"/>
-      <c r="M948" s="11"/>
+      <c r="M948" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="17.25">
       <c r="A949" s="2"/>
@@ -16402,7 +16589,7 @@
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
       <c r="L949" s="2"/>
-      <c r="M949" s="11"/>
+      <c r="M949" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="17.25">
       <c r="A950" s="2"/>
@@ -16417,7 +16604,7 @@
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
       <c r="L950" s="2"/>
-      <c r="M950" s="11"/>
+      <c r="M950" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="17.25">
       <c r="A951" s="2"/>
@@ -16432,7 +16619,7 @@
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
       <c r="L951" s="2"/>
-      <c r="M951" s="11"/>
+      <c r="M951" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="17.25">
       <c r="A952" s="2"/>
@@ -16447,7 +16634,7 @@
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
       <c r="L952" s="2"/>
-      <c r="M952" s="11"/>
+      <c r="M952" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="17.25">
       <c r="A953" s="2"/>
@@ -16462,7 +16649,7 @@
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
       <c r="L953" s="2"/>
-      <c r="M953" s="11"/>
+      <c r="M953" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="17.25">
       <c r="A954" s="2"/>
@@ -16477,7 +16664,7 @@
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
       <c r="L954" s="2"/>
-      <c r="M954" s="11"/>
+      <c r="M954" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="17.25">
       <c r="A955" s="2"/>
@@ -16492,7 +16679,7 @@
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
       <c r="L955" s="2"/>
-      <c r="M955" s="11"/>
+      <c r="M955" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="17.25">
       <c r="A956" s="2"/>
@@ -16507,7 +16694,7 @@
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
       <c r="L956" s="2"/>
-      <c r="M956" s="11"/>
+      <c r="M956" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="17.25">
       <c r="A957" s="2"/>
@@ -16522,7 +16709,7 @@
       <c r="J957" s="2"/>
       <c r="K957" s="2"/>
       <c r="L957" s="2"/>
-      <c r="M957" s="11"/>
+      <c r="M957" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="17.25">
       <c r="A958" s="2"/>
@@ -16537,7 +16724,7 @@
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
       <c r="L958" s="2"/>
-      <c r="M958" s="11"/>
+      <c r="M958" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="17.25">
       <c r="A959" s="2"/>
@@ -16552,7 +16739,7 @@
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
       <c r="L959" s="2"/>
-      <c r="M959" s="11"/>
+      <c r="M959" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="17.25">
       <c r="A960" s="2"/>
@@ -16567,7 +16754,7 @@
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
       <c r="L960" s="2"/>
-      <c r="M960" s="11"/>
+      <c r="M960" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="17.25">
       <c r="A961" s="2"/>
@@ -16582,7 +16769,7 @@
       <c r="J961" s="2"/>
       <c r="K961" s="2"/>
       <c r="L961" s="2"/>
-      <c r="M961" s="11"/>
+      <c r="M961" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="17.25">
       <c r="A962" s="2"/>
@@ -16597,7 +16784,7 @@
       <c r="J962" s="2"/>
       <c r="K962" s="2"/>
       <c r="L962" s="2"/>
-      <c r="M962" s="11"/>
+      <c r="M962" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="17.25">
       <c r="A963" s="2"/>
@@ -16612,7 +16799,7 @@
       <c r="J963" s="2"/>
       <c r="K963" s="2"/>
       <c r="L963" s="2"/>
-      <c r="M963" s="11"/>
+      <c r="M963" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="17.25">
       <c r="A964" s="2"/>
@@ -16627,7 +16814,7 @@
       <c r="J964" s="2"/>
       <c r="K964" s="2"/>
       <c r="L964" s="2"/>
-      <c r="M964" s="11"/>
+      <c r="M964" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="17.25">
       <c r="A965" s="2"/>
@@ -16642,7 +16829,7 @@
       <c r="J965" s="2"/>
       <c r="K965" s="2"/>
       <c r="L965" s="2"/>
-      <c r="M965" s="11"/>
+      <c r="M965" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="17.25">
       <c r="A966" s="2"/>
@@ -16657,7 +16844,7 @@
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
       <c r="L966" s="2"/>
-      <c r="M966" s="11"/>
+      <c r="M966" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="17.25">
       <c r="A967" s="2"/>
@@ -16672,7 +16859,7 @@
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
       <c r="L967" s="2"/>
-      <c r="M967" s="11"/>
+      <c r="M967" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="17.25">
       <c r="A968" s="2"/>
@@ -16687,7 +16874,7 @@
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
       <c r="L968" s="2"/>
-      <c r="M968" s="11"/>
+      <c r="M968" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="17.25">
       <c r="A969" s="2"/>
@@ -16702,7 +16889,7 @@
       <c r="J969" s="2"/>
       <c r="K969" s="2"/>
       <c r="L969" s="2"/>
-      <c r="M969" s="11"/>
+      <c r="M969" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="17.25">
       <c r="A970" s="2"/>
@@ -16717,7 +16904,7 @@
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
       <c r="L970" s="2"/>
-      <c r="M970" s="11"/>
+      <c r="M970" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="17.25">
       <c r="A971" s="2"/>
@@ -16732,7 +16919,7 @@
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
       <c r="L971" s="2"/>
-      <c r="M971" s="11"/>
+      <c r="M971" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="17.25">
       <c r="A972" s="2"/>
@@ -16747,7 +16934,7 @@
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
       <c r="L972" s="2"/>
-      <c r="M972" s="11"/>
+      <c r="M972" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="17.25">
       <c r="A973" s="2"/>
@@ -16762,7 +16949,7 @@
       <c r="J973" s="2"/>
       <c r="K973" s="2"/>
       <c r="L973" s="2"/>
-      <c r="M973" s="11"/>
+      <c r="M973" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="17.25">
       <c r="A974" s="2"/>
@@ -16777,7 +16964,7 @@
       <c r="J974" s="2"/>
       <c r="K974" s="2"/>
       <c r="L974" s="2"/>
-      <c r="M974" s="11"/>
+      <c r="M974" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="17.25">
       <c r="A975" s="2"/>
@@ -16792,7 +16979,7 @@
       <c r="J975" s="2"/>
       <c r="K975" s="2"/>
       <c r="L975" s="2"/>
-      <c r="M975" s="11"/>
+      <c r="M975" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="17.25">
       <c r="A976" s="2"/>
@@ -16807,7 +16994,7 @@
       <c r="J976" s="2"/>
       <c r="K976" s="2"/>
       <c r="L976" s="2"/>
-      <c r="M976" s="11"/>
+      <c r="M976" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="17.25">
       <c r="A977" s="2"/>
@@ -16822,7 +17009,7 @@
       <c r="J977" s="2"/>
       <c r="K977" s="2"/>
       <c r="L977" s="2"/>
-      <c r="M977" s="11"/>
+      <c r="M977" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="17.25">
       <c r="A978" s="2"/>
@@ -16837,7 +17024,7 @@
       <c r="J978" s="2"/>
       <c r="K978" s="2"/>
       <c r="L978" s="2"/>
-      <c r="M978" s="11"/>
+      <c r="M978" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="17.25">
       <c r="A979" s="2"/>
@@ -16852,7 +17039,7 @@
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
       <c r="L979" s="2"/>
-      <c r="M979" s="11"/>
+      <c r="M979" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="17.25">
       <c r="A980" s="2"/>
@@ -16867,7 +17054,7 @@
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
       <c r="L980" s="2"/>
-      <c r="M980" s="11"/>
+      <c r="M980" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="17.25">
       <c r="A981" s="2"/>
@@ -16882,7 +17069,7 @@
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
       <c r="L981" s="2"/>
-      <c r="M981" s="11"/>
+      <c r="M981" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="17.25">
       <c r="A982" s="2"/>
@@ -16897,7 +17084,7 @@
       <c r="J982" s="2"/>
       <c r="K982" s="2"/>
       <c r="L982" s="2"/>
-      <c r="M982" s="11"/>
+      <c r="M982" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="17.25">
       <c r="A983" s="2"/>
@@ -16912,7 +17099,7 @@
       <c r="J983" s="2"/>
       <c r="K983" s="2"/>
       <c r="L983" s="2"/>
-      <c r="M983" s="11"/>
+      <c r="M983" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="17.25">
       <c r="A984" s="2"/>
@@ -16927,7 +17114,7 @@
       <c r="J984" s="2"/>
       <c r="K984" s="2"/>
       <c r="L984" s="2"/>
-      <c r="M984" s="11"/>
+      <c r="M984" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="17.25">
       <c r="A985" s="2"/>
@@ -16942,7 +17129,7 @@
       <c r="J985" s="2"/>
       <c r="K985" s="2"/>
       <c r="L985" s="2"/>
-      <c r="M985" s="11"/>
+      <c r="M985" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="17.25">
       <c r="A986" s="2"/>
@@ -16957,7 +17144,7 @@
       <c r="J986" s="2"/>
       <c r="K986" s="2"/>
       <c r="L986" s="2"/>
-      <c r="M986" s="11"/>
+      <c r="M986" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="17.25">
       <c r="A987" s="2"/>
@@ -16972,7 +17159,7 @@
       <c r="J987" s="2"/>
       <c r="K987" s="2"/>
       <c r="L987" s="2"/>
-      <c r="M987" s="11"/>
+      <c r="M987" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="17.25">
       <c r="A988" s="2"/>
@@ -16987,7 +17174,7 @@
       <c r="J988" s="2"/>
       <c r="K988" s="2"/>
       <c r="L988" s="2"/>
-      <c r="M988" s="11"/>
+      <c r="M988" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="17.25">
       <c r="A989" s="2"/>
@@ -17002,7 +17189,7 @@
       <c r="J989" s="2"/>
       <c r="K989" s="2"/>
       <c r="L989" s="2"/>
-      <c r="M989" s="11"/>
+      <c r="M989" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="17.25">
       <c r="A990" s="2"/>
@@ -17017,7 +17204,7 @@
       <c r="J990" s="2"/>
       <c r="K990" s="2"/>
       <c r="L990" s="2"/>
-      <c r="M990" s="11"/>
+      <c r="M990" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="17.25">
       <c r="A991" s="2"/>
@@ -17032,7 +17219,7 @@
       <c r="J991" s="2"/>
       <c r="K991" s="2"/>
       <c r="L991" s="2"/>
-      <c r="M991" s="11"/>
+      <c r="M991" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="17.25">
       <c r="A992" s="2"/>
@@ -17047,7 +17234,7 @@
       <c r="J992" s="2"/>
       <c r="K992" s="2"/>
       <c r="L992" s="2"/>
-      <c r="M992" s="11"/>
+      <c r="M992" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="17.25">
       <c r="A993" s="2"/>
@@ -17062,7 +17249,7 @@
       <c r="J993" s="2"/>
       <c r="K993" s="2"/>
       <c r="L993" s="2"/>
-      <c r="M993" s="11"/>
+      <c r="M993" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="17.25">
       <c r="A994" s="2"/>
@@ -17077,7 +17264,7 @@
       <c r="J994" s="2"/>
       <c r="K994" s="2"/>
       <c r="L994" s="2"/>
-      <c r="M994" s="11"/>
+      <c r="M994" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="17.25">
       <c r="A995" s="2"/>
@@ -17092,7 +17279,7 @@
       <c r="J995" s="2"/>
       <c r="K995" s="2"/>
       <c r="L995" s="2"/>
-      <c r="M995" s="11"/>
+      <c r="M995" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="17.25">
       <c r="A996" s="2"/>
@@ -17107,7 +17294,7 @@
       <c r="J996" s="2"/>
       <c r="K996" s="2"/>
       <c r="L996" s="2"/>
-      <c r="M996" s="11"/>
+      <c r="M996" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="17.25">
       <c r="A997" s="2"/>
@@ -17122,7 +17309,7 @@
       <c r="J997" s="2"/>
       <c r="K997" s="2"/>
       <c r="L997" s="2"/>
-      <c r="M997" s="11"/>
+      <c r="M997" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="17.25">
       <c r="A998" s="2"/>
@@ -17137,7 +17324,7 @@
       <c r="J998" s="2"/>
       <c r="K998" s="2"/>
       <c r="L998" s="2"/>
-      <c r="M998" s="11"/>
+      <c r="M998" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17155,19 +17342,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -17962,7 +18149,7 @@
       <c r="C21" s="5">
         <v>45199</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="USKids"/>
-    <sheet r:id="rId2" sheetId="2" name="Duran3"/>
+    <sheet r:id="rId2" sheetId="2" name="Self"/>
+    <sheet r:id="rId3" sheetId="3" name="Duran3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="382">
   <si>
     <t>Course</t>
   </si>
@@ -128,6 +129,39 @@
     <t>2,1</t>
   </si>
   <si>
+    <t>Harbor City</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>4,265,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,248,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>3,75,2,1,3,X</t>
+  </si>
+  <si>
+    <t>5,373,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,324,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,237,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>3,70,2,2,4,X</t>
+  </si>
+  <si>
+    <t>4,341,3,3,6,X</t>
+  </si>
+  <si>
+    <t>5,376,5,1,6,Y</t>
+  </si>
+  <si>
     <t>Turtle Creek</t>
   </si>
   <si>
@@ -827,7 +861,7 @@
     <t>4,142,8,2,10,X</t>
   </si>
   <si>
-    <t>Royal St. Cloud</t>
+    <t>Royal St. Cloud White</t>
   </si>
   <si>
     <t>5,255,3,2,5,Y</t>
@@ -836,9 +870,6 @@
     <t>4,150,3,2,5,X</t>
   </si>
   <si>
-    <t>3,75,2,1,3,X</t>
-  </si>
-  <si>
     <t>4,155,3,0,3,Y</t>
   </si>
   <si>
@@ -1019,7 +1050,7 @@
     <t>4,195,2,2,4,Y</t>
   </si>
   <si>
-    <t>3,100,2,3,5,x</t>
+    <t>3,100,2,3,5,X</t>
   </si>
   <si>
     <t>4,210,3,3,6,X</t>
@@ -1035,6 +1066,102 @@
   </si>
   <si>
     <t>4,205,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,210,4,2,6,X</t>
+  </si>
+  <si>
+    <t>5,310,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>3,95,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>5,290,5,3,8,X</t>
+  </si>
+  <si>
+    <t>4,195,2,2,4,X</t>
+  </si>
+  <si>
+    <t>3,80,2,1,3,X</t>
+  </si>
+  <si>
+    <t>4,210,4,1,5,X</t>
+  </si>
+  <si>
+    <t>4,185,3,1,4,X</t>
+  </si>
+  <si>
+    <t>4,155,3,2,5,X</t>
+  </si>
+  <si>
+    <t>5,275,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>3,115,2,2,4,X</t>
+  </si>
+  <si>
+    <t>4,215,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,235,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>5,315,5,3,8,X</t>
+  </si>
+  <si>
+    <t>4,190,4,2,6,X</t>
+  </si>
+  <si>
+    <t>3,95,1,3,4,Y</t>
+  </si>
+  <si>
+    <t>5,300,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,200,2,4,6,X</t>
+  </si>
+  <si>
+    <t>4,170,4,3,7,X</t>
+  </si>
+  <si>
+    <t>3,100,3,2,5,X</t>
+  </si>
+  <si>
+    <t>4,215,4,2,6,X</t>
+  </si>
+  <si>
+    <t>3,105,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,190,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>5,315,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>Royal St Cloud Red</t>
+  </si>
+  <si>
+    <t>4,210,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>5,350,6,3,9,X</t>
+  </si>
+  <si>
+    <t>4,205,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>3,90,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>4,215,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>4,225,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>5,325,4,1,5,X</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1566,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M998"/>
+  <dimension ref="A1:M997"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1503,40 +1630,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3">
         <v>44661</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M2" s="11">
         <v>57</v>
@@ -1544,40 +1671,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3">
         <v>44677</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M3" s="11">
         <v>51</v>
@@ -1585,40 +1712,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3">
         <v>44682</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M4" s="11">
         <v>50</v>
@@ -1626,40 +1753,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3">
         <v>44696</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="M5" s="11">
         <v>52</v>
@@ -1667,40 +1794,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3">
         <v>44709</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M6" s="11">
         <v>53</v>
@@ -1708,40 +1835,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3">
         <v>44737</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M7" s="11">
         <v>52</v>
@@ -1749,40 +1876,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>44849</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M8" s="11">
         <v>45</v>
@@ -1790,40 +1917,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3">
         <v>44863</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M9" s="11">
         <v>54</v>
@@ -1831,40 +1958,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3">
         <v>44870</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M10" s="11">
         <v>46</v>
@@ -1872,40 +1999,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3">
         <v>44878</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M11" s="11">
         <v>52</v>
@@ -1913,40 +2040,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3">
         <v>44884</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" s="11">
         <v>45</v>
@@ -1954,40 +2081,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3">
         <v>44898</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M13" s="11">
         <v>45</v>
@@ -1995,40 +2122,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C14" s="3">
         <v>45017</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M14" s="11">
         <v>52</v>
@@ -2036,40 +2163,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C15" s="3">
         <v>45031</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M15" s="11">
         <v>49</v>
@@ -2077,40 +2204,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3">
         <v>45052</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M16" s="11">
         <v>38</v>
@@ -2118,40 +2245,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C17" s="3">
         <v>45053</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M17" s="11">
         <v>54</v>
@@ -2159,40 +2286,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C18" s="3">
         <v>45073</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M18" s="11">
         <v>46</v>
@@ -2200,122 +2327,122 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C19" s="3">
         <v>45081</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="M19" s="11">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3">
         <v>45087</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M20" s="11">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C21" s="3">
         <v>45088</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="M21" s="11">
         <v>47</v>
@@ -2323,40 +2450,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C22" s="3">
         <v>45116</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M22" s="10">
         <v>45</v>
@@ -2364,40 +2491,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3">
         <v>45129</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M23" s="10">
         <v>45</v>
@@ -2405,40 +2532,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3">
         <v>45165</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M24" s="10">
         <v>45</v>
@@ -2446,40 +2573,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C25" s="3">
         <v>45171</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="M25" s="10">
         <v>47</v>
@@ -2487,680 +2614,784 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C26" s="3">
         <v>45172</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M26" s="10">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C27" s="3">
         <v>45179</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="M27" s="10">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C28" s="3">
         <v>45186</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M28" s="10">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C29" s="3">
         <v>45206</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="M29" s="10">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C30" s="3">
         <v>45207</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="M30" s="10">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3">
         <v>45208</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M31" s="10">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="2" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C32" s="3">
         <v>45220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M32" s="10">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C33" s="3">
         <v>45221</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="M33" s="10">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C34" s="5">
         <v>45228</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M34" s="10">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C35" s="3">
         <v>45253</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M35" s="10">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C36" s="5">
         <v>45249</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M36" s="10">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3">
         <v>45298</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M37" s="10">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C38" s="3">
         <v>45306</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M38" s="10">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C39" s="3">
         <v>45307</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M39" s="10">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>331</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C40" s="3">
         <v>45389</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M40" s="10">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45396</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M41" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45409</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45410</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M43" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45445</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="2"/>
       <c r="B45" s="10"/>
       <c r="C45" s="3"/>
@@ -3175,7 +3406,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="2"/>
       <c r="B46" s="10"/>
       <c r="C46" s="3"/>
@@ -3190,7 +3421,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="2"/>
       <c r="B47" s="10"/>
       <c r="C47" s="3"/>
@@ -3205,7 +3436,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="2"/>
       <c r="B48" s="10"/>
       <c r="C48" s="3"/>
@@ -3220,7 +3451,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="2"/>
       <c r="B49" s="10"/>
       <c r="C49" s="3"/>
@@ -3235,7 +3466,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="2"/>
       <c r="B50" s="10"/>
       <c r="C50" s="3"/>
@@ -3250,7 +3481,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="2"/>
       <c r="B51" s="10"/>
       <c r="C51" s="3"/>
@@ -3265,7 +3496,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="2"/>
       <c r="B52" s="10"/>
       <c r="C52" s="3"/>
@@ -3280,7 +3511,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="2"/>
       <c r="B53" s="10"/>
       <c r="C53" s="3"/>
@@ -3295,7 +3526,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="2"/>
       <c r="B54" s="10"/>
       <c r="C54" s="3"/>
@@ -3310,7 +3541,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="2"/>
       <c r="B55" s="10"/>
       <c r="C55" s="3"/>
@@ -17455,27 +17686,4524 @@
       <c r="L997" s="2"/>
       <c r="M997" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="17.25">
-      <c r="A998" s="2"/>
-      <c r="B998" s="10"/>
-      <c r="C998" s="3"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:T201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45438</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="10">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="2"/>
+      <c r="T157" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="396">
   <si>
     <t>Course</t>
   </si>
@@ -1162,6 +1162,48 @@
   </si>
   <si>
     <t>5,325,4,1,5,X</t>
+  </si>
+  <si>
+    <t>Hammock Creek</t>
+  </si>
+  <si>
+    <t>4,210,3,2,5,X</t>
+  </si>
+  <si>
+    <t>4,215,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>3,90,2,1,3,X</t>
+  </si>
+  <si>
+    <t>5,310,5,2,7,X</t>
+  </si>
+  <si>
+    <t>4,200,2,2,4,X</t>
+  </si>
+  <si>
+    <t>5,350,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,225,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,215,4,3,7,Y</t>
+  </si>
+  <si>
+    <t>3,90,1,1,2,Y</t>
+  </si>
+  <si>
+    <t>3,80,3,2,5,X</t>
+  </si>
+  <si>
+    <t>5,350,6,1,7,Y</t>
+  </si>
+  <si>
+    <t>4,200,3,3,6,X</t>
+  </si>
+  <si>
+    <t>5,350,3,3,6,Y</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1248,6 +1290,18 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1573,7 +1627,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
@@ -1584,7 +1638,7 @@
     <col min="10" max="10" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1665,7 +1719,7 @@
       <c r="L2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="15">
         <v>57</v>
       </c>
     </row>
@@ -1706,7 +1760,7 @@
       <c r="L3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="15">
         <v>51</v>
       </c>
     </row>
@@ -1747,7 +1801,7 @@
       <c r="L4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="15">
         <v>50</v>
       </c>
     </row>
@@ -1788,7 +1842,7 @@
       <c r="L5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="15">
         <v>52</v>
       </c>
     </row>
@@ -1829,7 +1883,7 @@
       <c r="L6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="15">
         <v>53</v>
       </c>
     </row>
@@ -1870,7 +1924,7 @@
       <c r="L7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="15">
         <v>52</v>
       </c>
     </row>
@@ -1911,7 +1965,7 @@
       <c r="L8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="15">
         <v>45</v>
       </c>
     </row>
@@ -1952,7 +2006,7 @@
       <c r="L9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1969,7 +2023,7 @@
       <c r="D10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1993,7 +2047,7 @@
       <c r="L10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="15">
         <v>46</v>
       </c>
     </row>
@@ -2034,7 +2088,7 @@
       <c r="L11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="15">
         <v>52</v>
       </c>
     </row>
@@ -2075,7 +2129,7 @@
       <c r="L12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="15">
         <v>45</v>
       </c>
     </row>
@@ -2116,7 +2170,7 @@
       <c r="L13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="15">
         <v>45</v>
       </c>
     </row>
@@ -2157,7 +2211,7 @@
       <c r="L14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="15">
         <v>52</v>
       </c>
     </row>
@@ -2198,7 +2252,7 @@
       <c r="L15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="15">
         <v>49</v>
       </c>
     </row>
@@ -2239,7 +2293,7 @@
       <c r="L16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="15">
         <v>38</v>
       </c>
     </row>
@@ -2280,7 +2334,7 @@
       <c r="L17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="15">
         <v>54</v>
       </c>
     </row>
@@ -2321,7 +2375,7 @@
       <c r="L18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="15">
         <v>46</v>
       </c>
     </row>
@@ -2362,7 +2416,7 @@
       <c r="L19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="15">
         <v>46</v>
       </c>
     </row>
@@ -2403,7 +2457,7 @@
       <c r="L20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="15">
         <v>41</v>
       </c>
     </row>
@@ -2444,7 +2498,7 @@
       <c r="L21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="15">
         <v>47</v>
       </c>
     </row>
@@ -2458,31 +2512,31 @@
       <c r="C22" s="3">
         <v>45116</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="17" t="s">
         <v>202</v>
       </c>
       <c r="M22" s="10">
@@ -2499,31 +2553,31 @@
       <c r="C23" s="3">
         <v>45129</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="17" t="s">
         <v>214</v>
       </c>
       <c r="M23" s="10">
@@ -2540,31 +2594,31 @@
       <c r="C24" s="3">
         <v>45165</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="17" t="s">
         <v>214</v>
       </c>
       <c r="M24" s="10">
@@ -2581,38 +2635,38 @@
       <c r="C25" s="3">
         <v>45171</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="17" t="s">
         <v>231</v>
       </c>
       <c r="M25" s="10">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
         <v>222</v>
       </c>
@@ -2622,38 +2676,38 @@
       <c r="C26" s="3">
         <v>45172</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="17" t="s">
         <v>239</v>
       </c>
       <c r="M26" s="10">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2" t="s">
         <v>190</v>
       </c>
@@ -2694,7 +2748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2" t="s">
         <v>198</v>
       </c>
@@ -2704,28 +2758,28 @@
       <c r="C28" s="3">
         <v>45186</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="17" t="s">
         <v>249</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="17" t="s">
         <v>254</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="17" t="s">
         <v>256</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -2735,7 +2789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2" t="s">
         <v>258</v>
       </c>
@@ -2776,7 +2830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2" t="s">
         <v>258</v>
       </c>
@@ -2817,7 +2871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2" t="s">
         <v>258</v>
       </c>
@@ -2858,7 +2912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2" t="s">
         <v>281</v>
       </c>
@@ -2899,7 +2953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -2940,7 +2994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2" t="s">
         <v>174</v>
       </c>
@@ -2981,7 +3035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
@@ -3022,7 +3076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
@@ -3063,7 +3117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="2" t="s">
         <v>69</v>
       </c>
@@ -3104,7 +3158,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="2" t="s">
         <v>325</v>
       </c>
@@ -3145,7 +3199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="2" t="s">
         <v>325</v>
       </c>
@@ -3186,7 +3240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -3227,7 +3281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -3268,7 +3322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -3309,7 +3363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -3350,11 +3404,11 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C44" s="3">
@@ -3391,37 +3445,89 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="2"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="2"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
+      <c r="A45" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45451</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M45" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
+      <c r="A46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45452</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
       <c r="A47" s="2"/>
       <c r="B47" s="10"/>
       <c r="C47" s="3"/>
@@ -3436,7 +3542,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
       <c r="A48" s="2"/>
       <c r="B48" s="10"/>
       <c r="C48" s="3"/>
@@ -3451,7 +3557,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="2"/>
       <c r="B49" s="10"/>
       <c r="C49" s="3"/>
@@ -3466,7 +3572,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="2"/>
       <c r="B50" s="10"/>
       <c r="C50" s="3"/>
@@ -3481,7 +3587,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
       <c r="A51" s="2"/>
       <c r="B51" s="10"/>
       <c r="C51" s="3"/>
@@ -3496,7 +3602,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
       <c r="A52" s="2"/>
       <c r="B52" s="10"/>
       <c r="C52" s="3"/>
@@ -3511,7 +3617,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
       <c r="A53" s="2"/>
       <c r="B53" s="10"/>
       <c r="C53" s="3"/>
@@ -3526,7 +3632,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
       <c r="A54" s="2"/>
       <c r="B54" s="10"/>
       <c r="C54" s="3"/>
@@ -3541,7 +3647,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
       <c r="A55" s="2"/>
       <c r="B55" s="10"/>
       <c r="C55" s="3"/>
@@ -3556,7 +3662,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
       <c r="A56" s="2"/>
       <c r="B56" s="10"/>
       <c r="C56" s="3"/>
@@ -17704,7 +17810,7 @@
   <cols>
     <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -17714,7 +17820,7 @@
     <col min="10" max="10" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -17823,7 +17929,7 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -17833,7 +17939,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -17845,7 +17951,7 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -17855,7 +17961,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -17867,7 +17973,7 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -17877,7 +17983,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -17889,7 +17995,7 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -17899,7 +18005,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -17911,7 +18017,7 @@
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -17921,7 +18027,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -17933,7 +18039,7 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -17943,7 +18049,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -17955,7 +18061,7 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -17965,7 +18071,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -17977,7 +18083,7 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -17987,7 +18093,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -17999,7 +18105,7 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -18009,7 +18115,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -18021,7 +18127,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -18031,7 +18137,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -18043,7 +18149,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -18053,7 +18159,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -18065,7 +18171,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -18075,7 +18181,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -18087,7 +18193,7 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -18097,7 +18203,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -18109,7 +18215,7 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -18119,7 +18225,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -18131,7 +18237,7 @@
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -18141,7 +18247,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -18153,7 +18259,7 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -18163,7 +18269,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -18175,7 +18281,7 @@
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -18185,7 +18291,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -18197,7 +18303,7 @@
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -18207,7 +18313,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="12"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -18219,7 +18325,7 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -18229,7 +18335,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -18241,7 +18347,7 @@
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -18251,7 +18357,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -18263,7 +18369,7 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -18273,7 +18379,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -18285,7 +18391,7 @@
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -18295,7 +18401,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -18307,7 +18413,7 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -18317,7 +18423,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -18329,7 +18435,7 @@
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -18339,7 +18445,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -18351,7 +18457,7 @@
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -18361,7 +18467,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -18373,7 +18479,7 @@
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -18383,7 +18489,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="12"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -18395,7 +18501,7 @@
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -18405,7 +18511,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -18417,7 +18523,7 @@
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -18427,7 +18533,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -18439,7 +18545,7 @@
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -18449,7 +18555,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="12"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -18461,7 +18567,7 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -18471,7 +18577,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -18483,7 +18589,7 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -18493,7 +18599,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="M33" s="12"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -18505,7 +18611,7 @@
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -18515,7 +18621,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -18527,7 +18633,7 @@
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -18537,7 +18643,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -18549,7 +18655,7 @@
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -18559,7 +18665,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="12"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -18571,7 +18677,7 @@
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -18581,7 +18687,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -18593,7 +18699,7 @@
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -18603,7 +18709,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="M38" s="12"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -18615,7 +18721,7 @@
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -18625,7 +18731,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="12"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -18637,7 +18743,7 @@
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -18647,7 +18753,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="12"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -18659,7 +18765,7 @@
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -18669,7 +18775,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -18681,7 +18787,7 @@
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -18691,7 +18797,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="M42" s="12"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -18703,7 +18809,7 @@
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -18713,7 +18819,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="M43" s="12"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -18725,7 +18831,7 @@
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -18735,7 +18841,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="M44" s="12"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -18747,7 +18853,7 @@
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -18757,7 +18863,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -18769,7 +18875,7 @@
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -18779,7 +18885,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="M46" s="12"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -18791,7 +18897,7 @@
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -18801,7 +18907,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+      <c r="M47" s="12"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -18813,7 +18919,7 @@
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -18823,7 +18929,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="M48" s="12"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -18835,7 +18941,7 @@
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -18845,7 +18951,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="M49" s="12"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -18857,7 +18963,7 @@
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -18867,7 +18973,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="M50" s="12"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -18879,7 +18985,7 @@
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -18889,7 +18995,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="M51" s="12"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -18901,7 +19007,7 @@
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -18911,7 +19017,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="M52" s="12"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -18923,7 +19029,7 @@
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -18933,7 +19039,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="M53" s="12"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -18945,7 +19051,7 @@
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -18955,7 +19061,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="M54" s="12"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -18967,7 +19073,7 @@
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -18977,7 +19083,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="M55" s="12"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -18989,7 +19095,7 @@
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -18999,7 +19105,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="M56" s="12"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -19011,7 +19117,7 @@
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -19021,7 +19127,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
+      <c r="M57" s="12"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -19033,7 +19139,7 @@
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -19043,7 +19149,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="M58" s="12"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -19055,7 +19161,7 @@
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -19065,7 +19171,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="M59" s="12"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -19077,7 +19183,7 @@
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -19087,7 +19193,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="M60" s="12"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -19099,7 +19205,7 @@
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -19109,7 +19215,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="M61" s="12"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -19121,7 +19227,7 @@
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -19131,7 +19237,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="M62" s="12"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -19143,7 +19249,7 @@
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -19153,7 +19259,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+      <c r="M63" s="12"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -19165,7 +19271,7 @@
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -19175,7 +19281,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
+      <c r="M64" s="12"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -19187,7 +19293,7 @@
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -19197,7 +19303,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+      <c r="M65" s="12"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -19209,7 +19315,7 @@
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -19219,7 +19325,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
+      <c r="M66" s="12"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -19231,7 +19337,7 @@
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -19241,7 +19347,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="M67" s="12"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -19253,7 +19359,7 @@
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -19263,7 +19369,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="M68" s="12"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -19275,7 +19381,7 @@
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -19285,7 +19391,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="M69" s="12"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -19297,7 +19403,7 @@
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -19307,7 +19413,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+      <c r="M70" s="12"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -19319,7 +19425,7 @@
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -19329,7 +19435,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="M71" s="12"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -19341,7 +19447,7 @@
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -19351,7 +19457,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="M72" s="12"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -19363,7 +19469,7 @@
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -19373,7 +19479,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="M73" s="12"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -19385,7 +19491,7 @@
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -19395,7 +19501,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="M74" s="12"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -19407,7 +19513,7 @@
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -19417,7 +19523,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="M75" s="12"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -19429,7 +19535,7 @@
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="11"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -19439,7 +19545,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="M76" s="12"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -19451,7 +19557,7 @@
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -19461,7 +19567,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="M77" s="12"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -19473,7 +19579,7 @@
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -19483,7 +19589,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
+      <c r="M78" s="12"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -19495,7 +19601,7 @@
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -19505,7 +19611,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
+      <c r="M79" s="12"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -19517,7 +19623,7 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -19527,7 +19633,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="M80" s="12"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -19539,7 +19645,7 @@
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -19549,7 +19655,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="M81" s="12"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -19561,7 +19667,7 @@
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -19571,7 +19677,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
+      <c r="M82" s="12"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -19583,7 +19689,7 @@
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -19593,7 +19699,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="M83" s="12"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -19605,7 +19711,7 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -19615,7 +19721,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="M84" s="12"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -19627,7 +19733,7 @@
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -19637,7 +19743,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
+      <c r="M85" s="12"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -19649,7 +19755,7 @@
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -19659,7 +19765,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
+      <c r="M86" s="12"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -19671,7 +19777,7 @@
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -19681,7 +19787,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
+      <c r="M87" s="12"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -19693,7 +19799,7 @@
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -19703,7 +19809,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
+      <c r="M88" s="12"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -19715,7 +19821,7 @@
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -19725,7 +19831,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
+      <c r="M89" s="12"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -19737,7 +19843,7 @@
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -19747,7 +19853,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="M90" s="12"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -19759,7 +19865,7 @@
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -19769,7 +19875,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
+      <c r="M91" s="12"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -19781,7 +19887,7 @@
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -19791,7 +19897,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="M92" s="12"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -19803,7 +19909,7 @@
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -19813,7 +19919,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="M93" s="12"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -19825,7 +19931,7 @@
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -19835,7 +19941,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
+      <c r="M94" s="12"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -19847,7 +19953,7 @@
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -19857,7 +19963,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="M95" s="12"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -19869,7 +19975,7 @@
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -19879,7 +19985,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="M96" s="12"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -19891,7 +19997,7 @@
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -19901,7 +20007,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
+      <c r="M97" s="12"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -19913,7 +20019,7 @@
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -19923,7 +20029,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
+      <c r="M98" s="12"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -19935,7 +20041,7 @@
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -19945,7 +20051,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="M99" s="12"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -19957,7 +20063,7 @@
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -19967,7 +20073,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
+      <c r="M100" s="12"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -19979,7 +20085,7 @@
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -19989,7 +20095,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="M101" s="12"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -20001,7 +20107,7 @@
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -20011,7 +20117,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
+      <c r="M102" s="12"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -20023,7 +20129,7 @@
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -20033,7 +20139,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="M103" s="12"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -20045,7 +20151,7 @@
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="C104" s="11"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -20055,7 +20161,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
+      <c r="M104" s="12"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -20067,7 +20173,7 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="C105" s="11"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -20077,7 +20183,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
+      <c r="M105" s="12"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -20089,7 +20195,7 @@
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="C106" s="11"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -20099,7 +20205,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
+      <c r="M106" s="12"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -20111,7 +20217,7 @@
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -20121,7 +20227,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="M107" s="12"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -20133,7 +20239,7 @@
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -20143,7 +20249,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
+      <c r="M108" s="12"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -20155,7 +20261,7 @@
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -20165,7 +20271,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
+      <c r="M109" s="12"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -20177,7 +20283,7 @@
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -20187,7 +20293,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
+      <c r="M110" s="12"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -20199,7 +20305,7 @@
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -20209,7 +20315,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="M111" s="12"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -20221,7 +20327,7 @@
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -20231,7 +20337,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
+      <c r="M112" s="12"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -20243,7 +20349,7 @@
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -20253,7 +20359,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
+      <c r="M113" s="12"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -20265,7 +20371,7 @@
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -20275,7 +20381,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
+      <c r="M114" s="12"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -20287,7 +20393,7 @@
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -20297,7 +20403,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
+      <c r="M115" s="12"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -20309,7 +20415,7 @@
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -20319,7 +20425,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
+      <c r="M116" s="12"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -20331,7 +20437,7 @@
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -20341,7 +20447,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
+      <c r="M117" s="12"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -20353,7 +20459,7 @@
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="11"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -20363,7 +20469,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
+      <c r="M118" s="12"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -20375,7 +20481,7 @@
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="C119" s="11"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -20385,7 +20491,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
+      <c r="M119" s="12"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -20397,7 +20503,7 @@
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="C120" s="11"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -20407,7 +20513,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
+      <c r="M120" s="12"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -20419,7 +20525,7 @@
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="C121" s="11"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -20429,7 +20535,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
+      <c r="M121" s="12"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -20441,7 +20547,7 @@
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="C122" s="11"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -20451,7 +20557,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
+      <c r="M122" s="12"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -20463,7 +20569,7 @@
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="C123" s="11"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -20473,7 +20579,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
+      <c r="M123" s="12"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -20485,7 +20591,7 @@
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="C124" s="11"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -20495,7 +20601,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
+      <c r="M124" s="12"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -20507,7 +20613,7 @@
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="C125" s="11"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -20517,7 +20623,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
+      <c r="M125" s="12"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -20529,7 +20635,7 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="C126" s="11"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -20539,7 +20645,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
+      <c r="M126" s="12"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -20551,7 +20657,7 @@
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="C127" s="11"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -20561,7 +20667,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
+      <c r="M127" s="12"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -20573,7 +20679,7 @@
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="C128" s="11"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -20583,7 +20689,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
+      <c r="M128" s="12"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -20595,7 +20701,7 @@
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="C129" s="11"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -20605,7 +20711,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
+      <c r="M129" s="12"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -20617,7 +20723,7 @@
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="C130" s="11"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -20627,7 +20733,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
+      <c r="M130" s="12"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
@@ -20639,7 +20745,7 @@
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="C131" s="11"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -20649,7 +20755,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
+      <c r="M131" s="12"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -20661,7 +20767,7 @@
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="C132" s="11"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -20671,7 +20777,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
+      <c r="M132" s="12"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -20683,7 +20789,7 @@
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="C133" s="11"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -20693,7 +20799,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
+      <c r="M133" s="12"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -20705,7 +20811,7 @@
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="C134" s="11"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -20715,7 +20821,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
+      <c r="M134" s="12"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -20727,7 +20833,7 @@
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="C135" s="11"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -20737,7 +20843,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
+      <c r="M135" s="12"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -20749,7 +20855,7 @@
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -20759,7 +20865,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
+      <c r="M136" s="12"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -20771,7 +20877,7 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -20781,7 +20887,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
+      <c r="M137" s="12"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -20793,7 +20899,7 @@
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -20803,7 +20909,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
+      <c r="M138" s="12"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -20815,7 +20921,7 @@
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="C139" s="11"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -20825,7 +20931,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
+      <c r="M139" s="12"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -20837,7 +20943,7 @@
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="11"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -20847,7 +20953,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
+      <c r="M140" s="12"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -20859,7 +20965,7 @@
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -20869,7 +20975,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
+      <c r="M141" s="12"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -20881,7 +20987,7 @@
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="C142" s="11"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -20891,7 +20997,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
+      <c r="M142" s="12"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -20903,7 +21009,7 @@
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -20913,7 +21019,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
+      <c r="M143" s="12"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -20925,7 +21031,7 @@
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="C144" s="11"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -20935,7 +21041,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
+      <c r="M144" s="12"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -20947,7 +21053,7 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="C145" s="11"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -20957,7 +21063,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
+      <c r="M145" s="12"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -20969,7 +21075,7 @@
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="C146" s="11"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -20979,7 +21085,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
+      <c r="M146" s="12"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -20991,7 +21097,7 @@
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -21001,7 +21107,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
+      <c r="M147" s="12"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -21013,7 +21119,7 @@
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="C148" s="11"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -21023,7 +21129,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
+      <c r="M148" s="12"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -21035,7 +21141,7 @@
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="11"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -21045,7 +21151,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
+      <c r="M149" s="12"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -21057,7 +21163,7 @@
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="C150" s="11"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -21067,7 +21173,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
+      <c r="M150" s="12"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -21079,7 +21185,7 @@
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="C151" s="11"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -21089,7 +21195,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
+      <c r="M151" s="12"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -21101,7 +21207,7 @@
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="C152" s="11"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -21111,7 +21217,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
+      <c r="M152" s="12"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -21123,7 +21229,7 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="C153" s="11"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -21133,7 +21239,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
+      <c r="M153" s="12"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -21145,7 +21251,7 @@
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="C154" s="11"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -21155,7 +21261,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
+      <c r="M154" s="12"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -21167,7 +21273,7 @@
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="C155" s="11"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -21177,7 +21283,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
+      <c r="M155" s="12"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -21189,7 +21295,7 @@
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="C156" s="11"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -21199,7 +21305,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
+      <c r="M156" s="12"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -21211,7 +21317,7 @@
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="C157" s="11"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -21221,7 +21327,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
+      <c r="M157" s="12"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21233,7 +21339,7 @@
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="C158" s="11"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -21243,7 +21349,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
+      <c r="M158" s="12"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21255,7 +21361,7 @@
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="C159" s="11"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -21265,7 +21371,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
+      <c r="M159" s="12"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21277,7 +21383,7 @@
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="C160" s="11"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -21287,7 +21393,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
+      <c r="M160" s="12"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21299,7 +21405,7 @@
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="C161" s="11"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -21309,7 +21415,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
+      <c r="M161" s="12"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21321,7 +21427,7 @@
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="C162" s="11"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -21331,7 +21437,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
+      <c r="M162" s="12"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21343,7 +21449,7 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="C163" s="11"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -21353,7 +21459,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
+      <c r="M163" s="12"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -21365,7 +21471,7 @@
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="C164" s="11"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -21375,7 +21481,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
+      <c r="M164" s="12"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -21387,7 +21493,7 @@
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="C165" s="11"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -21397,7 +21503,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
+      <c r="M165" s="12"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -21409,7 +21515,7 @@
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="C166" s="11"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -21419,7 +21525,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
+      <c r="M166" s="12"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -21431,7 +21537,7 @@
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="C167" s="11"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -21441,7 +21547,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
+      <c r="M167" s="12"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -21453,7 +21559,7 @@
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="C168" s="11"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -21463,7 +21569,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
+      <c r="M168" s="12"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -21475,7 +21581,7 @@
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="C169" s="11"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -21485,7 +21591,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
+      <c r="M169" s="12"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -21497,7 +21603,7 @@
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="C170" s="11"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -21507,7 +21613,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
+      <c r="M170" s="12"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -21519,7 +21625,7 @@
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="C171" s="11"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -21529,7 +21635,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
+      <c r="M171" s="12"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -21541,7 +21647,7 @@
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="C172" s="11"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -21551,7 +21657,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
+      <c r="M172" s="12"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -21563,7 +21669,7 @@
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="C173" s="11"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -21573,7 +21679,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
+      <c r="M173" s="12"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -21585,7 +21691,7 @@
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="C174" s="11"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -21595,7 +21701,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
+      <c r="M174" s="12"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -21607,7 +21713,7 @@
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="C175" s="11"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -21617,7 +21723,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
+      <c r="M175" s="12"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -21629,7 +21735,7 @@
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="C176" s="11"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -21639,7 +21745,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
+      <c r="M176" s="12"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -21651,7 +21757,7 @@
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="C177" s="11"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -21661,7 +21767,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
+      <c r="M177" s="12"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -21673,7 +21779,7 @@
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="C178" s="11"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -21683,7 +21789,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
+      <c r="M178" s="12"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -21695,7 +21801,7 @@
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="C179" s="11"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -21705,7 +21811,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
+      <c r="M179" s="12"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -21717,7 +21823,7 @@
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="C180" s="11"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -21727,7 +21833,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
+      <c r="M180" s="12"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -21739,7 +21845,7 @@
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="C181" s="11"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -21749,7 +21855,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
+      <c r="M181" s="12"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
@@ -21761,7 +21867,7 @@
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="C182" s="11"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -21771,7 +21877,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
+      <c r="M182" s="12"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -21783,7 +21889,7 @@
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="C183" s="11"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -21793,7 +21899,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
+      <c r="M183" s="12"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
@@ -21805,7 +21911,7 @@
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="C184" s="11"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -21815,7 +21921,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
+      <c r="M184" s="12"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
@@ -21827,7 +21933,7 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="C185" s="11"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -21837,7 +21943,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
+      <c r="M185" s="12"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
@@ -21849,7 +21955,7 @@
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="C186" s="11"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -21859,7 +21965,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
+      <c r="M186" s="12"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -21871,7 +21977,7 @@
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="C187" s="11"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -21881,7 +21987,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
+      <c r="M187" s="12"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -21893,7 +21999,7 @@
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="C188" s="11"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -21903,7 +22009,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
+      <c r="M188" s="12"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -21915,7 +22021,7 @@
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="C189" s="11"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -21925,7 +22031,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
+      <c r="M189" s="12"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
@@ -21937,7 +22043,7 @@
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="C190" s="11"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -21947,7 +22053,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
+      <c r="M190" s="12"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -21959,7 +22065,7 @@
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="C191" s="11"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -21969,7 +22075,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
+      <c r="M191" s="12"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
@@ -21981,7 +22087,7 @@
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="C192" s="11"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -21991,7 +22097,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
+      <c r="M192" s="12"/>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
@@ -22003,7 +22109,7 @@
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="C193" s="11"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -22013,7 +22119,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
+      <c r="M193" s="12"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
@@ -22025,7 +22131,7 @@
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="C194" s="11"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -22035,7 +22141,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
+      <c r="M194" s="12"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -22047,7 +22153,7 @@
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="C195" s="11"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -22057,7 +22163,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
+      <c r="M195" s="12"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
@@ -22069,7 +22175,7 @@
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="C196" s="11"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -22079,7 +22185,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
+      <c r="M196" s="12"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
@@ -22091,7 +22197,7 @@
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="C197" s="11"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -22101,7 +22207,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
+      <c r="M197" s="12"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
@@ -22113,7 +22219,7 @@
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="C198" s="11"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -22123,7 +22229,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
+      <c r="M198" s="12"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
@@ -22135,7 +22241,7 @@
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="C199" s="11"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -22145,7 +22251,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
+      <c r="M199" s="12"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -22157,7 +22263,7 @@
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
+      <c r="C200" s="11"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -22167,7 +22273,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
+      <c r="M200" s="12"/>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
@@ -22179,7 +22285,7 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="C201" s="11"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -22189,7 +22295,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
+      <c r="M201" s="12"/>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="411">
   <si>
     <t>Course</t>
   </si>
@@ -1204,6 +1204,51 @@
   </si>
   <si>
     <t>5,350,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>Stoneybrook West</t>
+  </si>
+  <si>
+    <t>4,220,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>5,330,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>3,107,2,3,5,X</t>
+  </si>
+  <si>
+    <t>5,370,4,3,7,Y</t>
+  </si>
+  <si>
+    <t>4,204,5,2,7,X</t>
+  </si>
+  <si>
+    <t>3,100,2,4,6,X</t>
+  </si>
+  <si>
+    <t>4,210,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>Rio Pinar</t>
+  </si>
+  <si>
+    <t>5,320,5,2,7,X</t>
+  </si>
+  <si>
+    <t>3,100,1,1,2,Y</t>
+  </si>
+  <si>
+    <t>4,220,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>4,230,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>5,330,5,2,7,Y</t>
+  </si>
+  <si>
+    <t>4,210,2,1,3,Y</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1291,17 +1336,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1313,9 +1349,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1627,7 +1660,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
@@ -1638,7 +1671,7 @@
     <col min="10" max="10" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1719,7 +1752,7 @@
       <c r="L2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="12">
         <v>57</v>
       </c>
     </row>
@@ -1760,7 +1793,7 @@
       <c r="L3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="12">
         <v>51</v>
       </c>
     </row>
@@ -1801,7 +1834,7 @@
       <c r="L4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="12">
         <v>50</v>
       </c>
     </row>
@@ -1842,7 +1875,7 @@
       <c r="L5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="12">
         <v>52</v>
       </c>
     </row>
@@ -1883,7 +1916,7 @@
       <c r="L6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="12">
         <v>53</v>
       </c>
     </row>
@@ -1924,7 +1957,7 @@
       <c r="L7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="12">
         <v>52</v>
       </c>
     </row>
@@ -1965,7 +1998,7 @@
       <c r="L8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="12">
         <v>45</v>
       </c>
     </row>
@@ -2006,7 +2039,7 @@
       <c r="L9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="12">
         <v>54</v>
       </c>
     </row>
@@ -2023,7 +2056,7 @@
       <c r="D10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2047,7 +2080,7 @@
       <c r="L10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="12">
         <v>46</v>
       </c>
     </row>
@@ -2088,7 +2121,7 @@
       <c r="L11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="12">
         <v>52</v>
       </c>
     </row>
@@ -2129,7 +2162,7 @@
       <c r="L12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="12">
         <v>45</v>
       </c>
     </row>
@@ -2170,7 +2203,7 @@
       <c r="L13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="12">
         <v>45</v>
       </c>
     </row>
@@ -2211,7 +2244,7 @@
       <c r="L14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="12">
         <v>52</v>
       </c>
     </row>
@@ -2252,7 +2285,7 @@
       <c r="L15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="12">
         <v>49</v>
       </c>
     </row>
@@ -2293,7 +2326,7 @@
       <c r="L16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="12">
         <v>38</v>
       </c>
     </row>
@@ -2334,7 +2367,7 @@
       <c r="L17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="12">
         <v>54</v>
       </c>
     </row>
@@ -2375,7 +2408,7 @@
       <c r="L18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="12">
         <v>46</v>
       </c>
     </row>
@@ -2416,7 +2449,7 @@
       <c r="L19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="12">
         <v>46</v>
       </c>
     </row>
@@ -2457,7 +2490,7 @@
       <c r="L20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="12">
         <v>41</v>
       </c>
     </row>
@@ -2498,11 +2531,11 @@
       <c r="L21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="12">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
         <v>198</v>
       </c>
@@ -2512,38 +2545,38 @@
       <c r="C22" s="3">
         <v>45116</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="14" t="s">
         <v>202</v>
       </c>
       <c r="M22" s="10">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="1" t="s">
         <v>174</v>
       </c>
@@ -2553,38 +2586,38 @@
       <c r="C23" s="3">
         <v>45129</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="14" t="s">
         <v>214</v>
       </c>
       <c r="M23" s="10">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
@@ -2594,38 +2627,38 @@
       <c r="C24" s="3">
         <v>45165</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="14" t="s">
         <v>214</v>
       </c>
       <c r="M24" s="10">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
         <v>222</v>
       </c>
@@ -2635,31 +2668,31 @@
       <c r="C25" s="3">
         <v>45171</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M25" s="10">
@@ -2676,31 +2709,31 @@
       <c r="C26" s="3">
         <v>45172</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="14" t="s">
         <v>239</v>
       </c>
       <c r="M26" s="10">
@@ -2758,28 +2791,28 @@
       <c r="C28" s="3">
         <v>45186</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>249</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="14" t="s">
         <v>254</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="14" t="s">
         <v>256</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -3449,7 +3482,7 @@
       <c r="A45" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C45" s="3">
@@ -3490,7 +3523,7 @@
       <c r="A46" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C46" s="3">
@@ -3528,34 +3561,86 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="10"/>
+      <c r="A47" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45466</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="10"/>
+      <c r="A48" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45472</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" s="10">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="2"/>
@@ -3677,7 +3762,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
       <c r="A57" s="2"/>
       <c r="B57" s="10"/>
       <c r="C57" s="3"/>
@@ -3692,7 +3777,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
       <c r="A58" s="2"/>
       <c r="B58" s="10"/>
       <c r="C58" s="3"/>
@@ -3707,7 +3792,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.25">
       <c r="A59" s="2"/>
       <c r="B59" s="10"/>
       <c r="C59" s="3"/>
@@ -3722,7 +3807,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.25">
       <c r="A60" s="2"/>
       <c r="B60" s="10"/>
       <c r="C60" s="3"/>
@@ -3737,7 +3822,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
       <c r="A61" s="2"/>
       <c r="B61" s="10"/>
       <c r="C61" s="3"/>
@@ -3752,7 +3837,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
       <c r="A62" s="2"/>
       <c r="B62" s="10"/>
       <c r="C62" s="3"/>
@@ -3767,7 +3852,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25">
       <c r="A63" s="2"/>
       <c r="B63" s="10"/>
       <c r="C63" s="3"/>
@@ -3782,7 +3867,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25">
       <c r="A64" s="2"/>
       <c r="B64" s="10"/>
       <c r="C64" s="3"/>
@@ -3797,7 +3882,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="20.25">
       <c r="A65" s="2"/>
       <c r="B65" s="10"/>
       <c r="C65" s="3"/>
@@ -3812,7 +3897,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="20.25">
       <c r="A66" s="2"/>
       <c r="B66" s="10"/>
       <c r="C66" s="3"/>
@@ -3827,7 +3912,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="20.25">
       <c r="A67" s="2"/>
       <c r="B67" s="10"/>
       <c r="C67" s="3"/>
@@ -3842,7 +3927,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="20.25">
       <c r="A68" s="2"/>
       <c r="B68" s="10"/>
       <c r="C68" s="3"/>
@@ -3857,7 +3942,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="20.25">
       <c r="A69" s="2"/>
       <c r="B69" s="10"/>
       <c r="C69" s="3"/>
@@ -3872,7 +3957,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="20.25">
       <c r="A70" s="2"/>
       <c r="B70" s="10"/>
       <c r="C70" s="3"/>
@@ -3887,7 +3972,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="20.25">
       <c r="A71" s="2"/>
       <c r="B71" s="10"/>
       <c r="C71" s="3"/>
@@ -3902,7 +3987,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="20.25">
       <c r="A72" s="2"/>
       <c r="B72" s="10"/>
       <c r="C72" s="3"/>
@@ -3917,7 +4002,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="20.25">
       <c r="A73" s="2"/>
       <c r="B73" s="10"/>
       <c r="C73" s="3"/>
@@ -17810,7 +17895,7 @@
   <cols>
     <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -17820,7 +17905,7 @@
     <col min="10" max="10" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -17929,7 +18014,7 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -17939,7 +18024,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="12"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -17951,7 +18036,7 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -17961,7 +18046,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="12"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -17973,7 +18058,7 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -17983,7 +18068,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="12"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -17995,7 +18080,7 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -18005,7 +18090,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -18017,7 +18102,7 @@
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -18027,7 +18112,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="12"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -18039,7 +18124,7 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -18049,7 +18134,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -18061,7 +18146,7 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -18071,7 +18156,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="12"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -18083,7 +18168,7 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -18093,7 +18178,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -18105,7 +18190,7 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -18115,7 +18200,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="12"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -18127,7 +18212,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -18137,7 +18222,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="12"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -18149,7 +18234,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -18159,7 +18244,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -18171,7 +18256,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -18181,7 +18266,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="12"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -18193,7 +18278,7 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -18203,7 +18288,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="12"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -18215,7 +18300,7 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -18225,7 +18310,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -18237,7 +18322,7 @@
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -18247,7 +18332,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="12"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -18259,7 +18344,7 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -18269,7 +18354,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="12"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -18281,7 +18366,7 @@
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -18291,7 +18376,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -18303,7 +18388,7 @@
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -18313,7 +18398,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="12"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -18325,7 +18410,7 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -18335,7 +18420,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="12"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -18347,7 +18432,7 @@
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -18357,7 +18442,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="12"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -18369,7 +18454,7 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -18379,7 +18464,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -18391,7 +18476,7 @@
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -18401,7 +18486,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="12"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -18413,7 +18498,7 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -18423,7 +18508,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="12"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -18435,7 +18520,7 @@
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -18445,7 +18530,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="12"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -18457,7 +18542,7 @@
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -18467,7 +18552,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="12"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -18479,7 +18564,7 @@
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -18489,7 +18574,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="12"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -18501,7 +18586,7 @@
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -18511,7 +18596,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="12"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -18523,7 +18608,7 @@
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -18533,7 +18618,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="12"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -18545,7 +18630,7 @@
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -18555,7 +18640,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -18567,7 +18652,7 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -18577,7 +18662,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="12"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -18589,7 +18674,7 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -18599,7 +18684,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="12"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -18611,7 +18696,7 @@
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -18621,7 +18706,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="12"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -18633,7 +18718,7 @@
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -18643,7 +18728,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="12"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -18655,7 +18740,7 @@
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -18665,7 +18750,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="12"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -18677,7 +18762,7 @@
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -18687,7 +18772,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="12"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -18699,7 +18784,7 @@
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="11"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -18709,7 +18794,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="12"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -18721,7 +18806,7 @@
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -18731,7 +18816,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="12"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -18743,7 +18828,7 @@
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -18753,7 +18838,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="12"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -18765,7 +18850,7 @@
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="11"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -18775,7 +18860,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="12"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -18787,7 +18872,7 @@
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -18797,7 +18882,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="12"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -18809,7 +18894,7 @@
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -18819,7 +18904,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="12"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -18831,7 +18916,7 @@
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -18841,7 +18926,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="12"/>
+      <c r="M44" s="10"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -18853,7 +18938,7 @@
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -18863,7 +18948,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="12"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -18875,7 +18960,7 @@
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -18885,7 +18970,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="12"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -18897,7 +18982,7 @@
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -18907,7 +18992,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="12"/>
+      <c r="M47" s="10"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -18919,7 +19004,7 @@
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -18929,7 +19014,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="12"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -18941,7 +19026,7 @@
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -18951,7 +19036,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="12"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -18963,7 +19048,7 @@
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -18973,7 +19058,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="12"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -18985,7 +19070,7 @@
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="11"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -18995,7 +19080,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="12"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -19007,7 +19092,7 @@
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="11"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -19017,7 +19102,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="12"/>
+      <c r="M52" s="10"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -19029,7 +19114,7 @@
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -19039,7 +19124,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="12"/>
+      <c r="M53" s="10"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -19051,7 +19136,7 @@
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -19061,7 +19146,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="12"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -19073,7 +19158,7 @@
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="11"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -19083,7 +19168,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="12"/>
+      <c r="M55" s="10"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -19095,7 +19180,7 @@
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -19105,7 +19190,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="12"/>
+      <c r="M56" s="10"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -19117,7 +19202,7 @@
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -19127,7 +19212,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="12"/>
+      <c r="M57" s="10"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -19139,7 +19224,7 @@
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -19149,7 +19234,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="12"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -19161,7 +19246,7 @@
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="11"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -19171,7 +19256,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="12"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -19183,7 +19268,7 @@
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="11"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -19193,7 +19278,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="12"/>
+      <c r="M60" s="10"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -19205,7 +19290,7 @@
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -19215,7 +19300,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="12"/>
+      <c r="M61" s="10"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -19227,7 +19312,7 @@
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="11"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -19237,7 +19322,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="12"/>
+      <c r="M62" s="10"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -19249,7 +19334,7 @@
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="11"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -19259,7 +19344,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="12"/>
+      <c r="M63" s="10"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -19271,7 +19356,7 @@
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="11"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -19281,7 +19366,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="12"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -19293,7 +19378,7 @@
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="11"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -19303,7 +19388,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="12"/>
+      <c r="M65" s="10"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -19315,7 +19400,7 @@
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="11"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -19325,7 +19410,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="12"/>
+      <c r="M66" s="10"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -19337,7 +19422,7 @@
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="11"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -19347,7 +19432,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="12"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -19359,7 +19444,7 @@
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="11"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -19369,7 +19454,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="12"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -19381,7 +19466,7 @@
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="11"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -19391,7 +19476,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="12"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -19403,7 +19488,7 @@
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="11"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -19413,7 +19498,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="12"/>
+      <c r="M70" s="10"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -19425,7 +19510,7 @@
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="11"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -19435,7 +19520,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="12"/>
+      <c r="M71" s="10"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -19447,7 +19532,7 @@
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="11"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -19457,7 +19542,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="12"/>
+      <c r="M72" s="10"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -19469,7 +19554,7 @@
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="11"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -19479,7 +19564,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="12"/>
+      <c r="M73" s="10"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -19491,7 +19576,7 @@
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="11"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -19501,7 +19586,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="12"/>
+      <c r="M74" s="10"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -19513,7 +19598,7 @@
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="11"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -19523,7 +19608,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="12"/>
+      <c r="M75" s="10"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -19535,7 +19620,7 @@
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="11"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -19545,7 +19630,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="12"/>
+      <c r="M76" s="10"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -19557,7 +19642,7 @@
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="11"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -19567,7 +19652,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="12"/>
+      <c r="M77" s="10"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -19579,7 +19664,7 @@
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="11"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -19589,7 +19674,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="12"/>
+      <c r="M78" s="10"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -19601,7 +19686,7 @@
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="11"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -19611,7 +19696,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="12"/>
+      <c r="M79" s="10"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -19623,7 +19708,7 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="11"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -19633,7 +19718,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="12"/>
+      <c r="M80" s="10"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -19645,7 +19730,7 @@
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="11"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -19655,7 +19740,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="12"/>
+      <c r="M81" s="10"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -19667,7 +19752,7 @@
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="11"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -19677,7 +19762,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="12"/>
+      <c r="M82" s="10"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -19689,7 +19774,7 @@
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="11"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -19699,7 +19784,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="12"/>
+      <c r="M83" s="10"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -19711,7 +19796,7 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="11"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -19721,7 +19806,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="12"/>
+      <c r="M84" s="10"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -19733,7 +19818,7 @@
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="11"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -19743,7 +19828,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="12"/>
+      <c r="M85" s="10"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -19755,7 +19840,7 @@
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="11"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -19765,7 +19850,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="12"/>
+      <c r="M86" s="10"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -19777,7 +19862,7 @@
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="11"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -19787,7 +19872,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="12"/>
+      <c r="M87" s="10"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -19799,7 +19884,7 @@
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="11"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -19809,7 +19894,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="12"/>
+      <c r="M88" s="10"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -19821,7 +19906,7 @@
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="11"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -19831,7 +19916,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="12"/>
+      <c r="M89" s="10"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -19843,7 +19928,7 @@
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="11"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -19853,7 +19938,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="12"/>
+      <c r="M90" s="10"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -19865,7 +19950,7 @@
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="11"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -19875,7 +19960,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="12"/>
+      <c r="M91" s="10"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -19887,7 +19972,7 @@
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="11"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -19897,7 +19982,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="12"/>
+      <c r="M92" s="10"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -19909,7 +19994,7 @@
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="11"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -19919,7 +20004,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="12"/>
+      <c r="M93" s="10"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -19931,7 +20016,7 @@
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="11"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -19941,7 +20026,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="12"/>
+      <c r="M94" s="10"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -19953,7 +20038,7 @@
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="11"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -19963,7 +20048,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="12"/>
+      <c r="M95" s="10"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -19975,7 +20060,7 @@
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="11"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -19985,7 +20070,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="12"/>
+      <c r="M96" s="10"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -19997,7 +20082,7 @@
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="11"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -20007,7 +20092,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="12"/>
+      <c r="M97" s="10"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -20019,7 +20104,7 @@
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="11"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -20029,7 +20114,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="12"/>
+      <c r="M98" s="10"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -20041,7 +20126,7 @@
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="11"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -20051,7 +20136,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="12"/>
+      <c r="M99" s="10"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -20063,7 +20148,7 @@
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="11"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -20073,7 +20158,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="12"/>
+      <c r="M100" s="10"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -20085,7 +20170,7 @@
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="11"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -20095,7 +20180,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="12"/>
+      <c r="M101" s="10"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -20107,7 +20192,7 @@
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="11"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -20117,7 +20202,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="12"/>
+      <c r="M102" s="10"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -20129,7 +20214,7 @@
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="11"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -20139,7 +20224,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="12"/>
+      <c r="M103" s="10"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -20151,7 +20236,7 @@
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="11"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -20161,7 +20246,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="12"/>
+      <c r="M104" s="10"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -20173,7 +20258,7 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="11"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -20183,7 +20268,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="12"/>
+      <c r="M105" s="10"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -20195,7 +20280,7 @@
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="11"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -20205,7 +20290,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="12"/>
+      <c r="M106" s="10"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -20217,7 +20302,7 @@
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="11"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -20227,7 +20312,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="12"/>
+      <c r="M107" s="10"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -20239,7 +20324,7 @@
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="11"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -20249,7 +20334,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="12"/>
+      <c r="M108" s="10"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -20261,7 +20346,7 @@
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="11"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -20271,7 +20356,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-      <c r="M109" s="12"/>
+      <c r="M109" s="10"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -20283,7 +20368,7 @@
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="11"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -20293,7 +20378,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="12"/>
+      <c r="M110" s="10"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -20305,7 +20390,7 @@
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="11"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -20315,7 +20400,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="12"/>
+      <c r="M111" s="10"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -20327,7 +20412,7 @@
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="11"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -20337,7 +20422,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-      <c r="M112" s="12"/>
+      <c r="M112" s="10"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -20349,7 +20434,7 @@
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="11"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -20359,7 +20444,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="12"/>
+      <c r="M113" s="10"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -20371,7 +20456,7 @@
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="11"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -20381,7 +20466,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="12"/>
+      <c r="M114" s="10"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -20393,7 +20478,7 @@
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="11"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -20403,7 +20488,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="12"/>
+      <c r="M115" s="10"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -20415,7 +20500,7 @@
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="11"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -20425,7 +20510,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="12"/>
+      <c r="M116" s="10"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -20437,7 +20522,7 @@
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="11"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -20447,7 +20532,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="M117" s="12"/>
+      <c r="M117" s="10"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -20459,7 +20544,7 @@
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="11"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -20469,7 +20554,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="12"/>
+      <c r="M118" s="10"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -20481,7 +20566,7 @@
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="11"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -20491,7 +20576,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="12"/>
+      <c r="M119" s="10"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -20503,7 +20588,7 @@
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="11"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -20513,7 +20598,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-      <c r="M120" s="12"/>
+      <c r="M120" s="10"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -20525,7 +20610,7 @@
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="11"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -20535,7 +20620,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="12"/>
+      <c r="M121" s="10"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -20547,7 +20632,7 @@
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="11"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -20557,7 +20642,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-      <c r="M122" s="12"/>
+      <c r="M122" s="10"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -20569,7 +20654,7 @@
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="11"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -20579,7 +20664,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-      <c r="M123" s="12"/>
+      <c r="M123" s="10"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -20591,7 +20676,7 @@
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="11"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -20601,7 +20686,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="M124" s="12"/>
+      <c r="M124" s="10"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -20613,7 +20698,7 @@
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="11"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -20623,7 +20708,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-      <c r="M125" s="12"/>
+      <c r="M125" s="10"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -20635,7 +20720,7 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="11"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -20645,7 +20730,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-      <c r="M126" s="12"/>
+      <c r="M126" s="10"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -20657,7 +20742,7 @@
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="11"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -20667,7 +20752,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="12"/>
+      <c r="M127" s="10"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -20679,7 +20764,7 @@
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="11"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -20689,7 +20774,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
-      <c r="M128" s="12"/>
+      <c r="M128" s="10"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -20701,7 +20786,7 @@
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="11"/>
+      <c r="C129" s="5"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -20711,7 +20796,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
-      <c r="M129" s="12"/>
+      <c r="M129" s="10"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -20723,7 +20808,7 @@
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="11"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -20733,7 +20818,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
-      <c r="M130" s="12"/>
+      <c r="M130" s="10"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
@@ -20745,7 +20830,7 @@
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="11"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -20755,7 +20840,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
-      <c r="M131" s="12"/>
+      <c r="M131" s="10"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -20767,7 +20852,7 @@
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="11"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -20777,7 +20862,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
-      <c r="M132" s="12"/>
+      <c r="M132" s="10"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -20789,7 +20874,7 @@
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="11"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -20799,7 +20884,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-      <c r="M133" s="12"/>
+      <c r="M133" s="10"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -20811,7 +20896,7 @@
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="11"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -20821,7 +20906,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-      <c r="M134" s="12"/>
+      <c r="M134" s="10"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -20833,7 +20918,7 @@
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="11"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -20843,7 +20928,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
-      <c r="M135" s="12"/>
+      <c r="M135" s="10"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -20855,7 +20940,7 @@
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="11"/>
+      <c r="C136" s="5"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -20865,7 +20950,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="12"/>
+      <c r="M136" s="10"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -20877,7 +20962,7 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="11"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -20887,7 +20972,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
-      <c r="M137" s="12"/>
+      <c r="M137" s="10"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -20899,7 +20984,7 @@
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="11"/>
+      <c r="C138" s="5"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -20909,7 +20994,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-      <c r="M138" s="12"/>
+      <c r="M138" s="10"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -20921,7 +21006,7 @@
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="11"/>
+      <c r="C139" s="5"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -20931,7 +21016,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-      <c r="M139" s="12"/>
+      <c r="M139" s="10"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -20943,7 +21028,7 @@
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="11"/>
+      <c r="C140" s="5"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -20953,7 +21038,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-      <c r="M140" s="12"/>
+      <c r="M140" s="10"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -20965,7 +21050,7 @@
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="11"/>
+      <c r="C141" s="5"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -20975,7 +21060,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
-      <c r="M141" s="12"/>
+      <c r="M141" s="10"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -20987,7 +21072,7 @@
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="11"/>
+      <c r="C142" s="5"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -20997,7 +21082,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
-      <c r="M142" s="12"/>
+      <c r="M142" s="10"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -21009,7 +21094,7 @@
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="11"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -21019,7 +21104,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-      <c r="M143" s="12"/>
+      <c r="M143" s="10"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -21031,7 +21116,7 @@
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="11"/>
+      <c r="C144" s="5"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -21041,7 +21126,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-      <c r="M144" s="12"/>
+      <c r="M144" s="10"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -21053,7 +21138,7 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="11"/>
+      <c r="C145" s="5"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -21063,7 +21148,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-      <c r="M145" s="12"/>
+      <c r="M145" s="10"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -21075,7 +21160,7 @@
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="11"/>
+      <c r="C146" s="5"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -21085,7 +21170,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="12"/>
+      <c r="M146" s="10"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -21097,7 +21182,7 @@
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="11"/>
+      <c r="C147" s="5"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -21107,7 +21192,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-      <c r="M147" s="12"/>
+      <c r="M147" s="10"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -21119,7 +21204,7 @@
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="11"/>
+      <c r="C148" s="5"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -21129,7 +21214,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="12"/>
+      <c r="M148" s="10"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -21141,7 +21226,7 @@
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="11"/>
+      <c r="C149" s="5"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -21151,7 +21236,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-      <c r="M149" s="12"/>
+      <c r="M149" s="10"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -21163,7 +21248,7 @@
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="11"/>
+      <c r="C150" s="5"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -21173,7 +21258,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-      <c r="M150" s="12"/>
+      <c r="M150" s="10"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -21185,7 +21270,7 @@
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="11"/>
+      <c r="C151" s="5"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -21195,7 +21280,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-      <c r="M151" s="12"/>
+      <c r="M151" s="10"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -21207,7 +21292,7 @@
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="11"/>
+      <c r="C152" s="5"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -21217,7 +21302,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="12"/>
+      <c r="M152" s="10"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -21229,7 +21314,7 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="11"/>
+      <c r="C153" s="5"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -21239,7 +21324,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-      <c r="M153" s="12"/>
+      <c r="M153" s="10"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -21251,7 +21336,7 @@
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="11"/>
+      <c r="C154" s="5"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -21261,7 +21346,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-      <c r="M154" s="12"/>
+      <c r="M154" s="10"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -21273,7 +21358,7 @@
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="11"/>
+      <c r="C155" s="5"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -21283,7 +21368,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-      <c r="M155" s="12"/>
+      <c r="M155" s="10"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -21295,7 +21380,7 @@
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="11"/>
+      <c r="C156" s="5"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -21305,7 +21390,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-      <c r="M156" s="12"/>
+      <c r="M156" s="10"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -21317,7 +21402,7 @@
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="11"/>
+      <c r="C157" s="5"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -21327,7 +21412,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-      <c r="M157" s="12"/>
+      <c r="M157" s="10"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21339,7 +21424,7 @@
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="11"/>
+      <c r="C158" s="5"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -21349,7 +21434,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
-      <c r="M158" s="12"/>
+      <c r="M158" s="10"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21361,7 +21446,7 @@
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="11"/>
+      <c r="C159" s="5"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -21371,7 +21456,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
-      <c r="M159" s="12"/>
+      <c r="M159" s="10"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21383,7 +21468,7 @@
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="11"/>
+      <c r="C160" s="5"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -21393,7 +21478,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
-      <c r="M160" s="12"/>
+      <c r="M160" s="10"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21405,7 +21490,7 @@
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="11"/>
+      <c r="C161" s="5"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -21415,7 +21500,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
-      <c r="M161" s="12"/>
+      <c r="M161" s="10"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21427,7 +21512,7 @@
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="11"/>
+      <c r="C162" s="5"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -21437,7 +21522,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
-      <c r="M162" s="12"/>
+      <c r="M162" s="10"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21449,7 +21534,7 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="11"/>
+      <c r="C163" s="5"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -21459,7 +21544,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
-      <c r="M163" s="12"/>
+      <c r="M163" s="10"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -21471,7 +21556,7 @@
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="11"/>
+      <c r="C164" s="5"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -21481,7 +21566,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
-      <c r="M164" s="12"/>
+      <c r="M164" s="10"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -21493,7 +21578,7 @@
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="11"/>
+      <c r="C165" s="5"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -21503,7 +21588,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
-      <c r="M165" s="12"/>
+      <c r="M165" s="10"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -21515,7 +21600,7 @@
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="11"/>
+      <c r="C166" s="5"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -21525,7 +21610,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
-      <c r="M166" s="12"/>
+      <c r="M166" s="10"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -21537,7 +21622,7 @@
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="11"/>
+      <c r="C167" s="5"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -21547,7 +21632,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
-      <c r="M167" s="12"/>
+      <c r="M167" s="10"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -21559,7 +21644,7 @@
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="11"/>
+      <c r="C168" s="5"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -21569,7 +21654,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
-      <c r="M168" s="12"/>
+      <c r="M168" s="10"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -21581,7 +21666,7 @@
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="11"/>
+      <c r="C169" s="5"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -21591,7 +21676,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
-      <c r="M169" s="12"/>
+      <c r="M169" s="10"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -21603,7 +21688,7 @@
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="11"/>
+      <c r="C170" s="5"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -21613,7 +21698,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
-      <c r="M170" s="12"/>
+      <c r="M170" s="10"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -21625,7 +21710,7 @@
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="11"/>
+      <c r="C171" s="5"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -21635,7 +21720,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
-      <c r="M171" s="12"/>
+      <c r="M171" s="10"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -21647,7 +21732,7 @@
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="11"/>
+      <c r="C172" s="5"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -21657,7 +21742,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
-      <c r="M172" s="12"/>
+      <c r="M172" s="10"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -21669,7 +21754,7 @@
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="11"/>
+      <c r="C173" s="5"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -21679,7 +21764,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
-      <c r="M173" s="12"/>
+      <c r="M173" s="10"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -21691,7 +21776,7 @@
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="11"/>
+      <c r="C174" s="5"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -21701,7 +21786,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
-      <c r="M174" s="12"/>
+      <c r="M174" s="10"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -21713,7 +21798,7 @@
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="11"/>
+      <c r="C175" s="5"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -21723,7 +21808,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="12"/>
+      <c r="M175" s="10"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -21735,7 +21820,7 @@
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="11"/>
+      <c r="C176" s="5"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -21745,7 +21830,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="12"/>
+      <c r="M176" s="10"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -21757,7 +21842,7 @@
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="11"/>
+      <c r="C177" s="5"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -21767,7 +21852,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
-      <c r="M177" s="12"/>
+      <c r="M177" s="10"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -21779,7 +21864,7 @@
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="11"/>
+      <c r="C178" s="5"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -21789,7 +21874,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
-      <c r="M178" s="12"/>
+      <c r="M178" s="10"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -21801,7 +21886,7 @@
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="11"/>
+      <c r="C179" s="5"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -21811,7 +21896,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
-      <c r="M179" s="12"/>
+      <c r="M179" s="10"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -21823,7 +21908,7 @@
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="11"/>
+      <c r="C180" s="5"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -21833,7 +21918,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
-      <c r="M180" s="12"/>
+      <c r="M180" s="10"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -21845,7 +21930,7 @@
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="11"/>
+      <c r="C181" s="5"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -21855,7 +21940,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
-      <c r="M181" s="12"/>
+      <c r="M181" s="10"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
@@ -21867,7 +21952,7 @@
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="11"/>
+      <c r="C182" s="5"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -21877,7 +21962,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
-      <c r="M182" s="12"/>
+      <c r="M182" s="10"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -21889,7 +21974,7 @@
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="11"/>
+      <c r="C183" s="5"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -21899,7 +21984,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
-      <c r="M183" s="12"/>
+      <c r="M183" s="10"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
@@ -21911,7 +21996,7 @@
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="11"/>
+      <c r="C184" s="5"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -21921,7 +22006,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
-      <c r="M184" s="12"/>
+      <c r="M184" s="10"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
@@ -21933,7 +22018,7 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="11"/>
+      <c r="C185" s="5"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -21943,7 +22028,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
-      <c r="M185" s="12"/>
+      <c r="M185" s="10"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
@@ -21955,7 +22040,7 @@
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="11"/>
+      <c r="C186" s="5"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -21965,7 +22050,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
-      <c r="M186" s="12"/>
+      <c r="M186" s="10"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -21977,7 +22062,7 @@
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="11"/>
+      <c r="C187" s="5"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -21987,7 +22072,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
-      <c r="M187" s="12"/>
+      <c r="M187" s="10"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -21999,7 +22084,7 @@
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="11"/>
+      <c r="C188" s="5"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -22009,7 +22094,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
-      <c r="M188" s="12"/>
+      <c r="M188" s="10"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -22021,7 +22106,7 @@
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="11"/>
+      <c r="C189" s="5"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -22031,7 +22116,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
-      <c r="M189" s="12"/>
+      <c r="M189" s="10"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
@@ -22043,7 +22128,7 @@
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="11"/>
+      <c r="C190" s="5"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -22053,7 +22138,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
-      <c r="M190" s="12"/>
+      <c r="M190" s="10"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -22065,7 +22150,7 @@
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="11"/>
+      <c r="C191" s="5"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -22075,7 +22160,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
-      <c r="M191" s="12"/>
+      <c r="M191" s="10"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
@@ -22087,7 +22172,7 @@
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="11"/>
+      <c r="C192" s="5"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -22097,7 +22182,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
-      <c r="M192" s="12"/>
+      <c r="M192" s="10"/>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
@@ -22109,7 +22194,7 @@
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="11"/>
+      <c r="C193" s="5"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -22119,7 +22204,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
-      <c r="M193" s="12"/>
+      <c r="M193" s="10"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
@@ -22131,7 +22216,7 @@
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="11"/>
+      <c r="C194" s="5"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -22141,7 +22226,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
-      <c r="M194" s="12"/>
+      <c r="M194" s="10"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -22153,7 +22238,7 @@
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="11"/>
+      <c r="C195" s="5"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -22163,7 +22248,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
-      <c r="M195" s="12"/>
+      <c r="M195" s="10"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
@@ -22175,7 +22260,7 @@
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="11"/>
+      <c r="C196" s="5"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -22185,7 +22270,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
-      <c r="M196" s="12"/>
+      <c r="M196" s="10"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
@@ -22197,7 +22282,7 @@
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="11"/>
+      <c r="C197" s="5"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -22207,7 +22292,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
-      <c r="M197" s="12"/>
+      <c r="M197" s="10"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
@@ -22219,7 +22304,7 @@
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="11"/>
+      <c r="C198" s="5"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -22229,7 +22314,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
-      <c r="M198" s="12"/>
+      <c r="M198" s="10"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
@@ -22241,7 +22326,7 @@
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="11"/>
+      <c r="C199" s="5"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -22251,7 +22336,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
-      <c r="M199" s="12"/>
+      <c r="M199" s="10"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -22263,7 +22348,7 @@
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="11"/>
+      <c r="C200" s="5"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -22273,7 +22358,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
-      <c r="M200" s="12"/>
+      <c r="M200" s="10"/>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
@@ -22285,7 +22370,7 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="11"/>
+      <c r="C201" s="5"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -22295,7 +22380,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
-      <c r="M201" s="12"/>
+      <c r="M201" s="10"/>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="445">
   <si>
     <t>Course</t>
   </si>
@@ -162,6 +162,36 @@
     <t>5,376,5,1,6,Y</t>
   </si>
   <si>
+    <t>The Cradle</t>
+  </si>
+  <si>
+    <t>3,113,1,3,4,Y</t>
+  </si>
+  <si>
+    <t>3,85,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>3,66,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>3,127,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>3,56,2,2,4,X</t>
+  </si>
+  <si>
+    <t>3,58,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>3,92,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>3,80,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>3,112,1,3,4,Y</t>
+  </si>
+  <si>
     <t>Turtle Creek</t>
   </si>
   <si>
@@ -1249,6 +1279,78 @@
   </si>
   <si>
     <t>4,210,2,1,3,Y</t>
+  </si>
+  <si>
+    <t>Longleaf</t>
+  </si>
+  <si>
+    <t>5,189,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,207,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,224,3,2,5,X</t>
+  </si>
+  <si>
+    <t>5,298,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,224,2,1,3,Y</t>
+  </si>
+  <si>
+    <t>5,282,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>3,98,1,1,2,Y</t>
+  </si>
+  <si>
+    <t>4,216,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>5,189,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>3,95,2,2,4,X</t>
+  </si>
+  <si>
+    <t>4,224,2,3,5,X</t>
+  </si>
+  <si>
+    <t>5,298,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,224,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>3,98,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>4,216,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,215,2,3,5,X</t>
+  </si>
+  <si>
+    <t>3,100,2,1,3,X</t>
+  </si>
+  <si>
+    <t>5,320,4,1,5,X</t>
+  </si>
+  <si>
+    <t>3,87,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,225,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,217,4,2,6,X</t>
+  </si>
+  <si>
+    <t>5,300,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>4,320,2,1,3,X</t>
   </si>
 </sst>
 </file>
@@ -1717,40 +1819,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3">
         <v>44661</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M2" s="12">
         <v>57</v>
@@ -1758,40 +1860,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C3" s="3">
         <v>44677</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="M3" s="12">
         <v>51</v>
@@ -1799,40 +1901,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3">
         <v>44682</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M4" s="12">
         <v>50</v>
@@ -1840,40 +1942,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>44696</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M5" s="12">
         <v>52</v>
@@ -1881,40 +1983,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3">
         <v>44709</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M6" s="12">
         <v>53</v>
@@ -1922,40 +2024,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3">
         <v>44737</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M7" s="12">
         <v>52</v>
@@ -1963,40 +2065,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>44849</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M8" s="12">
         <v>45</v>
@@ -2004,40 +2106,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3">
         <v>44863</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M9" s="12">
         <v>54</v>
@@ -2045,40 +2147,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3">
         <v>44870</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M10" s="12">
         <v>46</v>
@@ -2086,40 +2188,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3">
         <v>44878</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" s="12">
         <v>52</v>
@@ -2127,40 +2229,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3">
         <v>44884</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M12" s="12">
         <v>45</v>
@@ -2168,40 +2270,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3">
         <v>44898</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M13" s="12">
         <v>45</v>
@@ -2209,40 +2311,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C14" s="3">
         <v>45017</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M14" s="12">
         <v>52</v>
@@ -2250,40 +2352,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3">
         <v>45031</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="M15" s="12">
         <v>49</v>
@@ -2291,40 +2393,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3">
         <v>45052</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M16" s="12">
         <v>38</v>
@@ -2332,40 +2434,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3">
         <v>45053</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M17" s="12">
         <v>54</v>
@@ -2373,40 +2475,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C18" s="3">
         <v>45073</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="M18" s="12">
         <v>46</v>
@@ -2414,40 +2516,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C19" s="3">
         <v>45081</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="M19" s="12">
         <v>46</v>
@@ -2455,40 +2557,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C20" s="3">
         <v>45087</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M20" s="12">
         <v>41</v>
@@ -2496,40 +2598,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3">
         <v>45088</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M21" s="12">
         <v>47</v>
@@ -2537,40 +2639,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C22" s="3">
         <v>45116</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M22" s="10">
         <v>45</v>
@@ -2578,40 +2680,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C23" s="3">
         <v>45129</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M23" s="10">
         <v>45</v>
@@ -2619,40 +2721,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C24" s="3">
         <v>45165</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M24" s="10">
         <v>45</v>
@@ -2660,40 +2762,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C25" s="3">
         <v>45171</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M25" s="10">
         <v>47</v>
@@ -2701,40 +2803,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3">
         <v>45172</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M26" s="10">
         <v>45</v>
@@ -2742,40 +2844,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3">
         <v>45179</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M27" s="10">
         <v>49</v>
@@ -2783,40 +2885,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C28" s="3">
         <v>45186</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M28" s="10">
         <v>41</v>
@@ -2824,40 +2926,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C29" s="3">
         <v>45206</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M29" s="10">
         <v>42</v>
@@ -2865,40 +2967,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C30" s="3">
         <v>45207</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M30" s="10">
         <v>42</v>
@@ -2906,40 +3008,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C31" s="3">
         <v>45208</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M31" s="10">
         <v>49</v>
@@ -2947,40 +3049,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C32" s="3">
         <v>45220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M32" s="10">
         <v>39</v>
@@ -2988,40 +3090,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C33" s="3">
         <v>45221</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M33" s="10">
         <v>42</v>
@@ -3029,40 +3131,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C34" s="5">
         <v>45228</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M34" s="10">
         <v>45</v>
@@ -3070,40 +3172,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C35" s="3">
         <v>45253</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M35" s="10">
         <v>43</v>
@@ -3111,40 +3213,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C36" s="5">
         <v>45249</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="M36" s="10">
         <v>41</v>
@@ -3152,40 +3254,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C37" s="3">
         <v>45298</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M37" s="10">
         <v>42</v>
@@ -3193,40 +3295,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="2" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C38" s="3">
         <v>45306</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M38" s="10">
         <v>39</v>
@@ -3234,40 +3336,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="2" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3">
         <v>45307</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M39" s="10">
         <v>40</v>
@@ -3275,40 +3377,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C40" s="3">
         <v>45389</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M40" s="10">
         <v>46</v>
@@ -3316,40 +3418,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C41" s="3">
         <v>45396</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M41" s="10">
         <v>44</v>
@@ -3357,40 +3459,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C42" s="3">
         <v>45409</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M42" s="10">
         <v>44</v>
@@ -3398,40 +3500,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C43" s="3">
         <v>45410</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="M43" s="10">
         <v>50</v>
@@ -3439,40 +3541,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C44" s="3">
         <v>45445</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M44" s="10">
         <v>44</v>
@@ -3480,40 +3582,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C45" s="3">
         <v>45451</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M45" s="10">
         <v>44</v>
@@ -3521,40 +3623,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
       <c r="A46" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C46" s="3">
         <v>45452</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M46" s="10">
         <v>48</v>
@@ -3562,40 +3664,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
       <c r="A47" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C47" s="3">
         <v>45466</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M47" s="10">
         <v>50</v>
@@ -3603,89 +3705,167 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
       <c r="A48" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>341</v>
+        <v>414</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C48" s="3">
         <v>45472</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="M48" s="10">
         <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="10"/>
+      <c r="A49" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45478</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M49" s="10">
+        <v>40</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="10"/>
+      <c r="A50" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45479</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M50" s="10">
+        <v>43</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="10"/>
+      <c r="A51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45494</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M51" s="10">
+        <v>43</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
       <c r="A52" s="2"/>
@@ -18012,19 +18192,45 @@
       <c r="T2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6696544</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="10">
+        <v>31</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="458">
   <si>
     <t>Course</t>
   </si>
@@ -1351,6 +1351,45 @@
   </si>
   <si>
     <t>4,320,2,1,3,X</t>
+  </si>
+  <si>
+    <t>5,310,6,2,8,X</t>
+  </si>
+  <si>
+    <t>5,290,4,1,5,X</t>
+  </si>
+  <si>
+    <t>4,205,2,3,5,X</t>
+  </si>
+  <si>
+    <t>4,225,3,2,5,X</t>
+  </si>
+  <si>
+    <t>4,190,3,2,5,X</t>
+  </si>
+  <si>
+    <t>5,300,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,200,3,1,4,X</t>
+  </si>
+  <si>
+    <t>4,170,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>3,100,3,1,4,X</t>
+  </si>
+  <si>
+    <t>4,210,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>4,215,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>3,85,2,2,4,X</t>
+  </si>
+  <si>
+    <t>5,315,4,3,7,Y</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1815,7 @@
     <col min="13" max="13" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1858,7 +1897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -1899,7 +1938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -1940,7 +1979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -1981,7 +2020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2022,7 +2061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -2063,7 +2102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2104,7 +2143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -2145,7 +2184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -2186,7 +2225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -2227,7 +2266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -2268,7 +2307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -3830,7 +3869,7 @@
       <c r="A51" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C51" s="3">
@@ -3868,34 +3907,86 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="10"/>
+      <c r="A52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" s="3">
+        <v>45584</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="M52" s="10">
+        <v>44</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="10"/>
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" s="3">
+        <v>45599</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="M53" s="10">
+        <v>45</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
       <c r="A54" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="481">
   <si>
     <t>Course</t>
   </si>
@@ -1390,6 +1390,75 @@
   </si>
   <si>
     <t>5,315,4,3,7,Y</t>
+  </si>
+  <si>
+    <t>3,90,1,4,5,Y</t>
+  </si>
+  <si>
+    <t>4,209,2,2,4,X</t>
+  </si>
+  <si>
+    <t>5,280,3,1,4,X</t>
+  </si>
+  <si>
+    <t>3,103,2,3,5,X</t>
+  </si>
+  <si>
+    <t>5,295,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,205,3,3,6,X</t>
+  </si>
+  <si>
+    <t>5,305,5,1,6,X</t>
+  </si>
+  <si>
+    <t>5,305,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>3,101,2,2,4,X</t>
+  </si>
+  <si>
+    <t>4,180,4,3,7,X</t>
+  </si>
+  <si>
+    <t>5,305,4,2,6,X</t>
+  </si>
+  <si>
+    <t>3,78,2,1,3,Y</t>
+  </si>
+  <si>
+    <t>5,280,5,2,7,Y</t>
+  </si>
+  <si>
+    <t>4,210,2,3,5,X</t>
+  </si>
+  <si>
+    <t>3,93,1,3,4,Y</t>
+  </si>
+  <si>
+    <t>4,170,3,1,4,X</t>
+  </si>
+  <si>
+    <t>5,275,4,1,5,Y</t>
+  </si>
+  <si>
+    <t>3,115,3,1,4,X</t>
+  </si>
+  <si>
+    <t>4,215,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,235,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>4,190,3,3,6,X</t>
+  </si>
+  <si>
+    <t>3,95,3,1,4,X</t>
+  </si>
+  <si>
+    <t>4,200,3,1,4,Y</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1884,7 @@
     <col min="13" max="13" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1897,7 +1966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -1938,7 +2007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -1979,7 +2048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -2020,7 +2089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2061,7 +2130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -2102,7 +2171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2143,7 +2212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -3910,7 +3979,7 @@
       <c r="A52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C52" s="3">
@@ -3951,7 +4020,7 @@
       <c r="A53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C53" s="3">
@@ -3989,49 +4058,127 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="10"/>
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C54" s="3">
+        <v>45606</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M54" s="10">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="10"/>
+      <c r="A55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55" s="3">
+        <v>45619</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="M55" s="10">
+        <v>46</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="10"/>
+      <c r="A56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="3">
+        <v>45620</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="M56" s="10">
+        <v>45</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
       <c r="A57" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="524">
   <si>
     <t>Course</t>
   </si>
@@ -1459,6 +1459,135 @@
   </si>
   <si>
     <t>4,200,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>5,385,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>4,210,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>5,375,4,2,6,X</t>
+  </si>
+  <si>
+    <t>3,105,1,3,4,Y</t>
+  </si>
+  <si>
+    <t>5,360,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>4,210,2,2,4,X</t>
+  </si>
+  <si>
+    <t>3,110,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>4,185,3,4,7,X</t>
+  </si>
+  <si>
+    <t>4,260,4,2,6,X</t>
+  </si>
+  <si>
+    <t>5,385,5,2,7,X</t>
+  </si>
+  <si>
+    <t>3,120,2,1,3,X</t>
+  </si>
+  <si>
+    <t>5,340,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,242,2,2,4,X</t>
+  </si>
+  <si>
+    <t>4,275,2,1,3,Y</t>
+  </si>
+  <si>
+    <t>4,266,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>5,400,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,235,4,1,5,X</t>
+  </si>
+  <si>
+    <t>3,115,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>4,222,3,3,6,X</t>
+  </si>
+  <si>
+    <t>4,220,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>3,110,2,1,3,Y</t>
+  </si>
+  <si>
+    <t>4,230,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>5,375,5,3,8,X</t>
+  </si>
+  <si>
+    <t>Savannahs</t>
+  </si>
+  <si>
+    <t>4,235,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>5,380,5,1,6,Y</t>
+  </si>
+  <si>
+    <t>4,250,3,2,5,Y</t>
+  </si>
+  <si>
+    <t>4,275,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>4,225,2,3,5,X</t>
+  </si>
+  <si>
+    <t>3,110,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>5,415,5,1,6,X</t>
+  </si>
+  <si>
+    <t>3,110,2,1,3,X</t>
+  </si>
+  <si>
+    <t>4,212,2,2,4,X</t>
+  </si>
+  <si>
+    <t>The Habitat</t>
+  </si>
+  <si>
+    <t>5,385,6,2,8,Y</t>
+  </si>
+  <si>
+    <t>4,280,3,2,5,X</t>
+  </si>
+  <si>
+    <t>3,115,2,1,3,Y</t>
+  </si>
+  <si>
+    <t>3,125,2,3,5,X</t>
+  </si>
+  <si>
+    <t>4,275,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,250,2,2,4,X</t>
+  </si>
+  <si>
+    <t>5,390,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>4,245,3,1,4,X</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +2013,7 @@
     <col min="13" max="13" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +2054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1966,7 +2095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -2007,7 +2136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -2048,7 +2177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -2089,7 +2218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2130,7 +2259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -2171,7 +2300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2212,7 +2341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -4061,7 +4190,7 @@
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C54" s="3">
@@ -4102,7 +4231,7 @@
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C55" s="3">
@@ -4143,7 +4272,7 @@
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C56" s="3">
@@ -4181,79 +4310,209 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="10"/>
+      <c r="A57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C57" s="3">
+        <v>45753</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M57" s="10">
+        <v>44</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="10"/>
+      <c r="A58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C58" s="3">
+        <v>45781</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="M58" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="10"/>
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C59" s="3">
+        <v>45795</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="M59" s="10">
+        <v>44</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="10"/>
+      <c r="A60" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C60" s="3">
+        <v>45815</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="M60" s="10">
+        <v>44</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="10"/>
+      <c r="A61" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C61" s="3">
+        <v>45816</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M61" s="10">
+        <v>47</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
       <c r="A62" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="537">
   <si>
     <t>Course</t>
   </si>
@@ -1588,6 +1588,45 @@
   </si>
   <si>
     <t>4,245,3,1,4,X</t>
+  </si>
+  <si>
+    <t>4,260,3,4,7,X</t>
+  </si>
+  <si>
+    <t>5,385,3,2,5,X</t>
+  </si>
+  <si>
+    <t>3,120,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>5,340,3,2,5,X</t>
+  </si>
+  <si>
+    <t>4,242,3,2,5,X</t>
+  </si>
+  <si>
+    <t>3,80,2,2,4,X</t>
+  </si>
+  <si>
+    <t>4,275,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>4,225,2,1,3,X</t>
+  </si>
+  <si>
+    <t>4,266,2,1,3,Y</t>
+  </si>
+  <si>
+    <t>4,235,3,2,5,X</t>
+  </si>
+  <si>
+    <t>4,222,3,1,4,X</t>
+  </si>
+  <si>
+    <t>4,230,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>5,375,2,2,4,Y</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2052,7 @@
     <col min="13" max="13" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -2095,7 +2134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -2136,7 +2175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -2177,7 +2216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -2218,7 +2257,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2259,7 +2298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -2300,7 +2339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2341,7 +2380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -2382,7 +2421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -2423,7 +2462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -2464,7 +2503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -2505,7 +2544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -4313,7 +4352,7 @@
       <c r="A57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C57" s="3">
@@ -4354,7 +4393,7 @@
       <c r="A58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C58" s="3">
@@ -4395,7 +4434,7 @@
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C59" s="3">
@@ -4436,7 +4475,7 @@
       <c r="A60" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C60" s="3">
@@ -4477,7 +4516,7 @@
       <c r="A61" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C61" s="3">
@@ -4515,34 +4554,86 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="10"/>
+      <c r="A62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C62" s="3">
+        <v>45934</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="M62" s="10">
+        <v>43</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="10"/>
+      <c r="A63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C63" s="3">
+        <v>45935</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="M63" s="10">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25">
       <c r="A64" s="2"/>

--- a/data/Edison's Scores.xlsx
+++ b/data/Edison's Scores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="571">
   <si>
     <t>Course</t>
   </si>
@@ -822,7 +822,7 @@
     <t>5,250,4,3,7,X</t>
   </si>
   <si>
-    <t>PGA Course</t>
+    <t>PGA Wanamaker</t>
   </si>
   <si>
     <t>4,177,3,2,5,Y</t>
@@ -1627,6 +1627,108 @@
   </si>
   <si>
     <t>5,375,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>PGA Ryder - Front</t>
+  </si>
+  <si>
+    <t>4,232,2,2,4,X</t>
+  </si>
+  <si>
+    <t>4,226,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>5,312,2,4,6,Y</t>
+  </si>
+  <si>
+    <t>3,109,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>5,330,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>3,120,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,235,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,263,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>PGA Ryder - Back</t>
+  </si>
+  <si>
+    <t>3,100,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>4,240,2,3,5,Y</t>
+  </si>
+  <si>
+    <t>3,112,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>5,386, 4,2,6,Y</t>
+  </si>
+  <si>
+    <t>4,264,3,1,4,Y</t>
+  </si>
+  <si>
+    <t>5,351,5,1,6,Y</t>
+  </si>
+  <si>
+    <t>3,105,2,2,4,X</t>
+  </si>
+  <si>
+    <t>5,342,4,2,6,X</t>
+  </si>
+  <si>
+    <t>4,236,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,232,5,2,7,X</t>
+  </si>
+  <si>
+    <t>4,226,3,3,6,X</t>
+  </si>
+  <si>
+    <t>5,312,3,2,5,X</t>
+  </si>
+  <si>
+    <t>3,109,1,3,4,Y</t>
+  </si>
+  <si>
+    <t>3,120,1,2,3,X</t>
+  </si>
+  <si>
+    <t>4,235,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,265,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>4,100,5,2,7,X</t>
+  </si>
+  <si>
+    <t>4,240,2,3,5,X</t>
+  </si>
+  <si>
+    <t>3,112,2,2,4,Y</t>
+  </si>
+  <si>
+    <t>5,386,4,2,6,Y</t>
+  </si>
+  <si>
+    <t>4,244,3,3,6,Y</t>
+  </si>
+  <si>
+    <t>5,351,3,2,5,X</t>
+  </si>
+  <si>
+    <t>3,105,1,2,3,Y</t>
+  </si>
+  <si>
+    <t>4,236,3,2,5,X</t>
   </si>
 </sst>
 </file>
@@ -4184,7 +4286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>79</v>
       </c>
@@ -4225,7 +4327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -4266,7 +4368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
@@ -4307,7 +4409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -4348,7 +4450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>101</v>
       </c>
@@ -4389,7 +4491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>69</v>
       </c>
@@ -4430,7 +4532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
@@ -4471,7 +4573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>505</v>
       </c>
@@ -4512,7 +4614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="2" t="s">
         <v>515</v>
       </c>
@@ -4553,11 +4655,11 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C62" s="3">
@@ -4594,11 +4696,11 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C63" s="3">
@@ -4635,67 +4737,171 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="20.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="20.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="20.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C64" s="3">
+        <v>45941</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="M64" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C65" s="3">
+        <v>45941</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="M65" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C66" s="3">
+        <v>45942</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="M66" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C67" s="3">
+        <v>45942</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="M67" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="2"/>
       <c r="B68" s="10"/>
       <c r="C68" s="3"/>
@@ -4710,7 +4916,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="2"/>
       <c r="B69" s="10"/>
       <c r="C69" s="3"/>
